--- a/ゲーム制作資料/全体概要.xlsx
+++ b/ゲーム制作資料/全体概要.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲーム制作資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A283BEF-71CF-4B8A-815F-841D47BECA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA5EE03-BA45-413B-8A05-48A4778918B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="56910" windowHeight="32640" xr2:uid="{92B53D5B-1DF6-4B5A-BEE7-EE8E3CAF1BDF}"/>
+    <workbookView xWindow="3444" yWindow="2712" windowWidth="17424" windowHeight="11268" firstSheet="1" activeTab="5" xr2:uid="{92B53D5B-1DF6-4B5A-BEE7-EE8E3CAF1BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="全体概要" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="210">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -153,13 +153,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>速度４</t>
-    <rPh sb="0" eb="2">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーキャラクター概要</t>
     <rPh sb="11" eb="13">
       <t>ガイヨウ</t>
@@ -333,19 +326,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>横１ブロック、縦２ブロック分のサイズです。</t>
-    <rPh sb="0" eb="1">
-      <t>ヨコ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タテ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>最後のマップにのみ存在します</t>
     <rPh sb="0" eb="2">
       <t>サイゴ</t>
@@ -555,57 +535,6 @@
   </si>
   <si>
     <t>後から速度変更できるようにしてください</t>
-    <rPh sb="0" eb="1">
-      <t>ノチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>後から速度変更できるようにしてください</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>後からジャンプ高さ変更できるようにしてください</t>
-    <rPh sb="7" eb="8">
-      <t>タカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>後から飛距離変更できるようにしてください</t>
-    <rPh sb="3" eb="6">
-      <t>ヒキョリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・まっすぐ飛んで、２マス飛んだら消えます</t>
-    <rPh sb="5" eb="6">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャンプ２ブロック分</t>
-    <rPh sb="9" eb="10">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>後からジャンプ高さ変更できるようにしてください</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -935,16 +864,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１ブロック分、上にジャンプする</t>
-    <rPh sb="5" eb="6">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ウエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボールを打つ</t>
     <rPh sb="4" eb="5">
       <t>ウ</t>
@@ -1094,13 +1013,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Dを押すと</t>
-    <rPh sb="2" eb="3">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・スタートボタン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1609,6 +1521,148 @@
     <rPh sb="8" eb="10">
       <t>シヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックにぶつかったら、反転して移動します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぶつかった→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在地の先に道が無かった場合、反転して移動します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>道がなくなった→</t>
+    <rPh sb="0" eb="1">
+      <t>ミチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPACE入力→</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[速度２]</t>
+    <rPh sb="1" eb="3">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[]は後から速度変更できるようにしてください</t>
+    <rPh sb="3" eb="4">
+      <t>ノチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[速度４]</t>
+    <rPh sb="1" eb="3">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ジャンプ２ブロック分]</t>
+    <rPh sb="10" eb="11">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[]は後からジャンプ高さ変更できるようにしてください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[１ブロック分、上にジャンプする]</t>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・まっすぐ飛んで、[２マス]飛んだら消えます</t>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[]は、後から飛距離変更できるようにしてください</t>
+    <rPh sb="7" eb="10">
+      <t>ヒキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・マップは5個用意予定です</t>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[横１ブロック、縦２ブロック分のサイズ]です。</t>
+    <rPh sb="1" eb="2">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dキー入力</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aキー入力</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボールに当たったら、消えます</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1617,10 +1671,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1726,7 +1780,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1834,13 +1888,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1889,40 +1990,70 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1931,7 +2062,7 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
-      <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1954,7 +2085,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1979,7 +2110,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2004,7 +2135,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2029,7 +2160,36 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2063,14 +2223,7 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2079,7 +2232,14 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2104,7 +2264,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2127,7 +2287,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2152,7 +2312,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2177,7 +2337,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2202,36 +2362,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2265,14 +2396,7 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2281,7 +2405,14 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2444,13 +2575,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>211455</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2504,13 +2635,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>211455</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2564,13 +2695,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>211455</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2592,6 +2723,74 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="楕円 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A3F838-A1AE-48B7-9512-8E55730B0FFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="1371600"/>
+          <a:ext cx="220980" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2865,42 +3064,849 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>213361</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8FD70B4-E5B5-4F6E-B9B4-5BA844486642}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2301241" y="12131041"/>
+          <a:ext cx="228600" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>44767</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>221933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>206692</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>952</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矢印: 右 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55CE32DB-18B9-417B-BE0F-A81CD92E85C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2522220" y="11917680"/>
+          <a:ext cx="236219" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="楕円 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15D3C78-A6DF-41A9-BF15-ECF3D6B8ED64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2293620" y="11910060"/>
+          <a:ext cx="228600" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29C7F88-0518-41E5-A3DC-20FC8A00620C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="9353550"/>
+          <a:ext cx="276225" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矢印: 右 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA6FA51-DB25-4E75-BADA-FFE7A53FBCB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3933825" y="9439275"/>
+          <a:ext cx="1038225" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="楕円 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5323C5-0742-42F8-8C6E-161A8BB40306}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="9372600"/>
+          <a:ext cx="276225" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矢印: 右 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14474A9C-7E69-414F-A49D-9844C54591AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3208020" y="6896100"/>
+          <a:ext cx="228600" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矢印: 右 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4D8803-A386-4E9D-B805-E0CA21700E2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1379220" y="8496300"/>
+          <a:ext cx="228600" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矢印: 右 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D84A0C24-A0ED-4F1E-8F82-B590021876E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1844040" y="8503920"/>
+          <a:ext cx="228600" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矢印: 右 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D8AC8B-0A9C-4CE3-996C-61C03C0C722D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1379220" y="8496300"/>
+          <a:ext cx="228600" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矢印: 右 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B546882-B2DF-4FE2-9BD0-EE5A765EF1B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1844040" y="8503920"/>
+          <a:ext cx="228600" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C28F7CF8-2648-4451-82DD-C91BE5FD4D9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="1371600"/>
+          <a:ext cx="220980" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="楕円 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C043B7B0-02A3-4BBA-917D-67699EF565A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="11887200"/>
+          <a:ext cx="220980" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84075B0B-4E3B-44A6-8585-67AC7A0C1759}" name="テーブル33" displayName="テーブル33" ref="C10:G23" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84075B0B-4E3B-44A6-8585-67AC7A0C1759}" name="テーブル33" displayName="テーブル33" ref="C10:G23" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" totalsRowBorderDxfId="15">
   <autoFilter ref="C10:G23" xr:uid="{84075B0B-4E3B-44A6-8585-67AC7A0C1759}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1165AE5B-6D9E-4D6B-AE13-063BB62DD41D}" name="列1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{ABBD0A61-29F8-4B00-B386-F6D350C36B72}" name="列2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{9EC2CD37-BCD4-4D56-966B-67F14BDF3493}" name="列3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{CBFBAD0B-19C3-4CAD-9D91-A6124724CB6A}" name="列4" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{DDC64CEE-CBB6-42E9-9FC8-952FAC63BD45}" name="列5" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1165AE5B-6D9E-4D6B-AE13-063BB62DD41D}" name="列1" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{ABBD0A61-29F8-4B00-B386-F6D350C36B72}" name="列2" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{9EC2CD37-BCD4-4D56-966B-67F14BDF3493}" name="列3" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{CBFBAD0B-19C3-4CAD-9D91-A6124724CB6A}" name="列4" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{DDC64CEE-CBB6-42E9-9FC8-952FAC63BD45}" name="列5" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6B59FF0-CA45-491A-B9BF-92BB12ED52A0}" name="テーブル3" displayName="テーブル3" ref="C10:H23" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6B59FF0-CA45-491A-B9BF-92BB12ED52A0}" name="テーブル3" displayName="テーブル3" ref="C10:H23" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" totalsRowBorderDxfId="6">
   <autoFilter ref="C10:H23" xr:uid="{C6B59FF0-CA45-491A-B9BF-92BB12ED52A0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B3D91817-4BC0-463B-AF7D-C0075177DFB1}" name="列1" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{B530DCB2-AF3F-4872-A68C-8B79DC7AA273}" name="列2" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{8AC5F3D4-CA0C-47BF-BA2C-4FF8F221CC25}" name="列3" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{DCA786E7-1C02-42CD-A6B9-352D5B749C0B}" name="列4" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{2FE6D885-EA2C-4C68-824B-82318F9B3B09}" name="列5" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{229E64FC-0A6D-4D86-B81F-B25067C66590}" name="列6" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{B3D91817-4BC0-463B-AF7D-C0075177DFB1}" name="列1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{B530DCB2-AF3F-4872-A68C-8B79DC7AA273}" name="列2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{8AC5F3D4-CA0C-47BF-BA2C-4FF8F221CC25}" name="列3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{DCA786E7-1C02-42CD-A6B9-352D5B749C0B}" name="列4" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{2FE6D885-EA2C-4C68-824B-82318F9B3B09}" name="列5" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{229E64FC-0A6D-4D86-B81F-B25067C66590}" name="列6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2938,7 +3944,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3044,7 +4050,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3186,7 +4192,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3196,133 +4202,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4246F799-194F-41B9-B2F2-6DC8CB309BFC}">
   <dimension ref="B1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:4" s="3" customFormat="1">
+    <row r="1" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:4" s="5" customFormat="1">
+    <row r="3" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="2:4" s="5" customFormat="1">
-      <c r="B7" s="5" t="s">
+    <row r="17" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="D10" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="D11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="D12" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="D13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="D14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" s="5" customFormat="1">
-      <c r="B17" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="C20" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="C21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="C22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="C23" t="s">
+    <row r="36" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="14" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="C24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="C25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="C26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="C27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="C28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="C29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" s="1" customFormat="1">
-      <c r="B36" s="14" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3334,47 +4340,50 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A96006F-8B90-445D-870E-668460645B9C}">
-  <dimension ref="B1:B9"/>
+  <dimension ref="B1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:2" s="1" customFormat="1">
+    <row r="1" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2" s="5" customFormat="1">
+    <row r="3" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
+        <v>206</v>
+      </c>
+      <c r="P6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" s="1" customFormat="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3389,315 +4398,317 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.375" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.3984375" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.375" customWidth="1"/>
+    <col min="12" max="12" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="5" customFormat="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="5" customFormat="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C10" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C11" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="C10" s="16" t="s">
+      <c r="G11" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="H11" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="C11" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>143</v>
-      </c>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="28"/>
       <c r="C12" s="22">
         <v>1</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="25"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="27"/>
       <c r="C13" s="22">
         <v>2</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="J13" s="21"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="28"/>
       <c r="C14" s="22">
         <v>3</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="J14" s="21"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C15" s="22">
         <v>4</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="J15" s="21"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C16" s="22">
         <v>5</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C17" s="22">
         <v>6</v>
       </c>
       <c r="D17" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>162</v>
-      </c>
       <c r="F17" s="19" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="J17" s="21"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C18" s="22">
         <v>7</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="J18" s="21"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C19" s="22">
         <v>8</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C20" s="22">
         <v>9</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C21" s="22">
         <v>10</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C22" s="22">
         <v>11</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C23" s="22">
         <v>12</v>
       </c>
@@ -3705,15 +4716,15 @@
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" s="3" customFormat="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B25" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3729,114 +4740,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4D0ED0-B69C-4CAA-AFF8-543222FDECD6}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.375" customWidth="1"/>
-    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.3984375" customWidth="1"/>
+    <col min="3" max="3" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.375" customWidth="1"/>
+    <col min="12" max="12" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="5" customFormat="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="5" customFormat="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C10" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C11" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="C10" s="16" t="s">
+      <c r="F11" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="C11" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>187</v>
+      <c r="G11" s="26" t="s">
+        <v>177</v>
       </c>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C12" s="22">
         <v>1</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G12" s="20"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="25"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="27"/>
       <c r="C13" s="22">
         <v>2</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="20" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C14" s="22">
         <v>3</v>
       </c>
@@ -3844,17 +4855,17 @@
         <v>5</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C15" s="22">
         <v>4</v>
       </c>
@@ -3862,53 +4873,53 @@
         <v>0</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="I15" s="21"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C16" s="22">
         <v>5</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C17" s="22">
         <v>6</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C18" s="22">
         <v>7</v>
       </c>
@@ -3916,34 +4927,34 @@
         <v>9</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C19" s="22">
         <v>8</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C20" s="22">
         <v>9</v>
       </c>
@@ -3951,14 +4962,16 @@
         <v>1</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="F20" s="19"/>
+        <v>190</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>172</v>
+      </c>
       <c r="G20" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C21" s="22">
         <v>10</v>
       </c>
@@ -3966,14 +4979,16 @@
         <v>14</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="F21" s="19"/>
+        <v>160</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>172</v>
+      </c>
       <c r="G21" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C22" s="22">
         <v>11</v>
       </c>
@@ -3982,7 +4997,7 @@
       <c r="F22" s="19"/>
       <c r="G22" s="20"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C23" s="22">
         <v>12</v>
       </c>
@@ -3991,16 +5006,17 @@
       <c r="F23" s="23"/>
       <c r="G23" s="24"/>
     </row>
-    <row r="25" spans="2:9" s="3" customFormat="1">
+    <row r="25" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B25" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4013,59 +5029,59 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:3" s="9" customFormat="1">
+    <row r="1" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" s="5" customFormat="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" s="5" customFormat="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="C13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" s="5" customFormat="1"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4074,56 +5090,56 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9432B6-34F2-4697-B3B8-316CF4241EDB}">
-  <dimension ref="A1:BK89"/>
+  <dimension ref="A1:BK91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="AA7" sqref="X7:AA7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:63" s="3" customFormat="1">
+    <row r="1" spans="2:63" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:63" s="5" customFormat="1">
+    <row r="3" spans="2:63" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:63">
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:63" x14ac:dyDescent="0.45">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
       <c r="AA5" t="s">
         <v>0</v>
       </c>
       <c r="AK5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:63">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:63" x14ac:dyDescent="0.45">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -4145,89 +5161,88 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="AK6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="2:63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:63" x14ac:dyDescent="0.45">
       <c r="C7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="Y7" s="4"/>
       <c r="AA7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AK7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AO7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BK7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="2:63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:63" x14ac:dyDescent="0.45">
       <c r="C8" s="1"/>
-      <c r="N8" s="7"/>
+      <c r="N8" s="28"/>
       <c r="V8" s="1"/>
       <c r="AK8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AO8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BK8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="2:63">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:63" x14ac:dyDescent="0.45">
       <c r="C9" s="1"/>
-      <c r="N9" s="7"/>
+      <c r="N9" s="28"/>
       <c r="V9" s="1"/>
-      <c r="Y9" s="11"/>
+      <c r="Y9" s="4"/>
       <c r="AA9" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="BK9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="2:63">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:63" x14ac:dyDescent="0.45">
       <c r="C10" s="1"/>
       <c r="N10" s="2"/>
       <c r="V10" s="1"/>
       <c r="AK10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AO10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="BK10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="2:63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:63" x14ac:dyDescent="0.45">
       <c r="C11" s="1"/>
       <c r="L11" s="2"/>
       <c r="N11" s="2"/>
       <c r="V11" s="9"/>
-      <c r="Y11" s="6"/>
+      <c r="Y11" s="11"/>
       <c r="AA11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:63">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:63" x14ac:dyDescent="0.45">
       <c r="C12" s="1"/>
       <c r="F12" s="7"/>
       <c r="J12" s="2"/>
@@ -4238,7 +5253,7 @@
       <c r="U12" s="6"/>
       <c r="V12" s="9"/>
     </row>
-    <row r="13" spans="2:63">
+    <row r="13" spans="2:63" x14ac:dyDescent="0.45">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -4259,622 +5274,628 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="6"/>
       <c r="AA13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:63" x14ac:dyDescent="0.45">
+      <c r="Y15" s="2"/>
+      <c r="AA15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:63">
-      <c r="Y15" s="1"/>
-      <c r="AA15" t="s">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="Y17" s="1"/>
+      <c r="AA17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:50">
-      <c r="Y17" s="9"/>
-      <c r="AA17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:50" s="6" customFormat="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:50">
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="1"/>
-      <c r="AO23" s="1"/>
-      <c r="AP23" s="1"/>
-      <c r="AQ23" s="1"/>
-      <c r="AR23" s="1"/>
-      <c r="AS23" s="1"/>
-      <c r="AT23" s="1"/>
-      <c r="AU23" s="1"/>
-      <c r="AV23" s="1"/>
-      <c r="AW23" s="1"/>
-      <c r="AX23" s="1"/>
-    </row>
-    <row r="24" spans="1:50">
-      <c r="F24" s="1"/>
-      <c r="AX24" s="1"/>
-    </row>
-    <row r="25" spans="1:50">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="Y19" s="9"/>
+      <c r="AA19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.45">
       <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
     </row>
-    <row r="26" spans="1:50">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.45">
       <c r="F26" s="1"/>
       <c r="AX26" s="1"/>
     </row>
-    <row r="27" spans="1:50">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.45">
       <c r="F27" s="1"/>
       <c r="AX27" s="1"/>
     </row>
-    <row r="28" spans="1:50">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.45">
       <c r="F28" s="1"/>
       <c r="AX28" s="1"/>
     </row>
-    <row r="29" spans="1:50">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.45">
       <c r="F29" s="1"/>
       <c r="AX29" s="1"/>
     </row>
-    <row r="30" spans="1:50">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.45">
       <c r="F30" s="1"/>
-      <c r="AX30" s="9"/>
-    </row>
-    <row r="31" spans="1:50">
+      <c r="AX30" s="1"/>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.45">
       <c r="F31" s="1"/>
-      <c r="AX31" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:50">
+      <c r="AX31" s="1"/>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.45">
       <c r="F32" s="1"/>
       <c r="AX32" s="9"/>
     </row>
-    <row r="33" spans="1:50">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.45">
       <c r="F33" s="1"/>
-      <c r="AW33" s="10"/>
-      <c r="AX33" s="1"/>
-    </row>
-    <row r="34" spans="1:50">
+      <c r="AX33" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.45">
       <c r="F34" s="1"/>
-      <c r="AV34" s="10"/>
-      <c r="AW34" s="10"/>
-      <c r="AX34" s="1"/>
-    </row>
-    <row r="35" spans="1:50">
+      <c r="AX34" s="9"/>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.45">
       <c r="F35" s="1"/>
-      <c r="AU35" s="10"/>
-      <c r="AV35" s="10"/>
       <c r="AW35" s="10"/>
       <c r="AX35" s="1"/>
     </row>
-    <row r="36" spans="1:50">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.45">
       <c r="F36" s="1"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="AT36" s="10"/>
-      <c r="AU36" s="10"/>
       <c r="AV36" s="10"/>
       <c r="AW36" s="10"/>
       <c r="AX36" s="1"/>
     </row>
-    <row r="37" spans="1:50">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.45">
       <c r="F37" s="1"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="AS37" s="10"/>
-      <c r="AT37" s="10"/>
       <c r="AU37" s="10"/>
       <c r="AV37" s="10"/>
       <c r="AW37" s="10"/>
       <c r="AX37" s="1"/>
     </row>
-    <row r="38" spans="1:50">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.45">
       <c r="F38" s="1"/>
-      <c r="L38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="AA38" s="4"/>
-      <c r="AF38" s="10"/>
-      <c r="AK38" s="12"/>
-      <c r="AL38" s="12"/>
-      <c r="AM38" s="12"/>
-      <c r="AN38" s="12"/>
-      <c r="AO38" s="12"/>
-      <c r="AR38" s="10"/>
-      <c r="AS38" s="10"/>
       <c r="AT38" s="10"/>
       <c r="AU38" s="10"/>
       <c r="AV38" s="10"/>
       <c r="AW38" s="10"/>
       <c r="AX38" s="1"/>
     </row>
-    <row r="39" spans="1:50">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.45">
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="1"/>
-      <c r="AL39" s="1"/>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="1"/>
-      <c r="AO39" s="1"/>
-      <c r="AP39" s="1"/>
-      <c r="AQ39" s="1"/>
-      <c r="AR39" s="1"/>
-      <c r="AS39" s="1"/>
-      <c r="AT39" s="1"/>
-      <c r="AU39" s="1"/>
-      <c r="AV39" s="1"/>
-      <c r="AW39" s="1"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="AS39" s="10"/>
+      <c r="AT39" s="10"/>
+      <c r="AU39" s="10"/>
+      <c r="AV39" s="10"/>
+      <c r="AW39" s="10"/>
       <c r="AX39" s="1"/>
     </row>
-    <row r="45" spans="1:50" s="6" customFormat="1">
-      <c r="A45" s="7"/>
-      <c r="B45" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="6:54">
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
-      <c r="AG49" s="1"/>
-      <c r="AH49" s="1"/>
-      <c r="AI49" s="1"/>
-      <c r="AJ49" s="1"/>
-      <c r="AK49" s="1"/>
-      <c r="AL49" s="1"/>
-      <c r="AM49" s="1"/>
-      <c r="AN49" s="1"/>
-      <c r="AO49" s="1"/>
-      <c r="AP49" s="1"/>
-      <c r="AQ49" s="1"/>
-      <c r="AR49" s="1"/>
-      <c r="AS49" s="1"/>
-      <c r="AT49" s="1"/>
-      <c r="AU49" s="1"/>
-      <c r="AV49" s="1"/>
-      <c r="AW49" s="1"/>
-      <c r="AX49" s="1"/>
-    </row>
-    <row r="50" spans="6:54">
-      <c r="F50" s="1"/>
-      <c r="AX50" s="1"/>
-    </row>
-    <row r="51" spans="6:54">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="F40" s="1"/>
+      <c r="L40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="AA40" s="4"/>
+      <c r="AF40" s="10"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="12"/>
+      <c r="AR40" s="10"/>
+      <c r="AS40" s="10"/>
+      <c r="AT40" s="10"/>
+      <c r="AU40" s="10"/>
+      <c r="AV40" s="10"/>
+      <c r="AW40" s="10"/>
+      <c r="AX40" s="1"/>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+    </row>
+    <row r="47" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="7"/>
+      <c r="B47" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="6:54" x14ac:dyDescent="0.45">
       <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="1"/>
       <c r="AX51" s="1"/>
     </row>
-    <row r="52" spans="6:54">
+    <row r="52" spans="6:54" x14ac:dyDescent="0.45">
       <c r="F52" s="1"/>
       <c r="AX52" s="1"/>
     </row>
-    <row r="53" spans="6:54">
+    <row r="53" spans="6:54" x14ac:dyDescent="0.45">
       <c r="F53" s="1"/>
       <c r="AX53" s="1"/>
     </row>
-    <row r="54" spans="6:54">
+    <row r="54" spans="6:54" x14ac:dyDescent="0.45">
       <c r="F54" s="1"/>
       <c r="AX54" s="1"/>
     </row>
-    <row r="55" spans="6:54">
-      <c r="F55" s="9"/>
-      <c r="AX55" s="9"/>
-      <c r="BB55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="6:54">
-      <c r="F56" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="X56" s="10"/>
-      <c r="AX56" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="6:54">
+    <row r="55" spans="6:54" x14ac:dyDescent="0.45">
+      <c r="F55" s="1"/>
+      <c r="AX55" s="1"/>
+    </row>
+    <row r="56" spans="6:54" x14ac:dyDescent="0.45">
+      <c r="F56" s="1"/>
+      <c r="AX56" s="1"/>
+    </row>
+    <row r="57" spans="6:54" x14ac:dyDescent="0.45">
       <c r="F57" s="9"/>
-      <c r="M57" s="4"/>
-      <c r="S57" s="11"/>
-      <c r="V57" s="10"/>
-      <c r="X57" s="10"/>
-      <c r="AD57" s="11"/>
-      <c r="AF57" s="4"/>
-      <c r="AG57" s="11"/>
-      <c r="AI57" s="4"/>
-      <c r="AJ57" s="11"/>
-      <c r="AL57" s="4"/>
-      <c r="AM57" s="11"/>
-      <c r="AN57" s="4"/>
       <c r="AX57" s="9"/>
-    </row>
-    <row r="58" spans="6:54">
-      <c r="F58" s="1"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
+      <c r="BB57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="6:54" x14ac:dyDescent="0.45">
+      <c r="F58" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
-      <c r="Z58" s="10"/>
-      <c r="AA58" s="10"/>
-      <c r="AB58" s="10"/>
-      <c r="AC58" s="10"/>
-      <c r="AD58" s="10"/>
-      <c r="AE58" s="10"/>
-      <c r="AF58" s="10"/>
-      <c r="AG58" s="10"/>
-      <c r="AH58" s="10"/>
-      <c r="AI58" s="10"/>
-      <c r="AJ58" s="10"/>
-      <c r="AK58" s="10"/>
-      <c r="AL58" s="10"/>
-      <c r="AM58" s="10"/>
-      <c r="AN58" s="10"/>
-      <c r="AO58" s="10"/>
-      <c r="AP58" s="10"/>
-      <c r="AQ58" s="10"/>
-      <c r="AR58" s="10"/>
-      <c r="AS58" s="10"/>
-      <c r="AT58" s="10"/>
-      <c r="AU58" s="10"/>
-      <c r="AV58" s="10"/>
-      <c r="AW58" s="10"/>
-      <c r="AX58" s="1"/>
-    </row>
-    <row r="59" spans="6:54">
-      <c r="F59" s="1"/>
+      <c r="AX58" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="6:54" x14ac:dyDescent="0.45">
+      <c r="F59" s="9"/>
+      <c r="M59" s="4"/>
+      <c r="S59" s="11"/>
       <c r="V59" s="10"/>
       <c r="X59" s="10"/>
-      <c r="AX59" s="1"/>
-    </row>
-    <row r="60" spans="6:54">
+      <c r="AD59" s="11"/>
+      <c r="AF59" s="4"/>
+      <c r="AG59" s="11"/>
+      <c r="AI59" s="4"/>
+      <c r="AJ59" s="11"/>
+      <c r="AL59" s="4"/>
+      <c r="AM59" s="11"/>
+      <c r="AN59" s="4"/>
+      <c r="AX59" s="9"/>
+    </row>
+    <row r="60" spans="6:54" x14ac:dyDescent="0.45">
       <c r="F60" s="1"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
       <c r="V60" s="10"/>
       <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="10"/>
+      <c r="AF60" s="10"/>
+      <c r="AG60" s="10"/>
+      <c r="AH60" s="10"/>
+      <c r="AI60" s="10"/>
+      <c r="AJ60" s="10"/>
+      <c r="AK60" s="10"/>
+      <c r="AL60" s="10"/>
+      <c r="AM60" s="10"/>
+      <c r="AN60" s="10"/>
+      <c r="AO60" s="10"/>
+      <c r="AP60" s="10"/>
+      <c r="AQ60" s="10"/>
+      <c r="AR60" s="10"/>
+      <c r="AS60" s="10"/>
+      <c r="AT60" s="10"/>
+      <c r="AU60" s="10"/>
+      <c r="AV60" s="10"/>
+      <c r="AW60" s="10"/>
       <c r="AX60" s="1"/>
     </row>
-    <row r="61" spans="6:54">
+    <row r="61" spans="6:54" x14ac:dyDescent="0.45">
       <c r="F61" s="1"/>
       <c r="V61" s="10"/>
       <c r="X61" s="10"/>
       <c r="AX61" s="1"/>
     </row>
-    <row r="62" spans="6:54">
+    <row r="62" spans="6:54" x14ac:dyDescent="0.45">
       <c r="F62" s="1"/>
       <c r="V62" s="10"/>
       <c r="X62" s="10"/>
       <c r="AX62" s="1"/>
     </row>
-    <row r="63" spans="6:54">
-      <c r="F63" s="14"/>
+    <row r="63" spans="6:54" x14ac:dyDescent="0.45">
+      <c r="F63" s="1"/>
       <c r="V63" s="10"/>
       <c r="X63" s="10"/>
-      <c r="AX63" s="14"/>
-    </row>
-    <row r="64" spans="6:54">
+      <c r="AX63" s="1"/>
+    </row>
+    <row r="64" spans="6:54" x14ac:dyDescent="0.45">
       <c r="F64" s="1"/>
       <c r="V64" s="10"/>
       <c r="X64" s="10"/>
       <c r="AX64" s="1"/>
     </row>
-    <row r="65" spans="2:50">
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
-      <c r="AA65" s="1"/>
-      <c r="AB65" s="1"/>
-      <c r="AC65" s="1"/>
-      <c r="AD65" s="1"/>
-      <c r="AE65" s="1"/>
-      <c r="AF65" s="1"/>
-      <c r="AG65" s="1"/>
-      <c r="AH65" s="1"/>
-      <c r="AI65" s="1"/>
-      <c r="AJ65" s="1"/>
-      <c r="AK65" s="1"/>
-      <c r="AL65" s="1"/>
-      <c r="AM65" s="1"/>
-      <c r="AN65" s="1"/>
-      <c r="AO65" s="1"/>
-      <c r="AP65" s="1"/>
-      <c r="AQ65" s="1"/>
-      <c r="AR65" s="1"/>
-      <c r="AS65" s="1"/>
-      <c r="AT65" s="1"/>
-      <c r="AU65" s="1"/>
-      <c r="AV65" s="1"/>
-      <c r="AW65" s="1"/>
-      <c r="AX65" s="1"/>
-    </row>
-    <row r="69" spans="2:50" s="6" customFormat="1">
-      <c r="B69" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="2:50">
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
-      <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
-      <c r="Z73" s="1"/>
-      <c r="AA73" s="1"/>
-      <c r="AB73" s="1"/>
-      <c r="AC73" s="1"/>
-      <c r="AD73" s="1"/>
-      <c r="AE73" s="1"/>
-      <c r="AF73" s="1"/>
-      <c r="AG73" s="1"/>
-      <c r="AH73" s="1"/>
-      <c r="AI73" s="1"/>
-      <c r="AJ73" s="1"/>
-      <c r="AK73" s="1"/>
-      <c r="AL73" s="1"/>
-      <c r="AM73" s="1"/>
-      <c r="AN73" s="1"/>
-      <c r="AO73" s="1"/>
-      <c r="AP73" s="1"/>
-      <c r="AQ73" s="1"/>
-      <c r="AR73" s="1"/>
-      <c r="AS73" s="1"/>
-      <c r="AT73" s="1"/>
-      <c r="AU73" s="1"/>
-      <c r="AV73" s="1"/>
-      <c r="AW73" s="1"/>
-      <c r="AX73" s="1"/>
-    </row>
-    <row r="74" spans="2:50">
-      <c r="F74" s="1"/>
-      <c r="AX74" s="1"/>
-    </row>
-    <row r="75" spans="2:50">
+    <row r="65" spans="2:50" x14ac:dyDescent="0.45">
+      <c r="F65" s="14"/>
+      <c r="V65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="AX65" s="14"/>
+    </row>
+    <row r="66" spans="2:50" x14ac:dyDescent="0.45">
+      <c r="F66" s="1"/>
+      <c r="V66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="AX66" s="1"/>
+    </row>
+    <row r="67" spans="2:50" x14ac:dyDescent="0.45">
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="1"/>
+      <c r="AO67" s="1"/>
+      <c r="AP67" s="1"/>
+      <c r="AQ67" s="1"/>
+      <c r="AR67" s="1"/>
+      <c r="AS67" s="1"/>
+      <c r="AT67" s="1"/>
+      <c r="AU67" s="1"/>
+      <c r="AV67" s="1"/>
+      <c r="AW67" s="1"/>
+      <c r="AX67" s="1"/>
+    </row>
+    <row r="71" spans="2:50" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="2:50" x14ac:dyDescent="0.45">
       <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="1"/>
+      <c r="AH75" s="1"/>
+      <c r="AI75" s="1"/>
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="1"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AN75" s="1"/>
+      <c r="AO75" s="1"/>
+      <c r="AP75" s="1"/>
+      <c r="AQ75" s="1"/>
+      <c r="AR75" s="1"/>
+      <c r="AS75" s="1"/>
+      <c r="AT75" s="1"/>
+      <c r="AU75" s="1"/>
+      <c r="AV75" s="1"/>
+      <c r="AW75" s="1"/>
       <c r="AX75" s="1"/>
     </row>
-    <row r="76" spans="2:50">
+    <row r="76" spans="2:50" x14ac:dyDescent="0.45">
       <c r="F76" s="1"/>
       <c r="AX76" s="1"/>
     </row>
-    <row r="77" spans="2:50">
+    <row r="77" spans="2:50" x14ac:dyDescent="0.45">
       <c r="F77" s="1"/>
       <c r="AX77" s="1"/>
     </row>
-    <row r="78" spans="2:50">
+    <row r="78" spans="2:50" x14ac:dyDescent="0.45">
       <c r="F78" s="1"/>
       <c r="AX78" s="1"/>
     </row>
-    <row r="79" spans="2:50">
-      <c r="F79" s="9"/>
-      <c r="AX79" s="9"/>
-    </row>
-    <row r="80" spans="2:50">
-      <c r="F80" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX80" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="81" spans="6:50">
+    <row r="79" spans="2:50" x14ac:dyDescent="0.45">
+      <c r="F79" s="1"/>
+      <c r="AX79" s="1"/>
+    </row>
+    <row r="80" spans="2:50" x14ac:dyDescent="0.45">
+      <c r="F80" s="1"/>
+      <c r="AX80" s="1"/>
+    </row>
+    <row r="81" spans="6:50" x14ac:dyDescent="0.45">
       <c r="F81" s="9"/>
       <c r="AX81" s="9"/>
     </row>
-    <row r="82" spans="6:50">
-      <c r="F82" s="1"/>
-      <c r="AX82" s="1"/>
-    </row>
-    <row r="83" spans="6:50">
-      <c r="F83" s="1"/>
-      <c r="AX83" s="1"/>
-    </row>
-    <row r="84" spans="6:50">
+    <row r="82" spans="6:50" x14ac:dyDescent="0.45">
+      <c r="F82" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX82" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="6:50" x14ac:dyDescent="0.45">
+      <c r="F83" s="9"/>
+      <c r="AX83" s="9"/>
+    </row>
+    <row r="84" spans="6:50" x14ac:dyDescent="0.45">
       <c r="F84" s="1"/>
       <c r="AX84" s="1"/>
     </row>
-    <row r="85" spans="6:50">
+    <row r="85" spans="6:50" x14ac:dyDescent="0.45">
       <c r="F85" s="1"/>
       <c r="AX85" s="1"/>
     </row>
-    <row r="86" spans="6:50">
+    <row r="86" spans="6:50" x14ac:dyDescent="0.45">
       <c r="F86" s="1"/>
       <c r="AX86" s="1"/>
     </row>
-    <row r="87" spans="6:50">
-      <c r="F87" s="14"/>
-      <c r="AX87" s="14"/>
-    </row>
-    <row r="88" spans="6:50">
+    <row r="87" spans="6:50" x14ac:dyDescent="0.45">
+      <c r="F87" s="1"/>
+      <c r="AX87" s="1"/>
+    </row>
+    <row r="88" spans="6:50" x14ac:dyDescent="0.45">
       <c r="F88" s="1"/>
       <c r="AX88" s="1"/>
     </row>
-    <row r="89" spans="6:50">
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1"/>
-      <c r="T89" s="1"/>
-      <c r="U89" s="1"/>
-      <c r="V89" s="1"/>
-      <c r="W89" s="1"/>
-      <c r="X89" s="1"/>
-      <c r="Y89" s="1"/>
-      <c r="Z89" s="1"/>
-      <c r="AA89" s="1"/>
-      <c r="AB89" s="1"/>
-      <c r="AC89" s="1"/>
-      <c r="AD89" s="1"/>
-      <c r="AE89" s="1"/>
-      <c r="AF89" s="1"/>
-      <c r="AG89" s="1"/>
-      <c r="AH89" s="1"/>
-      <c r="AI89" s="1"/>
-      <c r="AJ89" s="1"/>
-      <c r="AK89" s="1"/>
-      <c r="AL89" s="1"/>
-      <c r="AM89" s="1"/>
-      <c r="AN89" s="1"/>
-      <c r="AO89" s="1"/>
-      <c r="AP89" s="1"/>
-      <c r="AQ89" s="1"/>
-      <c r="AR89" s="1"/>
-      <c r="AS89" s="1"/>
-      <c r="AT89" s="1"/>
-      <c r="AU89" s="1"/>
-      <c r="AV89" s="1"/>
-      <c r="AW89" s="1"/>
-      <c r="AX89" s="1"/>
+    <row r="89" spans="6:50" x14ac:dyDescent="0.45">
+      <c r="F89" s="14"/>
+      <c r="AX89" s="14"/>
+    </row>
+    <row r="90" spans="6:50" x14ac:dyDescent="0.45">
+      <c r="F90" s="1"/>
+      <c r="AX90" s="1"/>
+    </row>
+    <row r="91" spans="6:50" x14ac:dyDescent="0.45">
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="1"/>
+      <c r="AF91" s="1"/>
+      <c r="AG91" s="1"/>
+      <c r="AH91" s="1"/>
+      <c r="AI91" s="1"/>
+      <c r="AJ91" s="1"/>
+      <c r="AK91" s="1"/>
+      <c r="AL91" s="1"/>
+      <c r="AM91" s="1"/>
+      <c r="AN91" s="1"/>
+      <c r="AO91" s="1"/>
+      <c r="AP91" s="1"/>
+      <c r="AQ91" s="1"/>
+      <c r="AR91" s="1"/>
+      <c r="AS91" s="1"/>
+      <c r="AT91" s="1"/>
+      <c r="AU91" s="1"/>
+      <c r="AV91" s="1"/>
+      <c r="AW91" s="1"/>
+      <c r="AX91" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4888,173 +5909,349 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7169685A-C1C9-4D2B-8F76-05C9115260E0}">
   <dimension ref="B1:AP63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y39" sqref="Y39"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:6" s="3" customFormat="1">
+    <row r="1" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" s="5" customFormat="1">
+    <row r="3" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" s="5" customFormat="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" s="5" customFormat="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B15" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:2" s="5" customFormat="1">
+    <row r="22" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B22" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" s="5" customFormat="1">
-      <c r="B31" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="2:35">
-      <c r="B33" t="s">
+      <c r="O33" t="s">
+        <v>199</v>
+      </c>
+      <c r="T33" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI33" t="s">
         <v>112</v>
       </c>
-      <c r="O33" t="s">
-        <v>17</v>
-      </c>
-      <c r="T33" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="2:35">
+    </row>
+    <row r="34" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="O34" t="s">
+        <v>199</v>
+      </c>
+      <c r="T34" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI34" t="s">
         <v>111</v>
       </c>
-      <c r="O34" t="s">
-        <v>17</v>
-      </c>
-      <c r="T34" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="2:35">
+    </row>
+    <row r="36" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="2:35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="2:35" x14ac:dyDescent="0.45">
       <c r="F38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:35">
-      <c r="D40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="2:35" s="5" customFormat="1">
+    <row r="40" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="C40" s="29"/>
+      <c r="D40" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="30"/>
+      <c r="X40" s="31"/>
+    </row>
+    <row r="41" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="C41" s="32"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="34"/>
+    </row>
+    <row r="42" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="C42" s="32"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="33"/>
+      <c r="X42" s="34"/>
+    </row>
+    <row r="43" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="C43" s="32"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="33"/>
+      <c r="X43" s="34"/>
+    </row>
+    <row r="44" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="C44" s="35"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="37"/>
+    </row>
+    <row r="47" spans="2:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B47" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="2:42">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J49" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="X49" t="s">
-        <v>64</v>
+        <v>201</v>
       </c>
       <c r="AP49" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="58" spans="2:42" s="5" customFormat="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="D51" s="29"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="31"/>
+    </row>
+    <row r="52" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="D52" s="32"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="34"/>
+    </row>
+    <row r="53" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="D53" s="32"/>
+      <c r="E53" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="34"/>
+    </row>
+    <row r="54" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="D54" s="32"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="34"/>
+    </row>
+    <row r="55" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="D55" s="35"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="37"/>
+    </row>
+    <row r="58" spans="2:42" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B58" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="2:42">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="S60" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="2:42" s="3" customFormat="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B63" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -5066,98 +6263,176 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C74346-497D-4924-9B58-2A138F54FEAD}">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U64" sqref="U64"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="AB32" sqref="AB32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:18" s="3" customFormat="1">
+    <row r="1" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" s="5" customFormat="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" s="5" customFormat="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="N9" t="s">
+        <v>197</v>
+      </c>
+      <c r="R9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="R9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
-      <c r="B11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1">
-      <c r="B17" s="5" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="9" customFormat="1">
+    <row r="23" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
       <c r="B23" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="5" customFormat="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="7"/>
       <c r="B25" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="E27" s="4"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="F27" s="4"/>
       <c r="G27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" s="3" customFormat="1">
-      <c r="B50" s="8" t="s">
-        <v>20</v>
+        <v>120</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="M27" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="J30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="F31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="34" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="7"/>
+      <c r="B34" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="G37" t="s">
+        <v>192</v>
+      </c>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="H38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="41" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="7"/>
+      <c r="B41" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="G44" t="s">
+        <v>192</v>
+      </c>
+      <c r="I44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="49" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="7"/>
+      <c r="B49" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5169,76 +6444,76 @@
       <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:31" s="3" customFormat="1">
+    <row r="1" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:31" s="5" customFormat="1">
+    <row r="3" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:31" s="5" customFormat="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="N9" t="s">
+        <v>197</v>
+      </c>
+      <c r="R9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="R9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="2:31">
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:31">
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="V11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:31">
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="2:31" s="5" customFormat="1">
-      <c r="B14" s="5" t="s">
+    <row r="16" spans="2:31" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:31">
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" s="3" customFormat="1">
+    <row r="19" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B19" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -5252,45 +6527,45 @@
   <dimension ref="B1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:14" s="3" customFormat="1">
+    <row r="1" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:14" s="5" customFormat="1">
+    <row r="3" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>62</v>
+        <v>203</v>
       </c>
       <c r="N6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" s="3" customFormat="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -5301,55 +6576,60 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D571275-5090-4132-914D-6B73F7259A80}">
-  <dimension ref="B1:F14"/>
+  <dimension ref="B1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:6" s="3" customFormat="1">
+    <row r="1" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" s="5" customFormat="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:6" s="5" customFormat="1">
-      <c r="B8" s="5" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" s="3" customFormat="1">
-      <c r="B14" s="8" t="s">
-        <v>20</v>
+    <row r="15" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/ゲーム制作資料/全体概要.xlsx
+++ b/ゲーム制作資料/全体概要.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲーム制作資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA5EE03-BA45-413B-8A05-48A4778918B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9812E4FA-DADE-4609-B37E-94E808690BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3444" yWindow="2712" windowWidth="17424" windowHeight="11268" firstSheet="1" activeTab="5" xr2:uid="{92B53D5B-1DF6-4B5A-BEE7-EE8E3CAF1BDF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{92B53D5B-1DF6-4B5A-BEE7-EE8E3CAF1BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="全体概要" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="211">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -1663,6 +1663,10 @@
   </si>
   <si>
     <t>ボールに当たったら、消えます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Gravity = 0.1くらい]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4740,9 +4744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4D0ED0-B69C-4CAA-AFF8-543222FDECD6}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5909,8 +5911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7169685A-C1C9-4D2B-8F76-05C9115260E0}">
   <dimension ref="B1:AP63"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V54" sqref="V54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6174,6 +6176,11 @@
         <v>113</v>
       </c>
     </row>
+    <row r="50" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="J50" t="s">
+        <v>210</v>
+      </c>
+    </row>
     <row r="51" spans="2:42" x14ac:dyDescent="0.45">
       <c r="D51" s="29"/>
       <c r="E51" s="30"/>
@@ -6257,7 +6264,8 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6265,7 +6273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C74346-497D-4924-9B58-2A138F54FEAD}">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="AB32" sqref="AB32"/>
     </sheetView>
   </sheetViews>

--- a/ゲーム制作資料/全体概要.xlsx
+++ b/ゲーム制作資料/全体概要.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲーム制作資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9812E4FA-DADE-4609-B37E-94E808690BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30780804-522C-4F0D-B701-F689EC8EC6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{92B53D5B-1DF6-4B5A-BEE7-EE8E3CAF1BDF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{92B53D5B-1DF6-4B5A-BEE7-EE8E3CAF1BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="全体概要" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="252">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -55,13 +55,6 @@
   </si>
   <si>
     <t>ブロック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フィールド端</t>
-    <rPh sb="5" eb="6">
-      <t>ハシ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -336,92 +329,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・マップの特定の壁に当たったら、次のマップに切り替えます</t>
-    <rPh sb="5" eb="7">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・マップ移動できる壁は、近日マップチップを作ってから伝えます</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キンジツ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ツタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マップ移動に必要なこと</t>
-    <rPh sb="3" eb="5">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・特定の壁に当たったら、次のマップに行きます</t>
-    <rPh sb="1" eb="3">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・マップ移動後のプレイヤーの位置を、固定します</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>複数マップを繋げて長いマップにする</t>
     <rPh sb="0" eb="2">
       <t>フクスウ</t>
@@ -527,13 +434,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マップ移動</t>
-    <rPh sb="3" eb="5">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>後から速度変更できるようにしてください</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1547,13 +1447,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SPACE入力→</t>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[速度２]</t>
     <rPh sb="1" eb="3">
       <t>ソクド</t>
@@ -1622,19 +1515,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・マップは5個用意予定です</t>
-    <rPh sb="6" eb="7">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[横１ブロック、縦２ブロック分のサイズ]です。</t>
     <rPh sb="1" eb="2">
       <t>ヨコ</t>
@@ -1667,6 +1547,430 @@
   </si>
   <si>
     <t>[Gravity = 0.1くらい]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定の壁に当たったら、次のステージに行きます</t>
+  </si>
+  <si>
+    <t>・ステージ移動できる壁は、マップチップを作ってから伝えます</t>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ移動の見た目はブロックと同じです</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ移動ができる判定のある、ブロックを作りたいです</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①から①へ移動</t>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示イメージ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルロゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルロゴは、画面の中心に大きく教示します。</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示名は以下です</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウジメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタートボタンは、画面の中心に大きく教示します。</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタートボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景は黒でお願いします</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後に、画像にする予定です</t>
+    <rPh sb="0" eb="1">
+      <t>ノチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示名：　[BUSTOR　SHOOTER]</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示名：　[PUSH TO SPACE]</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[]は後から変更できるようにしてください</t>
+    <rPh sb="3" eb="4">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・判定</t>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁に当たったらそれ以上進まず、止まってください</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①停止</t>
+    <rPh sb="1" eb="3">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージは5個用意予定です</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージのマップチップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・stage.1.h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・stage.2.h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・stage.3.h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・stage.4.h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・stage.5.h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>の作成をお願いします</t>
+    <rPh sb="1" eb="3">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップチップは、Stage.cppにincludeしてほしいです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステージは5個用意予定です</t>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーがブロックにぶつかったら、プレイヤーをその場で止めてください</t>
+    <rPh sb="26" eb="27">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・敵１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・敵２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ゲームクリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①SPACE入力</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②1ブロック分ジャンプ</t>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③落下</t>
+    <rPh sb="1" eb="3">
+      <t>ラッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字を入力すると、以下が表示できるようにしてください</t>
+    <rPh sb="0" eb="2">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージの特定のブロックに当たったら、次のステージに切り替えます</t>
+    <rPh sb="5" eb="7">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示する画像のサイズは、すべて[縦64 × 横64]に設定します</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下の表示を作ってください</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <rPh sb="0" eb="2">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの中心部が、ゴールフラッグに当たったら、</t>
+    <rPh sb="6" eb="8">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1710,7 +2014,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1780,6 +2084,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1945,7 +2255,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2058,6 +2368,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2457,13 +2794,718 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D382FB-7B72-4EBA-92FF-EBC168B494E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4907280" y="5181600"/>
+          <a:ext cx="3375660" cy="861060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BUSTER SHOOTER</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0621E2D-0D11-443C-88C7-02110C4E7087}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="6477000"/>
+          <a:ext cx="2065020" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PUSH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SPACE</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1BF942C-918D-46F6-A979-CB532E3456A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="5364480"/>
+          <a:ext cx="3154680" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA5C8B4-A81F-43AE-A7A7-536D7FBCB8DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5494020" y="6477000"/>
+          <a:ext cx="2095500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE47B1E-63AE-4A4D-8E14-CE9AFE859F19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8191500" y="5356860"/>
+          <a:ext cx="1935480" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2249F287-CCD6-4A3C-B6AF-9FE996E594F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7604760" y="6652260"/>
+          <a:ext cx="2506980" cy="106680"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA89FD4-EF56-4F8E-9F79-9942A3082930}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10134600" y="5166360"/>
+          <a:ext cx="1333500" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タイトルロゴ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAAE064A-D5CE-4244-8F6F-B0C1458DBB2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10149840" y="6629400"/>
+          <a:ext cx="1501140" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>スタートボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F021D7F6-57F8-4B89-ABE6-A0CF2E322DCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9585960" y="4564380"/>
+          <a:ext cx="556260" cy="60960"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF75301-718C-4C40-A738-1C4E87F3D8E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10149840" y="4343400"/>
+          <a:ext cx="769620" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>背景</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
@@ -2517,13 +3559,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
@@ -2577,13 +3619,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>211455</xdr:rowOff>
@@ -2637,13 +3679,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>211455</xdr:rowOff>
@@ -2697,13 +3739,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>211455</xdr:rowOff>
@@ -2757,13 +3799,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
@@ -2826,17 +3868,17 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
@@ -2890,13 +3932,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -2950,13 +3992,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -3010,13 +4052,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -3070,82 +4112,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>15241</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>15241</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60007</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>15241</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>213361</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="楕円 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8FD70B4-E5B5-4F6E-B9B4-5BA844486642}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2301241" y="12131041"/>
-          <a:ext cx="228600" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>44767</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>221933</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>206692</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>952</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>221932</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>8572</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3160,7 +4136,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="2522220" y="11917680"/>
+          <a:off x="2537460" y="12153900"/>
           <a:ext cx="236219" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -3196,16 +4172,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3220,7 +4196,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2293620" y="11910060"/>
+          <a:off x="1607820" y="12374880"/>
           <a:ext cx="228600" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3256,13 +4232,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
@@ -3316,13 +4292,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -3376,13 +4352,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -3434,10 +4410,550 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矢印: 右 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A56F2E3A-E900-4DA1-A556-EE762868D3FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1844040" y="15179040"/>
+          <a:ext cx="411480" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="楕円 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ECA6933-ACAF-4543-9F52-B7A28E4F8B96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2301240" y="15110460"/>
+          <a:ext cx="228600" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="楕円 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F8C618-F2F9-43E7-A02A-711BFC153424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="15087600"/>
+          <a:ext cx="228600" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30481</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矢印: 右 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{282B848C-7A8B-4FC6-9043-E4DBA0FE386B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2316481" y="12184380"/>
+          <a:ext cx="464820" cy="398145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>44767</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>221933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>206692</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>952</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矢印: 右 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11AA9582-CE3F-417F-91F4-CBA4C9556D8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5494020" y="11917680"/>
+          <a:ext cx="236219" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="楕円 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F218790-CE87-48B7-9FF9-473EC6BDADBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5265420" y="11887200"/>
+          <a:ext cx="228600" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>192405</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="矢印: 右 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88D904C7-D40A-4139-A60B-201B74872EA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4259580" y="12138660"/>
+          <a:ext cx="464820" cy="398145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>60007</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>221932</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>8572</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="矢印: 右 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDCF8F52-2A74-4186-AB8F-279EC80EB6D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1851660" y="12382500"/>
+          <a:ext cx="236219" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="楕円 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BCA32F5-81EC-48A0-9290-7DDD7D3531D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1607820" y="12374880"/>
+          <a:ext cx="228600" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3875,6 +5391,195 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矢印: 右カーブ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048EBA09-3081-4A96-B8FE-4E0EB5B11170}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2987040" y="9784080"/>
+          <a:ext cx="297180" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FDD9C1-56B7-42D3-A82C-A6EE8B0BD426}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="914400"/>
+          <a:ext cx="220980" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矢印: 右 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDF8D262-8F04-4D78-A6BF-7382C3E6E78E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4023360" y="5044440"/>
+          <a:ext cx="1790700" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4212,127 +5917,127 @@
   <sheetData>
     <row r="1" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B17" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B36" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4344,50 +6049,63 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A96006F-8B90-445D-870E-668460645B9C}">
-  <dimension ref="B1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+      <selection activeCell="G16" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>206</v>
-      </c>
-      <c r="P6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>19</v>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2" s="28"/>
+    </row>
+    <row r="3" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="28"/>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A4" s="28"/>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A5" s="28"/>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A6" s="28"/>
+      <c r="C6" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -4423,62 +6141,62 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C10" s="16" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C11" s="18" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J11" s="21"/>
     </row>
@@ -4488,19 +6206,19 @@
         <v>1</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="J12" s="21"/>
     </row>
@@ -4510,19 +6228,19 @@
         <v>2</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J13" s="21"/>
     </row>
@@ -4532,19 +6250,19 @@
         <v>3</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J14" s="21"/>
     </row>
@@ -4553,19 +6271,19 @@
         <v>4</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="J15" s="21"/>
     </row>
@@ -4574,19 +6292,19 @@
         <v>5</v>
       </c>
       <c r="D16" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>149</v>
-      </c>
       <c r="F16" s="19" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="J16" s="21"/>
     </row>
@@ -4595,19 +6313,19 @@
         <v>6</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G17" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>151</v>
       </c>
       <c r="J17" s="21"/>
     </row>
@@ -4616,19 +6334,19 @@
         <v>7</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G18" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>151</v>
       </c>
       <c r="J18" s="21"/>
     </row>
@@ -4637,19 +6355,19 @@
         <v>8</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.45">
@@ -4657,19 +6375,19 @@
         <v>9</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G20" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.45">
@@ -4677,19 +6395,19 @@
         <v>10</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G21" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.45">
@@ -4697,19 +6415,19 @@
         <v>11</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G22" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.45">
@@ -4720,15 +6438,15 @@
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="24" t="s">
         <v>144</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="25" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B25" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -4744,7 +6462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4D0ED0-B69C-4CAA-AFF8-543222FDECD6}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4763,56 +6481,56 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C10" s="16" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C11" s="18" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I11" s="21"/>
     </row>
@@ -4821,13 +6539,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G12" s="20"/>
       <c r="I12" s="21"/>
@@ -4838,14 +6556,14 @@
         <v>2</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="20" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I13" s="21"/>
     </row>
@@ -4854,16 +6572,16 @@
         <v>3</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I14" s="21"/>
     </row>
@@ -4875,13 +6593,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I15" s="21"/>
     </row>
@@ -4890,16 +6608,16 @@
         <v>5</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F16" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>173</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>180</v>
       </c>
       <c r="I16" s="21"/>
     </row>
@@ -4908,16 +6626,16 @@
         <v>6</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F17" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>174</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>181</v>
       </c>
       <c r="I17" s="21"/>
     </row>
@@ -4926,16 +6644,16 @@
         <v>7</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I18" s="21"/>
     </row>
@@ -4944,16 +6662,16 @@
         <v>8</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.45">
@@ -4964,13 +6682,13 @@
         <v>1</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.45">
@@ -4978,16 +6696,16 @@
         <v>10</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.45">
@@ -5010,7 +6728,7 @@
     </row>
     <row r="25" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B25" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -5025,96 +6743,678 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3B0319-5547-4637-BF71-73227FB167EA}">
-  <dimension ref="B1:C16"/>
+  <dimension ref="A1:AI69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="28"/>
+    </row>
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="28"/>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="28"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="28"/>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="28"/>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="28"/>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="28"/>
+    </row>
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="28"/>
+      <c r="C9" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="28"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="28"/>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="28"/>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="28"/>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="28"/>
+      <c r="D14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="28"/>
+    </row>
+    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="28"/>
+      <c r="C16" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A17" s="28"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A18" s="28"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A19" s="28"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A20" s="28"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A21" s="28"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A22" s="28"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="39"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A23" s="28"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="39"/>
+      <c r="AG23" s="39"/>
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="39"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A24" s="28"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="39"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A25" s="28"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A26" s="28"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="39"/>
+      <c r="AF26" s="39"/>
+      <c r="AG26" s="39"/>
+      <c r="AH26" s="39"/>
+      <c r="AI26" s="39"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A27" s="28"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="39"/>
+      <c r="AG27" s="39"/>
+      <c r="AH27" s="39"/>
+      <c r="AI27" s="39"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A28" s="28"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="39"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="39"/>
+      <c r="AI28" s="39"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A29" s="28"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+      <c r="AD29" s="39"/>
+      <c r="AE29" s="39"/>
+      <c r="AF29" s="39"/>
+      <c r="AG29" s="39"/>
+      <c r="AH29" s="39"/>
+      <c r="AI29" s="39"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A30" s="28"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="39"/>
+      <c r="AF30" s="39"/>
+      <c r="AG30" s="39"/>
+      <c r="AH30" s="39"/>
+      <c r="AI30" s="39"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A31" s="28"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="39"/>
+      <c r="AF31" s="39"/>
+      <c r="AG31" s="39"/>
+      <c r="AH31" s="39"/>
+      <c r="AI31" s="39"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A32" s="28"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="39"/>
+      <c r="AF32" s="39"/>
+      <c r="AG32" s="39"/>
+      <c r="AH32" s="39"/>
+      <c r="AI32" s="39"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A33" s="28"/>
+    </row>
+    <row r="34" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="28"/>
+    </row>
+    <row r="35" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="28"/>
+      <c r="C35" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A36" s="28"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A37" s="28"/>
+      <c r="D37" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A38" s="28"/>
+      <c r="D38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A39" s="28"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A40" s="28"/>
+      <c r="E40" t="s">
+        <v>218</v>
+      </c>
+      <c r="N40" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A41" s="28"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A42" s="28"/>
+    </row>
+    <row r="43" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="28"/>
+      <c r="C43" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A44" s="28"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A45" s="28"/>
+      <c r="D45" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A46" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="D46" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A47" s="28"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A48" s="28"/>
+      <c r="E48" t="s">
+        <v>219</v>
+      </c>
+      <c r="N48" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A49" s="28"/>
+    </row>
+    <row r="50" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="28"/>
+      <c r="C50" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A51" s="28"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A52" s="28"/>
+      <c r="D52" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A53" s="28"/>
+      <c r="D53" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A54" s="28"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A55" s="28"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A56" s="28"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="39"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A57" s="28"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A58" s="28"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A59" s="28"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="39"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="39"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A60" s="28"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A61" s="28"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A62" s="28"/>
+    </row>
+    <row r="63" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="28"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A64" s="28"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" s="28"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" s="28"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" s="28"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" s="28"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9432B6-34F2-4697-B3B8-316CF4241EDB}">
-  <dimension ref="A1:BK91"/>
+  <dimension ref="A1:BL93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA7" sqref="X7:AA7"/>
+      <selection activeCell="A3" sqref="A3:A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:63" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="28"/>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:63" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="C5" s="28"/>
+      <c r="H3" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A4" s="28"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
@@ -5134,179 +7434,209 @@
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
       <c r="V5" s="28"/>
-      <c r="AA5" t="s">
+      <c r="W5" s="28"/>
+      <c r="AB5" t="s">
         <v>0</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A6" s="28"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="AL6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A7" s="28"/>
+      <c r="D7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="AB7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A8" s="28"/>
+      <c r="D8" s="2"/>
+      <c r="O8" s="28"/>
+      <c r="W8" s="2"/>
+      <c r="AL8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>46</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A9" s="28"/>
+      <c r="D9" s="2"/>
+      <c r="O9" s="28"/>
+      <c r="W9" s="2"/>
+      <c r="Z9" s="4"/>
+      <c r="AB9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>47</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A10" s="28"/>
+      <c r="D10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="AL10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="AK6" t="s">
+      <c r="AP10" t="s">
         <v>44</v>
       </c>
-      <c r="AO6" t="s">
-        <v>45</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="C7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="AA7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>51</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="C8" s="1"/>
-      <c r="N8" s="28"/>
-      <c r="V8" s="1"/>
-      <c r="AK8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>52</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="C9" s="1"/>
-      <c r="N9" s="28"/>
-      <c r="V9" s="1"/>
-      <c r="Y9" s="4"/>
-      <c r="AA9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK9" t="s">
+      <c r="BL10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A11" s="28"/>
+      <c r="D11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="W11" s="9"/>
+      <c r="Z11" s="11"/>
+      <c r="AB11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A12" s="28"/>
+      <c r="D12" s="2"/>
+      <c r="G12" s="7"/>
+      <c r="K12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="R12" s="4"/>
+      <c r="T12" s="11"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="9"/>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A13" s="28"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="Z13" s="6"/>
+      <c r="AB13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A14" s="28"/>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A15" s="28"/>
+      <c r="Z15" s="2"/>
+      <c r="AB15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A16" s="28"/>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A17" s="28"/>
+      <c r="Z17" s="9"/>
+      <c r="AB17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A18" s="28"/>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A19" s="28"/>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A20" s="28"/>
+    </row>
+    <row r="21" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="28"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AO9" t="s">
-        <v>53</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="C10" s="1"/>
-      <c r="N10" s="2"/>
-      <c r="V10" s="1"/>
-      <c r="AK10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="C11" s="1"/>
-      <c r="L11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="V11" s="9"/>
-      <c r="Y11" s="11"/>
-      <c r="AA11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="C12" s="1"/>
-      <c r="F12" s="7"/>
-      <c r="J12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="Q12" s="4"/>
-      <c r="S12" s="11"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="9"/>
-    </row>
-    <row r="13" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="Y13" s="6"/>
-      <c r="AA13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="Y15" s="2"/>
-      <c r="AA15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="Y17" s="1"/>
-      <c r="AA17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="Y19" s="9"/>
-      <c r="AA19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="F25" s="1"/>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A22" s="28"/>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A23" s="28"/>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A24" s="28"/>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A25" s="28"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -5351,112 +7681,128 @@
       <c r="AV25" s="1"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
-    </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="F26" s="1"/>
-      <c r="AX26" s="1"/>
-    </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="F27" s="1"/>
-      <c r="AX27" s="1"/>
-    </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="F28" s="1"/>
-      <c r="AX28" s="1"/>
-    </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="F29" s="1"/>
-      <c r="AX29" s="1"/>
-    </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="F30" s="1"/>
-      <c r="AX30" s="1"/>
-    </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="F31" s="1"/>
-      <c r="AX31" s="1"/>
-    </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="F32" s="1"/>
-      <c r="AX32" s="9"/>
-    </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="F33" s="1"/>
-      <c r="AX33" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="F34" s="1"/>
-      <c r="AX34" s="9"/>
-    </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="F35" s="1"/>
-      <c r="AW35" s="10"/>
-      <c r="AX35" s="1"/>
-    </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="F36" s="1"/>
-      <c r="AV36" s="10"/>
+      <c r="AY25" s="1"/>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A26" s="28"/>
+      <c r="G26" s="1"/>
+      <c r="AY26" s="1"/>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A27" s="28"/>
+      <c r="G27" s="1"/>
+      <c r="AY27" s="1"/>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A28" s="28"/>
+      <c r="G28" s="1"/>
+      <c r="AY28" s="1"/>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A29" s="28"/>
+      <c r="G29" s="1"/>
+      <c r="AY29" s="1"/>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A30" s="28"/>
+      <c r="G30" s="1"/>
+      <c r="AY30" s="1"/>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A31" s="28"/>
+      <c r="G31" s="1"/>
+      <c r="AY31" s="1"/>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A32" s="28"/>
+      <c r="G32" s="1"/>
+      <c r="AY32" s="9"/>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A33" s="28"/>
+      <c r="G33" s="1"/>
+      <c r="AY33" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A34" s="28"/>
+      <c r="G34" s="1"/>
+      <c r="AY34" s="9"/>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A35" s="28"/>
+      <c r="G35" s="1"/>
+      <c r="AX35" s="10"/>
+      <c r="AY35" s="1"/>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A36" s="28"/>
+      <c r="G36" s="1"/>
       <c r="AW36" s="10"/>
-      <c r="AX36" s="1"/>
-    </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="F37" s="1"/>
-      <c r="AU37" s="10"/>
+      <c r="AX36" s="10"/>
+      <c r="AY36" s="1"/>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A37" s="28"/>
+      <c r="G37" s="1"/>
       <c r="AV37" s="10"/>
       <c r="AW37" s="10"/>
-      <c r="AX37" s="1"/>
-    </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="F38" s="1"/>
-      <c r="R38" s="10"/>
+      <c r="AX37" s="10"/>
+      <c r="AY37" s="1"/>
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A38" s="28"/>
+      <c r="G38" s="1"/>
       <c r="S38" s="10"/>
-      <c r="AT38" s="10"/>
+      <c r="T38" s="10"/>
       <c r="AU38" s="10"/>
       <c r="AV38" s="10"/>
       <c r="AW38" s="10"/>
-      <c r="AX38" s="1"/>
-    </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="F39" s="1"/>
-      <c r="Q39" s="10"/>
+      <c r="AX38" s="10"/>
+      <c r="AY38" s="1"/>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A39" s="28"/>
+      <c r="G39" s="1"/>
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
       <c r="T39" s="10"/>
-      <c r="AS39" s="10"/>
+      <c r="U39" s="10"/>
       <c r="AT39" s="10"/>
       <c r="AU39" s="10"/>
       <c r="AV39" s="10"/>
       <c r="AW39" s="10"/>
-      <c r="AX39" s="1"/>
-    </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="F40" s="1"/>
-      <c r="L40" s="10"/>
-      <c r="P40" s="10"/>
+      <c r="AX39" s="10"/>
+      <c r="AY39" s="1"/>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A40" s="28"/>
+      <c r="G40" s="1"/>
+      <c r="M40" s="10"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
-      <c r="AA40" s="4"/>
-      <c r="AF40" s="10"/>
-      <c r="AK40" s="12"/>
+      <c r="V40" s="10"/>
+      <c r="AB40" s="4"/>
+      <c r="AG40" s="10"/>
       <c r="AL40" s="12"/>
       <c r="AM40" s="12"/>
       <c r="AN40" s="12"/>
       <c r="AO40" s="12"/>
-      <c r="AR40" s="10"/>
+      <c r="AP40" s="12"/>
       <c r="AS40" s="10"/>
       <c r="AT40" s="10"/>
       <c r="AU40" s="10"/>
       <c r="AV40" s="10"/>
       <c r="AW40" s="10"/>
-      <c r="AX40" s="1"/>
-    </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="F41" s="1"/>
+      <c r="AX40" s="10"/>
+      <c r="AY40" s="1"/>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A41" s="28"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -5501,15 +7847,41 @@
       <c r="AV41" s="1"/>
       <c r="AW41" s="1"/>
       <c r="AX41" s="1"/>
-    </row>
-    <row r="47" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="7"/>
-      <c r="B47" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="6:54" x14ac:dyDescent="0.45">
-      <c r="F51" s="1"/>
+      <c r="AY41" s="1"/>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A42" s="28"/>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A43" s="28"/>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A44" s="28"/>
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A45" s="28"/>
+    </row>
+    <row r="46" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A46" s="28"/>
+    </row>
+    <row r="47" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="28"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A48" s="28"/>
+    </row>
+    <row r="49" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A49" s="28"/>
+    </row>
+    <row r="50" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A50" s="28"/>
+    </row>
+    <row r="51" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A51" s="28"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -5554,62 +7926,71 @@
       <c r="AV51" s="1"/>
       <c r="AW51" s="1"/>
       <c r="AX51" s="1"/>
-    </row>
-    <row r="52" spans="6:54" x14ac:dyDescent="0.45">
-      <c r="F52" s="1"/>
-      <c r="AX52" s="1"/>
-    </row>
-    <row r="53" spans="6:54" x14ac:dyDescent="0.45">
-      <c r="F53" s="1"/>
-      <c r="AX53" s="1"/>
-    </row>
-    <row r="54" spans="6:54" x14ac:dyDescent="0.45">
-      <c r="F54" s="1"/>
-      <c r="AX54" s="1"/>
-    </row>
-    <row r="55" spans="6:54" x14ac:dyDescent="0.45">
-      <c r="F55" s="1"/>
-      <c r="AX55" s="1"/>
-    </row>
-    <row r="56" spans="6:54" x14ac:dyDescent="0.45">
-      <c r="F56" s="1"/>
-      <c r="AX56" s="1"/>
-    </row>
-    <row r="57" spans="6:54" x14ac:dyDescent="0.45">
-      <c r="F57" s="9"/>
-      <c r="AX57" s="9"/>
-      <c r="BB57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="6:54" x14ac:dyDescent="0.45">
-      <c r="F58" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="X58" s="10"/>
-      <c r="AX58" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="6:54" x14ac:dyDescent="0.45">
-      <c r="F59" s="9"/>
-      <c r="M59" s="4"/>
-      <c r="S59" s="11"/>
-      <c r="V59" s="10"/>
-      <c r="X59" s="10"/>
-      <c r="AD59" s="11"/>
-      <c r="AF59" s="4"/>
-      <c r="AG59" s="11"/>
-      <c r="AI59" s="4"/>
-      <c r="AJ59" s="11"/>
-      <c r="AL59" s="4"/>
-      <c r="AM59" s="11"/>
-      <c r="AN59" s="4"/>
-      <c r="AX59" s="9"/>
-    </row>
-    <row r="60" spans="6:54" x14ac:dyDescent="0.45">
-      <c r="F60" s="1"/>
-      <c r="G60" s="10"/>
+      <c r="AY51" s="1"/>
+    </row>
+    <row r="52" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A52" s="28"/>
+      <c r="G52" s="1"/>
+      <c r="AY52" s="1"/>
+    </row>
+    <row r="53" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A53" s="28"/>
+      <c r="G53" s="1"/>
+      <c r="AY53" s="1"/>
+    </row>
+    <row r="54" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A54" s="28"/>
+      <c r="G54" s="1"/>
+      <c r="AY54" s="1"/>
+    </row>
+    <row r="55" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A55" s="28"/>
+      <c r="G55" s="1"/>
+      <c r="AY55" s="1"/>
+    </row>
+    <row r="56" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A56" s="28"/>
+      <c r="G56" s="1"/>
+      <c r="AY56" s="1"/>
+    </row>
+    <row r="57" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A57" s="28"/>
+      <c r="G57" s="9"/>
+      <c r="AY57" s="9"/>
+      <c r="BC57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A58" s="28"/>
+      <c r="G58" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y58" s="10"/>
+      <c r="AY58" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A59" s="28"/>
+      <c r="G59" s="9"/>
+      <c r="N59" s="4"/>
+      <c r="T59" s="11"/>
+      <c r="W59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="AE59" s="11"/>
+      <c r="AG59" s="4"/>
+      <c r="AH59" s="11"/>
+      <c r="AJ59" s="4"/>
+      <c r="AK59" s="11"/>
+      <c r="AM59" s="4"/>
+      <c r="AN59" s="11"/>
+      <c r="AO59" s="4"/>
+      <c r="AY59" s="9"/>
+    </row>
+    <row r="60" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A60" s="28"/>
+      <c r="G60" s="1"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
@@ -5625,7 +8006,7 @@
       <c r="T60" s="10"/>
       <c r="U60" s="10"/>
       <c r="V60" s="10"/>
-      <c r="X60" s="10"/>
+      <c r="W60" s="10"/>
       <c r="Y60" s="10"/>
       <c r="Z60" s="10"/>
       <c r="AA60" s="10"/>
@@ -5651,46 +8032,53 @@
       <c r="AU60" s="10"/>
       <c r="AV60" s="10"/>
       <c r="AW60" s="10"/>
-      <c r="AX60" s="1"/>
-    </row>
-    <row r="61" spans="6:54" x14ac:dyDescent="0.45">
-      <c r="F61" s="1"/>
-      <c r="V61" s="10"/>
-      <c r="X61" s="10"/>
-      <c r="AX61" s="1"/>
-    </row>
-    <row r="62" spans="6:54" x14ac:dyDescent="0.45">
-      <c r="F62" s="1"/>
-      <c r="V62" s="10"/>
-      <c r="X62" s="10"/>
-      <c r="AX62" s="1"/>
-    </row>
-    <row r="63" spans="6:54" x14ac:dyDescent="0.45">
-      <c r="F63" s="1"/>
-      <c r="V63" s="10"/>
-      <c r="X63" s="10"/>
-      <c r="AX63" s="1"/>
-    </row>
-    <row r="64" spans="6:54" x14ac:dyDescent="0.45">
-      <c r="F64" s="1"/>
-      <c r="V64" s="10"/>
-      <c r="X64" s="10"/>
-      <c r="AX64" s="1"/>
-    </row>
-    <row r="65" spans="2:50" x14ac:dyDescent="0.45">
-      <c r="F65" s="14"/>
-      <c r="V65" s="10"/>
-      <c r="X65" s="10"/>
-      <c r="AX65" s="14"/>
-    </row>
-    <row r="66" spans="2:50" x14ac:dyDescent="0.45">
-      <c r="F66" s="1"/>
-      <c r="V66" s="10"/>
-      <c r="X66" s="10"/>
-      <c r="AX66" s="1"/>
-    </row>
-    <row r="67" spans="2:50" x14ac:dyDescent="0.45">
-      <c r="F67" s="1"/>
+      <c r="AX60" s="10"/>
+      <c r="AY60" s="1"/>
+    </row>
+    <row r="61" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A61" s="28"/>
+      <c r="G61" s="1"/>
+      <c r="W61" s="10"/>
+      <c r="Y61" s="10"/>
+      <c r="AY61" s="1"/>
+    </row>
+    <row r="62" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A62" s="28"/>
+      <c r="G62" s="1"/>
+      <c r="W62" s="10"/>
+      <c r="Y62" s="10"/>
+      <c r="AY62" s="1"/>
+    </row>
+    <row r="63" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A63" s="28"/>
+      <c r="G63" s="1"/>
+      <c r="W63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="AY63" s="1"/>
+    </row>
+    <row r="64" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A64" s="28"/>
+      <c r="G64" s="1"/>
+      <c r="W64" s="10"/>
+      <c r="Y64" s="10"/>
+      <c r="AY64" s="1"/>
+    </row>
+    <row r="65" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A65" s="28"/>
+      <c r="G65" s="14"/>
+      <c r="W65" s="10"/>
+      <c r="Y65" s="10"/>
+      <c r="AY65" s="14"/>
+    </row>
+    <row r="66" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A66" s="28"/>
+      <c r="G66" s="1"/>
+      <c r="W66" s="10"/>
+      <c r="Y66" s="10"/>
+      <c r="AY66" s="1"/>
+    </row>
+    <row r="67" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A67" s="28"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -5735,14 +8123,34 @@
       <c r="AV67" s="1"/>
       <c r="AW67" s="1"/>
       <c r="AX67" s="1"/>
-    </row>
-    <row r="71" spans="2:50" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="2:50" x14ac:dyDescent="0.45">
-      <c r="F75" s="1"/>
+      <c r="AY67" s="1"/>
+    </row>
+    <row r="68" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A68" s="28"/>
+    </row>
+    <row r="69" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A69" s="28"/>
+    </row>
+    <row r="70" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A70" s="28"/>
+    </row>
+    <row r="71" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="28"/>
+      <c r="C71" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A72" s="28"/>
+    </row>
+    <row r="73" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A73" s="28"/>
+    </row>
+    <row r="74" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A74" s="28"/>
+    </row>
+    <row r="75" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A75" s="28"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -5787,73 +8195,89 @@
       <c r="AV75" s="1"/>
       <c r="AW75" s="1"/>
       <c r="AX75" s="1"/>
-    </row>
-    <row r="76" spans="2:50" x14ac:dyDescent="0.45">
-      <c r="F76" s="1"/>
-      <c r="AX76" s="1"/>
-    </row>
-    <row r="77" spans="2:50" x14ac:dyDescent="0.45">
-      <c r="F77" s="1"/>
-      <c r="AX77" s="1"/>
-    </row>
-    <row r="78" spans="2:50" x14ac:dyDescent="0.45">
-      <c r="F78" s="1"/>
-      <c r="AX78" s="1"/>
-    </row>
-    <row r="79" spans="2:50" x14ac:dyDescent="0.45">
-      <c r="F79" s="1"/>
-      <c r="AX79" s="1"/>
-    </row>
-    <row r="80" spans="2:50" x14ac:dyDescent="0.45">
-      <c r="F80" s="1"/>
-      <c r="AX80" s="1"/>
-    </row>
-    <row r="81" spans="6:50" x14ac:dyDescent="0.45">
-      <c r="F81" s="9"/>
-      <c r="AX81" s="9"/>
-    </row>
-    <row r="82" spans="6:50" x14ac:dyDescent="0.45">
-      <c r="F82" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AX82" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="83" spans="6:50" x14ac:dyDescent="0.45">
-      <c r="F83" s="9"/>
-      <c r="AX83" s="9"/>
-    </row>
-    <row r="84" spans="6:50" x14ac:dyDescent="0.45">
-      <c r="F84" s="1"/>
-      <c r="AX84" s="1"/>
-    </row>
-    <row r="85" spans="6:50" x14ac:dyDescent="0.45">
-      <c r="F85" s="1"/>
-      <c r="AX85" s="1"/>
-    </row>
-    <row r="86" spans="6:50" x14ac:dyDescent="0.45">
-      <c r="F86" s="1"/>
-      <c r="AX86" s="1"/>
-    </row>
-    <row r="87" spans="6:50" x14ac:dyDescent="0.45">
-      <c r="F87" s="1"/>
-      <c r="AX87" s="1"/>
-    </row>
-    <row r="88" spans="6:50" x14ac:dyDescent="0.45">
-      <c r="F88" s="1"/>
-      <c r="AX88" s="1"/>
-    </row>
-    <row r="89" spans="6:50" x14ac:dyDescent="0.45">
-      <c r="F89" s="14"/>
-      <c r="AX89" s="14"/>
-    </row>
-    <row r="90" spans="6:50" x14ac:dyDescent="0.45">
-      <c r="F90" s="1"/>
-      <c r="AX90" s="1"/>
-    </row>
-    <row r="91" spans="6:50" x14ac:dyDescent="0.45">
-      <c r="F91" s="1"/>
+      <c r="AY75" s="1"/>
+    </row>
+    <row r="76" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A76" s="28"/>
+      <c r="G76" s="1"/>
+      <c r="AY76" s="1"/>
+    </row>
+    <row r="77" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A77" s="28"/>
+      <c r="G77" s="1"/>
+      <c r="AY77" s="1"/>
+    </row>
+    <row r="78" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A78" s="28"/>
+      <c r="G78" s="1"/>
+      <c r="AY78" s="1"/>
+    </row>
+    <row r="79" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A79" s="28"/>
+      <c r="G79" s="1"/>
+      <c r="AY79" s="1"/>
+    </row>
+    <row r="80" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A80" s="28"/>
+      <c r="G80" s="1"/>
+      <c r="AY80" s="1"/>
+    </row>
+    <row r="81" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A81" s="28"/>
+      <c r="G81" s="9"/>
+      <c r="AY81" s="9"/>
+    </row>
+    <row r="82" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A82" s="28"/>
+      <c r="G82" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY82" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A83" s="28"/>
+      <c r="G83" s="9"/>
+      <c r="AY83" s="9"/>
+    </row>
+    <row r="84" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A84" s="28"/>
+      <c r="G84" s="1"/>
+      <c r="AY84" s="1"/>
+    </row>
+    <row r="85" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A85" s="28"/>
+      <c r="G85" s="1"/>
+      <c r="AY85" s="1"/>
+    </row>
+    <row r="86" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A86" s="28"/>
+      <c r="G86" s="1"/>
+      <c r="AY86" s="1"/>
+    </row>
+    <row r="87" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A87" s="28"/>
+      <c r="G87" s="1"/>
+      <c r="AY87" s="1"/>
+    </row>
+    <row r="88" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A88" s="28"/>
+      <c r="G88" s="1"/>
+      <c r="AY88" s="1"/>
+    </row>
+    <row r="89" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A89" s="28"/>
+      <c r="G89" s="14"/>
+      <c r="AY89" s="14"/>
+    </row>
+    <row r="90" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A90" s="28"/>
+      <c r="G90" s="1"/>
+      <c r="AY90" s="1"/>
+    </row>
+    <row r="91" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A91" s="28"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -5898,6 +8322,13 @@
       <c r="AV91" s="1"/>
       <c r="AW91" s="1"/>
       <c r="AX91" s="1"/>
+      <c r="AY91" s="1"/>
+    </row>
+    <row r="92" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A92" s="28"/>
+    </row>
+    <row r="93" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A93" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5909,176 +8340,260 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7169685A-C1C9-4D2B-8F76-05C9115260E0}">
-  <dimension ref="B1:AP63"/>
+  <dimension ref="A1:AQ69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V54" sqref="V54"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="28"/>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="28"/>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="28"/>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="28"/>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="28"/>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="28"/>
+      <c r="C8" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="28"/>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="28"/>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="28"/>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="28"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="28"/>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="28"/>
+      <c r="C15" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="28"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="28"/>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="28"/>
+      <c r="C18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="28"/>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="28"/>
+      <c r="C20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="28"/>
+    </row>
+    <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="28"/>
+      <c r="C22" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="28"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="28"/>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="28"/>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="28"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="28"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="28"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="28"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="28"/>
+    </row>
+    <row r="31" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="28"/>
+      <c r="C31" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="28"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A33" s="28"/>
+      <c r="C33" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
+      <c r="P33" t="s">
+        <v>191</v>
+      </c>
+      <c r="U33" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A34" s="28"/>
+      <c r="C34" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B33" t="s">
-        <v>103</v>
-      </c>
-      <c r="O33" t="s">
-        <v>199</v>
-      </c>
-      <c r="T33" t="s">
+      <c r="P34" t="s">
+        <v>191</v>
+      </c>
+      <c r="U34" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A35" s="28"/>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A36" s="28"/>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A37" s="28"/>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A38" s="28"/>
+      <c r="G38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A39" s="28"/>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A40" s="28"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="AI33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B34" t="s">
-        <v>102</v>
-      </c>
-      <c r="O34" t="s">
-        <v>199</v>
-      </c>
-      <c r="T34" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="F38" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="C40" s="29"/>
-      <c r="D40" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="E40" s="30"/>
       <c r="F40" s="30"/>
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
       <c r="J40" s="30"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="33"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="31"/>
       <c r="M40" s="33"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="R40" s="30"/>
+      <c r="N40" s="33"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30" t="s">
+        <v>199</v>
+      </c>
       <c r="S40" s="30"/>
       <c r="T40" s="30"/>
       <c r="U40" s="30"/>
       <c r="V40" s="30"/>
       <c r="W40" s="30"/>
-      <c r="X40" s="31"/>
-    </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="C41" s="32"/>
-      <c r="D41" s="33"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="31"/>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A41" s="28"/>
+      <c r="D41" s="32"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="33"/>
       <c r="J41" s="33"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="34"/>
       <c r="M41" s="33"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="P41" s="32"/>
       <c r="Q41" s="33"/>
       <c r="R41" s="33"/>
       <c r="S41" s="33"/>
@@ -6086,22 +8601,23 @@
       <c r="U41" s="33"/>
       <c r="V41" s="33"/>
       <c r="W41" s="33"/>
-      <c r="X41" s="34"/>
-    </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="C42" s="32"/>
-      <c r="D42" s="33"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="34"/>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A42" s="28"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
       <c r="I42" s="33"/>
       <c r="J42" s="33"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="34"/>
       <c r="M42" s="33"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="P42" s="32"/>
       <c r="Q42" s="33"/>
       <c r="R42" s="33"/>
       <c r="S42" s="33"/>
@@ -6109,22 +8625,23 @@
       <c r="U42" s="33"/>
       <c r="V42" s="33"/>
       <c r="W42" s="33"/>
-      <c r="X42" s="34"/>
-    </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="34"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A43" s="28"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
       <c r="J43" s="33"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="34"/>
       <c r="M43" s="33"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="P43" s="32"/>
       <c r="Q43" s="33"/>
       <c r="R43" s="33"/>
       <c r="S43" s="33"/>
@@ -6132,22 +8649,23 @@
       <c r="U43" s="33"/>
       <c r="V43" s="33"/>
       <c r="W43" s="33"/>
-      <c r="X43" s="34"/>
-    </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="C44" s="35"/>
-      <c r="D44" s="36"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="34"/>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A44" s="28"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="36"/>
       <c r="F44" s="36"/>
       <c r="G44" s="36"/>
       <c r="H44" s="36"/>
       <c r="I44" s="36"/>
       <c r="J44" s="36"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="33"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="37"/>
       <c r="M44" s="33"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="36"/>
+      <c r="N44" s="33"/>
+      <c r="P44" s="35"/>
       <c r="Q44" s="36"/>
       <c r="R44" s="36"/>
       <c r="S44" s="36"/>
@@ -6155,73 +8673,125 @@
       <c r="U44" s="36"/>
       <c r="V44" s="36"/>
       <c r="W44" s="36"/>
-      <c r="X44" s="37"/>
-    </row>
-    <row r="47" spans="2:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="B49" t="s">
-        <v>100</v>
-      </c>
-      <c r="J49" t="s">
-        <v>202</v>
-      </c>
-      <c r="X49" t="s">
+      <c r="X44" s="36"/>
+      <c r="Y44" s="37"/>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A45" s="28"/>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A46" s="28"/>
+    </row>
+    <row r="47" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="28"/>
+      <c r="C47" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A48" s="28"/>
+    </row>
+    <row r="49" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A49" s="28"/>
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="K49" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A50" s="28"/>
+      <c r="K50" t="s">
         <v>201</v>
       </c>
-      <c r="AP49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="J50" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="51" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="D51" s="29"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="31"/>
-    </row>
-    <row r="52" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="34"/>
-    </row>
-    <row r="53" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="D53" s="32"/>
-      <c r="E53" s="33" t="s">
-        <v>196</v>
-      </c>
+    </row>
+    <row r="51" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A51" s="28"/>
+    </row>
+    <row r="52" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A52" s="28"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="30"/>
+      <c r="V52" s="30"/>
+      <c r="W52" s="30"/>
+      <c r="X52" s="30"/>
+      <c r="Y52" s="30"/>
+      <c r="Z52" s="31"/>
+      <c r="AA52" s="33"/>
+      <c r="AB52" s="33"/>
+      <c r="AC52" s="33"/>
+      <c r="AD52" s="33"/>
+      <c r="AE52" s="33"/>
+      <c r="AF52" s="33"/>
+      <c r="AG52" s="33"/>
+      <c r="AH52" s="33"/>
+      <c r="AI52" s="33"/>
+    </row>
+    <row r="53" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A53" s="28"/>
+      <c r="E53" s="32"/>
       <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
+      <c r="G53" s="33" t="s">
+        <v>239</v>
+      </c>
       <c r="H53" s="33"/>
       <c r="I53" s="33"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="33"/>
-      <c r="M53" s="34"/>
-    </row>
-    <row r="54" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="D54" s="32"/>
-      <c r="E54" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="33"/>
+      <c r="V53" s="33"/>
+      <c r="W53" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="X53" s="33"/>
+      <c r="Y53" s="33"/>
+      <c r="Z53" s="34"/>
+      <c r="AA53" s="33"/>
+      <c r="AB53" s="33"/>
+      <c r="AC53" s="33"/>
+      <c r="AD53" s="33"/>
+      <c r="AE53" s="33"/>
+      <c r="AF53" s="33"/>
+      <c r="AG53" s="33"/>
+      <c r="AH53" s="33"/>
+      <c r="AI53" s="33"/>
+    </row>
+    <row r="54" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A54" s="28"/>
+      <c r="E54" s="32"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
@@ -6229,36 +8799,160 @@
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="33"/>
-      <c r="M54" s="34"/>
-    </row>
-    <row r="55" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="D55" s="35"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="37"/>
-    </row>
-    <row r="58" spans="2:42" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="B60" t="s">
-        <v>104</v>
-      </c>
-      <c r="S60" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="8" t="s">
-        <v>19</v>
+      <c r="M54" s="33"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="33"/>
+      <c r="V54" s="33"/>
+      <c r="W54" s="33"/>
+      <c r="X54" s="33"/>
+      <c r="Y54" s="33"/>
+      <c r="Z54" s="34"/>
+      <c r="AA54" s="33"/>
+      <c r="AB54" s="33"/>
+      <c r="AC54" s="33"/>
+      <c r="AD54" s="33"/>
+      <c r="AE54" s="33"/>
+      <c r="AF54" s="33"/>
+      <c r="AG54" s="33"/>
+      <c r="AH54" s="33"/>
+      <c r="AI54" s="33"/>
+    </row>
+    <row r="55" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A55" s="28"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="33"/>
+      <c r="W55" s="33"/>
+      <c r="X55" s="33"/>
+      <c r="Y55" s="33"/>
+      <c r="Z55" s="34"/>
+      <c r="AA55" s="33"/>
+      <c r="AB55" s="33"/>
+      <c r="AC55" s="33"/>
+      <c r="AD55" s="33"/>
+      <c r="AE55" s="33"/>
+      <c r="AF55" s="33"/>
+      <c r="AG55" s="33"/>
+      <c r="AH55" s="33"/>
+      <c r="AI55" s="33"/>
+    </row>
+    <row r="56" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A56" s="28"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
+      <c r="V56" s="36"/>
+      <c r="W56" s="36"/>
+      <c r="X56" s="36"/>
+      <c r="Y56" s="36"/>
+      <c r="Z56" s="37"/>
+      <c r="AA56" s="33"/>
+      <c r="AB56" s="33"/>
+      <c r="AC56" s="33"/>
+      <c r="AD56" s="33"/>
+      <c r="AE56" s="33"/>
+      <c r="AF56" s="33"/>
+      <c r="AG56" s="33"/>
+      <c r="AH56" s="33"/>
+      <c r="AI56" s="33"/>
+    </row>
+    <row r="57" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A57" s="28"/>
+    </row>
+    <row r="58" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="28"/>
+      <c r="C58" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A59" s="28"/>
+    </row>
+    <row r="60" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A60" s="28"/>
+      <c r="C60" t="s">
+        <v>97</v>
+      </c>
+      <c r="T60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A61" s="28"/>
+    </row>
+    <row r="62" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="28"/>
+      <c r="C62" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A63" s="28"/>
+    </row>
+    <row r="64" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A64" s="28"/>
+      <c r="C64" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A65" s="28"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A66" s="28"/>
+      <c r="I66" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A67" s="28"/>
+      <c r="D67" t="s">
+        <v>186</v>
+      </c>
+      <c r="H67" s="2"/>
+      <c r="J67" s="28"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A68" s="28"/>
+    </row>
+    <row r="69" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C69" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -6273,125 +8967,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C74346-497D-4924-9B58-2A138F54FEAD}">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="AB32" sqref="AB32"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N9" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="R9" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
       <c r="B23" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
       <c r="B25" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="F27" s="4"/>
       <c r="G27" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K27" s="2"/>
       <c r="M27" t="s">
         <v>2</v>
       </c>
       <c r="S27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="J30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M30" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A31" s="40" t="s">
+        <v>242</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="H31" s="4"/>
     </row>
     <row r="34" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="7"/>
       <c r="B34" s="5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="G37" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I37" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F38" s="2"/>
       <c r="H38" s="4"/>
@@ -6400,15 +9100,15 @@
     <row r="41" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="7"/>
       <c r="B41" s="5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="G44" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I44" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
@@ -6417,7 +9117,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -6429,12 +9129,12 @@
     <row r="49" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="7"/>
       <c r="B49" s="5" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B58" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -6446,82 +9146,118 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E3E2F9-98CE-43F4-9D73-FAE038CE3F86}">
-  <dimension ref="B1:AE19"/>
+  <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" t="s">
-        <v>197</v>
-      </c>
-      <c r="R9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
+    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A2" s="28"/>
+    </row>
+    <row r="3" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="28"/>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A4" s="28"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A5" s="28"/>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A6" s="28"/>
+    </row>
+    <row r="7" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="28"/>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A8" s="28"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A9" s="28"/>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" t="s">
+        <v>189</v>
+      </c>
+      <c r="S9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A10" s="28"/>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A11" s="28"/>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A12" s="28"/>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A13" s="28"/>
+    </row>
+    <row r="14" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="28"/>
+      <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="V11" t="s">
-        <v>200</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A15" s="28"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A16" s="28"/>
+      <c r="C16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="8" t="s">
-        <v>19</v>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="28"/>
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -6532,48 +9268,61 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B204F67B-52C7-459B-9EF2-0A83092E6FD3}">
-  <dimension ref="B1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>203</v>
-      </c>
-      <c r="N6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="8" t="s">
-        <v>19</v>
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" s="28"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="28"/>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" s="28"/>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" s="28"/>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+      <c r="O6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -6584,64 +9333,601 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D571275-5090-4132-914D-6B73F7259A80}">
-  <dimension ref="B1:F15"/>
+  <dimension ref="A1:AP73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="28"/>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="28"/>
+      <c r="C5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="28"/>
+      <c r="D6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="28"/>
+      <c r="D7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="28"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="28"/>
+      <c r="C9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="28"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="28"/>
+      <c r="C11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="28"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="28"/>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="28"/>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="28"/>
+      <c r="D15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="28"/>
+      <c r="D16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A17" s="28"/>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A18" s="28"/>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A19" s="28"/>
+      <c r="C19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A20" s="28"/>
+      <c r="D20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A21" s="28"/>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A22" s="28"/>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A23" s="28"/>
+    </row>
+    <row r="24" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="28"/>
+      <c r="C24" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A25" s="28"/>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A26" s="28"/>
+      <c r="F26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="L26" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="9"/>
+      <c r="R26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A27" s="28"/>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A28" s="28"/>
+      <c r="P28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A29" s="28"/>
+      <c r="P29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A30" s="28"/>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A31" s="28"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="AC31" s="38"/>
+      <c r="AD31" s="38"/>
+      <c r="AE31" s="38"/>
+      <c r="AF31" s="38"/>
+      <c r="AG31" s="38"/>
+      <c r="AH31" s="38"/>
+      <c r="AI31" s="38"/>
+      <c r="AJ31" s="38"/>
+      <c r="AK31" s="38"/>
+      <c r="AL31" s="38"/>
+      <c r="AM31" s="38"/>
+      <c r="AN31" s="38"/>
+      <c r="AO31" s="38"/>
+      <c r="AP31" s="38"/>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A32" s="28"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="AC32" s="38"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="8" t="s">
-        <v>19</v>
+      <c r="AG32" s="28"/>
+      <c r="AH32" s="28"/>
+      <c r="AI32" s="28"/>
+      <c r="AJ32" s="28"/>
+      <c r="AK32" s="28"/>
+      <c r="AL32" s="28"/>
+      <c r="AP32" s="38"/>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A33" s="28"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="AC33" s="38"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28"/>
+      <c r="AG33" s="28"/>
+      <c r="AH33" s="28"/>
+      <c r="AI33" s="28"/>
+      <c r="AJ33" s="28"/>
+      <c r="AK33" s="28"/>
+      <c r="AL33" s="28"/>
+      <c r="AP33" s="38"/>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A34" s="28"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="AC34" s="38"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="28"/>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="28"/>
+      <c r="AI34" s="28"/>
+      <c r="AJ34" s="28"/>
+      <c r="AK34" s="28"/>
+      <c r="AL34" s="28"/>
+      <c r="AP34" s="38"/>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A35" s="28"/>
+      <c r="D35" s="38"/>
+      <c r="Q35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AP35" s="38"/>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A36" s="28"/>
+      <c r="D36" s="38"/>
+      <c r="Q36" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC36" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP36" s="38"/>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A37" s="28"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="AC37" s="38"/>
+      <c r="AD37" s="38"/>
+      <c r="AE37" s="38"/>
+      <c r="AF37" s="38"/>
+      <c r="AG37" s="38"/>
+      <c r="AH37" s="38"/>
+      <c r="AI37" s="38"/>
+      <c r="AJ37" s="38"/>
+      <c r="AK37" s="38"/>
+      <c r="AL37" s="38"/>
+      <c r="AM37" s="38"/>
+      <c r="AN37" s="38"/>
+      <c r="AO37" s="38"/>
+      <c r="AP37" s="38"/>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A38" s="28"/>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A39" s="28"/>
+    </row>
+    <row r="40" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="28"/>
+      <c r="C40" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A41" s="28"/>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A42" s="28"/>
+      <c r="D42" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A43" s="28"/>
+      <c r="E43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A44" s="28"/>
+      <c r="E44" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A45" s="28"/>
+      <c r="E45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A46" s="28"/>
+      <c r="E46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A47" s="28"/>
+      <c r="E47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A48" s="28"/>
+      <c r="D48" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A49" s="28"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A50" s="28"/>
+      <c r="D50" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A51" s="28"/>
+    </row>
+    <row r="52" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="28"/>
+      <c r="C52" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A53" s="28"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A54" s="28"/>
+    </row>
+    <row r="55" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="28"/>
+      <c r="C55" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A56" s="28"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A57" s="28"/>
+      <c r="D57" t="s">
+        <v>246</v>
+      </c>
+      <c r="V57" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A58" s="28"/>
+    </row>
+    <row r="59" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D59" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="J59" s="45"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="41"/>
+    </row>
+    <row r="60" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D60" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="42">
+        <v>1</v>
+      </c>
+      <c r="K60" s="41"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+    </row>
+    <row r="61" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D61" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="42">
+        <v>9</v>
+      </c>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="41"/>
+    </row>
+    <row r="62" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D62" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="42">
+        <v>2</v>
+      </c>
+      <c r="K62" s="41"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="41"/>
+    </row>
+    <row r="63" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D63" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="42">
+        <v>3</v>
+      </c>
+      <c r="K63" s="41"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="41"/>
+      <c r="N63" s="41"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A64" s="28"/>
+      <c r="D64" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="37">
+        <v>8</v>
+      </c>
+      <c r="K64" s="41"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="41"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" s="28"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" s="28"/>
+    </row>
+    <row r="67" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="28"/>
+      <c r="C67" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" s="28"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" s="28"/>
+      <c r="D69" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" s="28"/>
+      <c r="E70" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" s="28"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" s="28"/>
+    </row>
+    <row r="73" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C73" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ゲーム制作資料/全体概要.xlsx
+++ b/ゲーム制作資料/全体概要.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲーム制作資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEA0C4C-72B1-46EA-A673-3839418A2ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE9CB91-2FFD-4565-851E-B40A45379706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{92B53D5B-1DF6-4B5A-BEE7-EE8E3CAF1BDF}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="56910" windowHeight="32640" firstSheet="1" activeTab="1" xr2:uid="{92B53D5B-1DF6-4B5A-BEE7-EE8E3CAF1BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="全体概要" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="288">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -1495,19 +1495,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・まっすぐ飛んで、[２マス]飛んだら消えます</t>
-    <rPh sb="5" eb="6">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[]は、後から飛距離変更できるようにしてください</t>
     <rPh sb="7" eb="10">
       <t>ヒキョリ</t>
@@ -1938,10 +1925,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①反転</t>
     <rPh sb="1" eb="3">
       <t>ハンテン</t>
@@ -2184,6 +2167,84 @@
   </si>
   <si>
     <t>Stage</t>
+  </si>
+  <si>
+    <t>ゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stage,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stage.1は、プレイヤーを中心として、スクロールします。</t>
+    <rPh sb="15" eb="17">
+      <t>チュウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージは、左からスタートし、右に進んて行きます。</t>
+    <rPh sb="6" eb="7">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクロールは、進むことも、戻ることもできるようにしたいです。</t>
+    <rPh sb="7" eb="8">
+      <t>ススム</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木の座標</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステージ移動ブロック</t>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stage.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・まっすぐ飛んで、[3マス]飛んだら消えます</t>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まっすぐ飛んで、[3マス]飛んだら消えます</t>
   </si>
 </sst>
 </file>
@@ -2194,7 +2255,7 @@
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2475,7 +2536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2602,19 +2663,7 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2623,16 +2672,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9734,6 +9777,327 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55310F66-CD78-4CDE-B84A-4B9EF7B60FAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800101" y="3095625"/>
+          <a:ext cx="266700" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0670E9B8-390B-4095-9094-4E50E5DBE803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="8810625"/>
+          <a:ext cx="220980" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A7C1A1-F285-48A9-BACA-0BA4CC2B5C7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="4762500"/>
+          <a:ext cx="266700" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F202547F-094E-4774-B045-7EF24A7FDD9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="4762500"/>
+          <a:ext cx="220980" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矢印: 右 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD7CB053-6450-4B6F-8E4C-686E1461FA52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="4752976"/>
+          <a:ext cx="552450" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
@@ -9856,13 +10220,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9916,13 +10280,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9980,13 +10344,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10047,13 +10411,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10114,13 +10478,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10181,13 +10545,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>129541</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>69473</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10236,13 +10600,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10300,6 +10664,834 @@
             </a:rPr>
             <a:t>中心座標</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>127635</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矢印: 右 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD9CCEF-078B-4294-9813-B21B24E51381}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7214235" y="19183350"/>
+          <a:ext cx="1091565" cy="1453515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>191980</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CF6DCE-3FAC-65C8-60A5-1B3734629AD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619124" y="18240375"/>
+          <a:ext cx="6221306" cy="3499485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>29384</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3C9ED16-F098-F3DE-13D6-34D23C2D8B6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8467725" y="18259425"/>
+          <a:ext cx="6192059" cy="3467100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>33865</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>42332</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7245E8E-F862-ECBC-1BA6-F0FFE1D34283}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23808265" y="18278475"/>
+          <a:ext cx="6180667" cy="3476625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>37505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E02436B8-1C97-FB09-9B34-BABC53FCDC57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16135350" y="18240375"/>
+          <a:ext cx="6162675" cy="3466505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矢印: 右 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D6AE35B-B5D7-4011-858D-5DE502E47AC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14982825" y="19069050"/>
+          <a:ext cx="1091565" cy="1453515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>100965</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="矢印: 右 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077E152A-0445-45D2-97A6-712D830853C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22555200" y="19030950"/>
+          <a:ext cx="1091565" cy="1453515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6D7849-DF27-9FBA-EC47-CB097CE48F09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4695825" y="17697450"/>
+          <a:ext cx="28575" cy="4610100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{751B745B-9AAD-49CD-BD46-15E306E311F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2209800" y="14516100"/>
+          <a:ext cx="9525" cy="2266950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE52ABEB-896F-6AD1-5572-EA5461615186}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190625" y="13820775"/>
+          <a:ext cx="1828800" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" kern="1200"/>
+            <a:t>スクロールイメージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F66E1FE7-642C-4D72-9390-53D168BC6694}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11363325" y="17659350"/>
+          <a:ext cx="28575" cy="4610100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253A20B2-8AC7-451B-B679-39831585A99E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17878425" y="17735550"/>
+          <a:ext cx="28575" cy="4610100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF1E44A-3984-4C25-9673-56C28EF7F42A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25603200" y="17792700"/>
+          <a:ext cx="57150" cy="4543425"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>233363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="二等辺三角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EACAD1C7-3304-BB7E-5550-505871B68952}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3781425" y="1828801"/>
+          <a:ext cx="600075" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60C56BCE-81C7-6EE4-E1C1-D9D623315E63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3790950" y="1790700"/>
+          <a:ext cx="57150" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10339,9 +11531,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10379,7 +11571,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -10485,7 +11677,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10627,7 +11819,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10639,129 +11831,129 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" s="3" customFormat="1">
       <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" s="5" customFormat="1">
       <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" s="5" customFormat="1">
       <c r="B7" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4">
       <c r="D10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4">
       <c r="D11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4">
       <c r="D12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4">
       <c r="D13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4">
       <c r="D14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:4">
       <c r="D15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:3" s="5" customFormat="1">
       <c r="B17" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3">
       <c r="C20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:3">
       <c r="C21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:3">
       <c r="C22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:3">
       <c r="C23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:3">
       <c r="C24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:3">
       <c r="C25" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:3">
       <c r="C26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:3">
       <c r="C27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:3">
       <c r="C28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:3">
       <c r="C29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:3">
       <c r="B31" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:2" s="1" customFormat="1">
       <c r="B36" s="14" t="s">
         <v>81</v>
       </c>
@@ -10775,56 +11967,56 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A96006F-8B90-445D-870E-668460645B9C}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:G17"/>
+      <selection activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" s="1" customFormat="1">
       <c r="A1" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" s="5" customFormat="1">
       <c r="A3"/>
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17">
       <c r="C4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17">
       <c r="C5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17">
       <c r="C6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17">
       <c r="C7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="1" t="s">
+    <row r="14" spans="1:17" s="1" customFormat="1">
+      <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -10832,6 +12024,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10843,43 +12036,43 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.3984375" customWidth="1"/>
-    <col min="3" max="3" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.3984375" customWidth="1"/>
+    <col min="12" max="12" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="B1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" s="5" customFormat="1">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" s="5" customFormat="1">
       <c r="B8" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10">
       <c r="C10" s="16" t="s">
         <v>115</v>
       </c>
@@ -10899,7 +12092,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10">
       <c r="C11" s="18" t="s">
         <v>121</v>
       </c>
@@ -10920,7 +12113,7 @@
       </c>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10">
       <c r="C12" s="22">
         <v>1</v>
       </c>
@@ -10941,7 +12134,7 @@
       </c>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10">
       <c r="A13" s="27"/>
       <c r="C13" s="22">
         <v>2</v>
@@ -10963,7 +12156,7 @@
       </c>
       <c r="J13" s="21"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10">
       <c r="C14" s="22">
         <v>3</v>
       </c>
@@ -10984,7 +12177,7 @@
       </c>
       <c r="J14" s="21"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10">
       <c r="C15" s="22">
         <v>4</v>
       </c>
@@ -11005,7 +12198,7 @@
       </c>
       <c r="J15" s="21"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10">
       <c r="C16" s="22">
         <v>5</v>
       </c>
@@ -11026,7 +12219,7 @@
       </c>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10">
       <c r="C17" s="22">
         <v>6</v>
       </c>
@@ -11047,7 +12240,7 @@
       </c>
       <c r="J17" s="21"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:10">
       <c r="C18" s="22">
         <v>7</v>
       </c>
@@ -11068,7 +12261,7 @@
       </c>
       <c r="J18" s="21"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10">
       <c r="C19" s="22">
         <v>8</v>
       </c>
@@ -11088,7 +12281,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10">
       <c r="C20" s="22">
         <v>9</v>
       </c>
@@ -11108,7 +12301,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:10">
       <c r="C21" s="22">
         <v>10</v>
       </c>
@@ -11128,7 +12321,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:10">
       <c r="C22" s="22">
         <v>11</v>
       </c>
@@ -11148,7 +12341,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:10">
       <c r="C23" s="22">
         <v>12</v>
       </c>
@@ -11162,7 +12355,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:10" s="3" customFormat="1">
       <c r="B25" s="8" t="s">
         <v>18</v>
       </c>
@@ -11182,45 +12375,45 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.3984375" customWidth="1"/>
-    <col min="3" max="3" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.3984375" customWidth="1"/>
+    <col min="13" max="13" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="B1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" s="5" customFormat="1">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" s="5" customFormat="1">
       <c r="B8" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10">
       <c r="C10" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>116</v>
@@ -11232,13 +12425,13 @@
         <v>118</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="C11" s="18" t="s">
         <v>121</v>
       </c>
@@ -11252,14 +12445,14 @@
         <v>125</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>170</v>
       </c>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10">
       <c r="C12" s="22">
         <v>1</v>
       </c>
@@ -11276,7 +12469,7 @@
       <c r="H12" s="20"/>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10">
       <c r="A13" s="27"/>
       <c r="C13" s="22">
         <v>2</v>
@@ -11298,7 +12491,7 @@
       </c>
       <c r="J13" s="21"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10">
       <c r="C14" s="22">
         <v>3</v>
       </c>
@@ -11312,14 +12505,14 @@
         <v>129</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H14" s="20" t="s">
         <v>171</v>
       </c>
       <c r="J14" s="21"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10">
       <c r="C15" s="22">
         <v>4</v>
       </c>
@@ -11340,7 +12533,7 @@
       </c>
       <c r="J15" s="21"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10">
       <c r="C16" s="22">
         <v>5</v>
       </c>
@@ -11359,7 +12552,7 @@
       </c>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10">
       <c r="C17" s="22">
         <v>6</v>
       </c>
@@ -11378,7 +12571,7 @@
       </c>
       <c r="J17" s="21"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:10">
       <c r="C18" s="22">
         <v>7</v>
       </c>
@@ -11399,7 +12592,7 @@
       </c>
       <c r="J18" s="21"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10">
       <c r="C19" s="22">
         <v>8</v>
       </c>
@@ -11419,7 +12612,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10">
       <c r="C20" s="22">
         <v>9</v>
       </c>
@@ -11437,7 +12630,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:10">
       <c r="C21" s="22">
         <v>10</v>
       </c>
@@ -11457,12 +12650,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:10">
       <c r="C22" s="22">
         <v>11</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
@@ -11470,10 +12663,10 @@
         <v>164</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
       <c r="C23" s="22">
         <v>12</v>
       </c>
@@ -11483,7 +12676,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="25" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:10" s="3" customFormat="1">
       <c r="B25" s="8" t="s">
         <v>18</v>
       </c>
@@ -11500,79 +12693,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3B0319-5547-4637-BF71-73227FB167EA}">
-  <dimension ref="A1:AI69"/>
+  <dimension ref="A1:AI63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="9" customFormat="1">
       <c r="A1" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" s="5" customFormat="1">
       <c r="A3"/>
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4">
       <c r="C5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4">
       <c r="C6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4">
       <c r="C7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" s="5" customFormat="1">
       <c r="A9"/>
       <c r="C9" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4">
       <c r="C11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4">
       <c r="D12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4">
       <c r="D13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4">
       <c r="D14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" s="5" customFormat="1">
       <c r="A16"/>
       <c r="C16" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="14:35" x14ac:dyDescent="0.45">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="14:35">
       <c r="N21" s="37"/>
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
@@ -11596,7 +12789,7 @@
       <c r="AH21" s="37"/>
       <c r="AI21" s="37"/>
     </row>
-    <row r="22" spans="14:35" x14ac:dyDescent="0.45">
+    <row r="22" spans="14:35">
       <c r="N22" s="37"/>
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
@@ -11620,7 +12813,7 @@
       <c r="AH22" s="37"/>
       <c r="AI22" s="37"/>
     </row>
-    <row r="23" spans="14:35" x14ac:dyDescent="0.45">
+    <row r="23" spans="14:35">
       <c r="N23" s="37"/>
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
@@ -11644,7 +12837,7 @@
       <c r="AH23" s="37"/>
       <c r="AI23" s="37"/>
     </row>
-    <row r="24" spans="14:35" x14ac:dyDescent="0.45">
+    <row r="24" spans="14:35">
       <c r="N24" s="37"/>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
@@ -11668,7 +12861,7 @@
       <c r="AH24" s="37"/>
       <c r="AI24" s="37"/>
     </row>
-    <row r="25" spans="14:35" x14ac:dyDescent="0.45">
+    <row r="25" spans="14:35">
       <c r="N25" s="37"/>
       <c r="O25" s="37"/>
       <c r="P25" s="37"/>
@@ -11692,7 +12885,7 @@
       <c r="AH25" s="37"/>
       <c r="AI25" s="37"/>
     </row>
-    <row r="26" spans="14:35" x14ac:dyDescent="0.45">
+    <row r="26" spans="14:35">
       <c r="N26" s="37"/>
       <c r="O26" s="37"/>
       <c r="P26" s="37"/>
@@ -11716,7 +12909,7 @@
       <c r="AH26" s="37"/>
       <c r="AI26" s="37"/>
     </row>
-    <row r="27" spans="14:35" x14ac:dyDescent="0.45">
+    <row r="27" spans="14:35">
       <c r="N27" s="37"/>
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>
@@ -11740,7 +12933,7 @@
       <c r="AH27" s="37"/>
       <c r="AI27" s="37"/>
     </row>
-    <row r="28" spans="14:35" x14ac:dyDescent="0.45">
+    <row r="28" spans="14:35">
       <c r="N28" s="37"/>
       <c r="O28" s="37"/>
       <c r="P28" s="37"/>
@@ -11764,7 +12957,7 @@
       <c r="AH28" s="37"/>
       <c r="AI28" s="37"/>
     </row>
-    <row r="29" spans="14:35" x14ac:dyDescent="0.45">
+    <row r="29" spans="14:35">
       <c r="N29" s="37"/>
       <c r="O29" s="37"/>
       <c r="P29" s="37"/>
@@ -11788,7 +12981,7 @@
       <c r="AH29" s="37"/>
       <c r="AI29" s="37"/>
     </row>
-    <row r="30" spans="14:35" x14ac:dyDescent="0.45">
+    <row r="30" spans="14:35">
       <c r="N30" s="37"/>
       <c r="O30" s="37"/>
       <c r="P30" s="37"/>
@@ -11812,7 +13005,7 @@
       <c r="AH30" s="37"/>
       <c r="AI30" s="37"/>
     </row>
-    <row r="31" spans="14:35" x14ac:dyDescent="0.45">
+    <row r="31" spans="14:35">
       <c r="N31" s="37"/>
       <c r="O31" s="37"/>
       <c r="P31" s="37"/>
@@ -11836,7 +13029,7 @@
       <c r="AH31" s="37"/>
       <c r="AI31" s="37"/>
     </row>
-    <row r="32" spans="14:35" x14ac:dyDescent="0.45">
+    <row r="32" spans="14:35">
       <c r="N32" s="37"/>
       <c r="O32" s="37"/>
       <c r="P32" s="37"/>
@@ -11860,75 +13053,75 @@
       <c r="AH32" s="37"/>
       <c r="AI32" s="37"/>
     </row>
-    <row r="34" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" ht="18.600000000000001" customHeight="1"/>
+    <row r="35" spans="1:14" s="5" customFormat="1">
       <c r="A35"/>
       <c r="C35" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="D37" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="D37" t="s">
+    <row r="38" spans="1:14">
+      <c r="D38" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="D38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14">
       <c r="E40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N40" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="5" customFormat="1">
       <c r="A43"/>
       <c r="C43" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="D45" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D46" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="E48" t="s">
+        <v>218</v>
+      </c>
+      <c r="N48" t="s">
         <v>219</v>
       </c>
-      <c r="N48" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="50" spans="1:16" s="5" customFormat="1">
       <c r="A50"/>
       <c r="C50" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="D52" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="D52" t="s">
+    <row r="53" spans="1:16">
+      <c r="D53" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="D53" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:16">
       <c r="E55" s="37"/>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
@@ -11942,7 +13135,7 @@
       <c r="O55" s="37"/>
       <c r="P55" s="37"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:16">
       <c r="E56" s="37"/>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
@@ -11956,7 +13149,7 @@
       <c r="O56" s="37"/>
       <c r="P56" s="37"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:16">
       <c r="E57" s="37"/>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
@@ -11970,7 +13163,7 @@
       <c r="O57" s="37"/>
       <c r="P57" s="37"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:16">
       <c r="E58" s="37"/>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
@@ -11984,7 +13177,7 @@
       <c r="O58" s="37"/>
       <c r="P58" s="37"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:16">
       <c r="E59" s="37"/>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
@@ -11998,7 +13191,7 @@
       <c r="O59" s="37"/>
       <c r="P59" s="37"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:16">
       <c r="E60" s="37"/>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
@@ -12012,11 +13205,8 @@
       <c r="O60" s="37"/>
       <c r="P60" s="37"/>
     </row>
-    <row r="63" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:16" s="5" customFormat="1">
       <c r="A63"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A69" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -12029,24 +13219,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9432B6-34F2-4697-B3B8-316CF4241EDB}">
   <dimension ref="A1:BL91"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z13" sqref="Z13:AD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" s="3" customFormat="1">
       <c r="A1" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:64" s="5" customFormat="1">
       <c r="A3"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
@@ -12055,7 +13245,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:64">
       <c r="AB5" t="s">
         <v>0</v>
       </c>
@@ -12063,7 +13253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:64">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -12094,7 +13284,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:64">
       <c r="D7" s="2"/>
       <c r="W7" s="2"/>
       <c r="AB7" t="s">
@@ -12110,7 +13300,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:64">
       <c r="D8" s="2"/>
       <c r="W8" s="2"/>
       <c r="AL8" t="s">
@@ -12123,7 +13313,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:64">
       <c r="D9" s="2"/>
       <c r="W9" s="2"/>
       <c r="Z9" s="4"/>
@@ -12140,7 +13330,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:64">
       <c r="D10" s="2"/>
       <c r="O10" s="2"/>
       <c r="W10" s="2"/>
@@ -12154,7 +13344,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:64">
       <c r="D11" s="2"/>
       <c r="M11" s="2"/>
       <c r="O11" s="2"/>
@@ -12164,7 +13354,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:64">
       <c r="D12" s="2"/>
       <c r="G12" s="7"/>
       <c r="K12" s="2"/>
@@ -12175,7 +13365,7 @@
       <c r="V12" s="6"/>
       <c r="W12" s="9"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:64">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -12201,26 +13391,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:64">
       <c r="Z15" s="2"/>
       <c r="AB15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:51">
       <c r="Z17" s="9"/>
       <c r="AB17" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:51" s="6" customFormat="1">
       <c r="A21"/>
       <c r="B21" s="7"/>
       <c r="C21" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:51">
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -12267,63 +13457,63 @@
       <c r="AX25" s="1"/>
       <c r="AY25" s="1"/>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:51">
       <c r="G26" s="1"/>
       <c r="AY26" s="1"/>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:51">
       <c r="G27" s="1"/>
       <c r="AY27" s="1"/>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:51">
       <c r="G28" s="1"/>
       <c r="AY28" s="1"/>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:51">
       <c r="G29" s="1"/>
       <c r="AY29" s="1"/>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:51">
       <c r="G30" s="1"/>
       <c r="AY30" s="1"/>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:51">
       <c r="G31" s="1"/>
       <c r="AY31" s="1"/>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:51">
       <c r="G32" s="1"/>
       <c r="AY32" s="9"/>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:51">
       <c r="G33" s="1"/>
       <c r="AY33" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:51">
       <c r="G34" s="1"/>
       <c r="AY34" s="9"/>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:51">
       <c r="G35" s="1"/>
       <c r="AX35" s="10"/>
       <c r="AY35" s="1"/>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:51">
       <c r="G36" s="1"/>
       <c r="AW36" s="10"/>
       <c r="AX36" s="10"/>
       <c r="AY36" s="1"/>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:51">
       <c r="G37" s="1"/>
       <c r="AV37" s="10"/>
       <c r="AW37" s="10"/>
       <c r="AX37" s="10"/>
       <c r="AY37" s="1"/>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:51">
       <c r="G38" s="1"/>
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
@@ -12333,7 +13523,7 @@
       <c r="AX38" s="10"/>
       <c r="AY38" s="1"/>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:51">
       <c r="G39" s="1"/>
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
@@ -12346,7 +13536,7 @@
       <c r="AX39" s="10"/>
       <c r="AY39" s="1"/>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:51">
       <c r="G40" s="1"/>
       <c r="M40" s="10"/>
       <c r="Q40" s="10"/>
@@ -12370,7 +13560,7 @@
       <c r="AX40" s="10"/>
       <c r="AY40" s="1"/>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:51">
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -12417,14 +13607,14 @@
       <c r="AX41" s="1"/>
       <c r="AY41" s="1"/>
     </row>
-    <row r="47" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:51" s="6" customFormat="1">
       <c r="A47"/>
       <c r="B47" s="7"/>
       <c r="C47" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="7:55" x14ac:dyDescent="0.45">
+    <row r="51" spans="7:55">
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -12471,34 +13661,34 @@
       <c r="AX51" s="1"/>
       <c r="AY51" s="1"/>
     </row>
-    <row r="52" spans="7:55" x14ac:dyDescent="0.45">
+    <row r="52" spans="7:55">
       <c r="G52" s="1"/>
       <c r="AY52" s="1"/>
     </row>
-    <row r="53" spans="7:55" x14ac:dyDescent="0.45">
+    <row r="53" spans="7:55">
       <c r="G53" s="1"/>
       <c r="AY53" s="1"/>
     </row>
-    <row r="54" spans="7:55" x14ac:dyDescent="0.45">
+    <row r="54" spans="7:55">
       <c r="G54" s="1"/>
       <c r="AY54" s="1"/>
     </row>
-    <row r="55" spans="7:55" x14ac:dyDescent="0.45">
+    <row r="55" spans="7:55">
       <c r="G55" s="1"/>
       <c r="AY55" s="1"/>
     </row>
-    <row r="56" spans="7:55" x14ac:dyDescent="0.45">
+    <row r="56" spans="7:55">
       <c r="G56" s="1"/>
       <c r="AY56" s="1"/>
     </row>
-    <row r="57" spans="7:55" x14ac:dyDescent="0.45">
+    <row r="57" spans="7:55">
       <c r="G57" s="9"/>
       <c r="AY57" s="9"/>
       <c r="BC57" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="7:55" x14ac:dyDescent="0.45">
+    <row r="58" spans="7:55">
       <c r="G58" s="13" t="s">
         <v>52</v>
       </c>
@@ -12507,7 +13697,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="7:55" x14ac:dyDescent="0.45">
+    <row r="59" spans="7:55">
       <c r="G59" s="9"/>
       <c r="N59" s="4"/>
       <c r="T59" s="11"/>
@@ -12523,7 +13713,7 @@
       <c r="AO59" s="4"/>
       <c r="AY59" s="9"/>
     </row>
-    <row r="60" spans="7:55" x14ac:dyDescent="0.45">
+    <row r="60" spans="7:55">
       <c r="G60" s="1"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
@@ -12569,43 +13759,43 @@
       <c r="AX60" s="10"/>
       <c r="AY60" s="1"/>
     </row>
-    <row r="61" spans="7:55" x14ac:dyDescent="0.45">
+    <row r="61" spans="7:55">
       <c r="G61" s="1"/>
       <c r="W61" s="10"/>
       <c r="Y61" s="10"/>
       <c r="AY61" s="1"/>
     </row>
-    <row r="62" spans="7:55" x14ac:dyDescent="0.45">
+    <row r="62" spans="7:55">
       <c r="G62" s="1"/>
       <c r="W62" s="10"/>
       <c r="Y62" s="10"/>
       <c r="AY62" s="1"/>
     </row>
-    <row r="63" spans="7:55" x14ac:dyDescent="0.45">
+    <row r="63" spans="7:55">
       <c r="G63" s="1"/>
       <c r="W63" s="10"/>
       <c r="Y63" s="10"/>
       <c r="AY63" s="1"/>
     </row>
-    <row r="64" spans="7:55" x14ac:dyDescent="0.45">
+    <row r="64" spans="7:55">
       <c r="G64" s="1"/>
       <c r="W64" s="10"/>
       <c r="Y64" s="10"/>
       <c r="AY64" s="1"/>
     </row>
-    <row r="65" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:51">
       <c r="G65" s="14"/>
       <c r="W65" s="10"/>
       <c r="Y65" s="10"/>
       <c r="AY65" s="14"/>
     </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:51">
       <c r="G66" s="1"/>
       <c r="W66" s="10"/>
       <c r="Y66" s="10"/>
       <c r="AY66" s="1"/>
     </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:51">
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -12652,13 +13842,13 @@
       <c r="AX67" s="1"/>
       <c r="AY67" s="1"/>
     </row>
-    <row r="71" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:51" s="6" customFormat="1">
       <c r="A71"/>
       <c r="C71" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:51">
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -12705,31 +13895,31 @@
       <c r="AX75" s="1"/>
       <c r="AY75" s="1"/>
     </row>
-    <row r="76" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:51">
       <c r="G76" s="1"/>
       <c r="AY76" s="1"/>
     </row>
-    <row r="77" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:51">
       <c r="G77" s="1"/>
       <c r="AY77" s="1"/>
     </row>
-    <row r="78" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:51">
       <c r="G78" s="1"/>
       <c r="AY78" s="1"/>
     </row>
-    <row r="79" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:51">
       <c r="G79" s="1"/>
       <c r="AY79" s="1"/>
     </row>
-    <row r="80" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:51">
       <c r="G80" s="1"/>
       <c r="AY80" s="1"/>
     </row>
-    <row r="81" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="81" spans="7:51">
       <c r="G81" s="9"/>
       <c r="AY81" s="9"/>
     </row>
-    <row r="82" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="82" spans="7:51">
       <c r="G82" s="13" t="s">
         <v>52</v>
       </c>
@@ -12737,39 +13927,39 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="83" spans="7:51">
       <c r="G83" s="9"/>
       <c r="AY83" s="9"/>
     </row>
-    <row r="84" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="84" spans="7:51">
       <c r="G84" s="1"/>
       <c r="AY84" s="1"/>
     </row>
-    <row r="85" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="85" spans="7:51">
       <c r="G85" s="1"/>
       <c r="AY85" s="1"/>
     </row>
-    <row r="86" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="86" spans="7:51">
       <c r="G86" s="1"/>
       <c r="AY86" s="1"/>
     </row>
-    <row r="87" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="87" spans="7:51">
       <c r="G87" s="1"/>
       <c r="AY87" s="1"/>
     </row>
-    <row r="88" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="88" spans="7:51">
       <c r="G88" s="1"/>
       <c r="AY88" s="1"/>
     </row>
-    <row r="89" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="89" spans="7:51">
       <c r="G89" s="14"/>
       <c r="AY89" s="14"/>
     </row>
-    <row r="90" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="90" spans="7:51">
       <c r="G90" s="1"/>
       <c r="AY90" s="1"/>
     </row>
-    <row r="91" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="91" spans="7:51">
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -12829,23 +14019,23 @@
   <dimension ref="A1:AQ86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R83" sqref="R83"/>
+      <selection activeCell="T38" sqref="E38:T38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="3" customFormat="1">
       <c r="A1" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" s="5" customFormat="1">
       <c r="A3"/>
       <c r="C3" s="5" t="s">
         <v>5</v>
@@ -12854,86 +14044,86 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7">
       <c r="C5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7">
       <c r="C6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" s="5" customFormat="1">
       <c r="A8"/>
       <c r="C8" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7">
       <c r="C10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7">
       <c r="C11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7">
       <c r="C12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" s="5" customFormat="1">
       <c r="A15"/>
       <c r="C15" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3">
       <c r="C17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3">
       <c r="C18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3">
       <c r="C19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3">
       <c r="C20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="5" customFormat="1">
       <c r="A22"/>
       <c r="C22" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3">
       <c r="C24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3">
       <c r="C25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" s="5" customFormat="1">
       <c r="A31"/>
       <c r="C31" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:36">
       <c r="C33" t="s">
         <v>96</v>
       </c>
@@ -12947,7 +14137,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:36">
       <c r="C34" t="s">
         <v>95</v>
       </c>
@@ -12961,12 +14151,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:36">
       <c r="C36" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:36">
       <c r="D37" s="28"/>
       <c r="E37" s="29"/>
       <c r="F37" s="29"/>
@@ -12986,33 +14176,21 @@
       <c r="T37" s="29"/>
       <c r="U37" s="30"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:36">
       <c r="D38" s="31"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43" t="s">
+      <c r="G38" t="s">
         <v>0</v>
       </c>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43" t="s">
+      <c r="K38" s="2"/>
+      <c r="M38" t="s">
         <v>2</v>
       </c>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43" t="s">
+      <c r="S38" t="s">
         <v>8</v>
       </c>
-      <c r="T38" s="43"/>
       <c r="U38" s="32"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:36">
       <c r="D39" s="33"/>
       <c r="E39" s="34"/>
       <c r="F39" s="34"/>
@@ -13032,10 +14210,10 @@
       <c r="T39" s="34"/>
       <c r="U39" s="35"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:36">
       <c r="D41" s="28"/>
       <c r="E41" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
@@ -13047,7 +14225,7 @@
       <c r="P41" s="28"/>
       <c r="Q41" s="29"/>
       <c r="R41" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S41" s="29"/>
       <c r="T41" s="29"/>
@@ -13057,25 +14235,25 @@
       <c r="X41" s="29"/>
       <c r="Y41" s="30"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:36">
       <c r="D42" s="31"/>
       <c r="L42" s="32"/>
       <c r="P42" s="31"/>
       <c r="Y42" s="32"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:36">
       <c r="D43" s="31"/>
       <c r="L43" s="32"/>
       <c r="P43" s="31"/>
       <c r="Y43" s="32"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:36">
       <c r="D44" s="31"/>
       <c r="L44" s="32"/>
       <c r="P44" s="31"/>
       <c r="Y44" s="32"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:36">
       <c r="D45" s="33"/>
       <c r="E45" s="34"/>
       <c r="F45" s="34"/>
@@ -13096,13 +14274,13 @@
       <c r="X45" s="34"/>
       <c r="Y45" s="35"/>
     </row>
-    <row r="48" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:36" s="5" customFormat="1">
       <c r="A48"/>
       <c r="C48" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:43">
       <c r="C50" t="s">
         <v>93</v>
       </c>
@@ -13116,13 +14294,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:43">
       <c r="K51" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="A53" s="51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:43">
+      <c r="A53" s="21">
         <v>45618</v>
       </c>
       <c r="E53" s="28"/>
@@ -13148,31 +14326,31 @@
       <c r="Y53" s="29"/>
       <c r="Z53" s="30"/>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:43">
       <c r="A54" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E54" s="31"/>
       <c r="G54" t="s">
+        <v>237</v>
+      </c>
+      <c r="N54" t="s">
         <v>238</v>
       </c>
-      <c r="N54" t="s">
+      <c r="W54" t="s">
         <v>239</v>
       </c>
-      <c r="W54" t="s">
-        <v>240</v>
-      </c>
       <c r="Z54" s="32"/>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:43">
       <c r="E55" s="31"/>
       <c r="Z55" s="32"/>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:43">
       <c r="E56" s="31"/>
       <c r="Z56" s="32"/>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:43">
       <c r="E57" s="33"/>
       <c r="F57" s="34"/>
       <c r="G57" s="34"/>
@@ -13196,13 +14374,13 @@
       <c r="Y57" s="34"/>
       <c r="Z57" s="35"/>
     </row>
-    <row r="59" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:43" s="5" customFormat="1">
       <c r="A59"/>
       <c r="C59" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:43">
       <c r="C61" t="s">
         <v>97</v>
       </c>
@@ -13210,7 +14388,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:43">
       <c r="G63" s="28"/>
       <c r="H63" s="29"/>
       <c r="I63" s="29"/>
@@ -13222,48 +14400,25 @@
       <c r="O63" s="29"/>
       <c r="P63" s="30"/>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:43">
       <c r="G64" s="31"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="O64" s="43"/>
+      <c r="I64" t="s">
+        <v>263</v>
+      </c>
+      <c r="N64" t="s">
+        <v>249</v>
+      </c>
       <c r="P64" s="32"/>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:39">
       <c r="G65" s="31"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="43"/>
-      <c r="M65" s="43"/>
-      <c r="N65" s="43"/>
-      <c r="O65" s="43"/>
       <c r="P65" s="32"/>
-      <c r="Q65" s="43"/>
-    </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.45">
+    </row>
+    <row r="66" spans="1:39">
       <c r="G66" s="31"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="43"/>
       <c r="P66" s="32"/>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:39">
       <c r="G67" s="33"/>
       <c r="H67" s="34"/>
       <c r="I67" s="34"/>
@@ -13275,99 +14430,12 @@
       <c r="O67" s="34"/>
       <c r="P67" s="35"/>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="43"/>
-      <c r="M68" s="43"/>
-      <c r="N68" s="43"/>
-      <c r="O68" s="43"/>
-      <c r="P68" s="43"/>
-      <c r="U68" s="43"/>
-      <c r="V68" s="43"/>
-      <c r="W68" s="43"/>
-      <c r="X68" s="43"/>
-      <c r="Y68" s="43"/>
-      <c r="Z68" s="43"/>
-      <c r="AA68" s="43"/>
-      <c r="AB68" s="43"/>
-      <c r="AC68" s="43"/>
-      <c r="AD68" s="43"/>
-    </row>
-    <row r="69" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:39" s="5" customFormat="1">
       <c r="D69" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="50"/>
-      <c r="L69" s="50"/>
-      <c r="M69" s="50"/>
-      <c r="N69" s="50"/>
-      <c r="O69" s="50"/>
-      <c r="P69" s="50"/>
-      <c r="U69" s="50"/>
-      <c r="V69" s="50"/>
-      <c r="W69" s="50"/>
-      <c r="X69" s="50"/>
-      <c r="Y69" s="50"/>
-      <c r="Z69" s="50"/>
-      <c r="AA69" s="50"/>
-      <c r="AB69" s="50"/>
-      <c r="AC69" s="50"/>
-      <c r="AD69" s="50"/>
-    </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="G70" s="43"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="43"/>
-      <c r="K70" s="43"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="43"/>
-      <c r="O70" s="43"/>
-      <c r="P70" s="43"/>
-      <c r="U70" s="43"/>
-      <c r="V70" s="43"/>
-      <c r="W70" s="43"/>
-      <c r="X70" s="43"/>
-      <c r="Y70" s="43"/>
-      <c r="Z70" s="43"/>
-      <c r="AA70" s="43"/>
-      <c r="AB70" s="43"/>
-      <c r="AC70" s="43"/>
-      <c r="AD70" s="43"/>
-    </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="43"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="43"/>
-      <c r="P71" s="43"/>
-      <c r="U71" s="43"/>
-      <c r="V71" s="43"/>
-      <c r="W71" s="43"/>
-      <c r="X71" s="43"/>
-      <c r="Y71" s="43"/>
-      <c r="Z71" s="43"/>
-      <c r="AA71" s="43"/>
-      <c r="AB71" s="43"/>
-      <c r="AC71" s="43"/>
-      <c r="AD71" s="43"/>
-    </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="G72" s="43"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:39">
       <c r="H72" s="28"/>
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
@@ -13381,106 +14449,32 @@
       <c r="R72" s="29"/>
       <c r="S72" s="29"/>
       <c r="T72" s="30"/>
-      <c r="U72" s="43"/>
-      <c r="V72" s="43"/>
-      <c r="W72" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="X72" s="43"/>
-      <c r="Y72" s="43"/>
-      <c r="Z72" s="43"/>
-      <c r="AA72" s="43"/>
-      <c r="AB72" s="43"/>
-      <c r="AC72" s="43"/>
-      <c r="AD72" s="43"/>
-    </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="G73" s="43"/>
+      <c r="W72" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:39">
       <c r="H73" s="31"/>
-      <c r="I73" s="43" t="s">
-        <v>266</v>
-      </c>
-      <c r="J73" s="43"/>
-      <c r="K73" s="43"/>
-      <c r="L73" s="43"/>
-      <c r="M73" s="43"/>
-      <c r="N73" s="43"/>
-      <c r="O73" s="43"/>
-      <c r="P73" s="43"/>
-      <c r="Q73" s="43"/>
-      <c r="R73" s="43"/>
-      <c r="S73" s="43"/>
+      <c r="I73" t="s">
+        <v>264</v>
+      </c>
       <c r="T73" s="32"/>
-      <c r="U73" s="43"/>
-      <c r="V73" s="43"/>
-      <c r="W73" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="X73" s="43"/>
-      <c r="Y73" s="43"/>
-      <c r="Z73" s="43"/>
-      <c r="AA73" s="43"/>
-      <c r="AB73" s="43"/>
-      <c r="AC73" s="43"/>
-      <c r="AD73" s="43"/>
+      <c r="W73" t="s">
+        <v>267</v>
+      </c>
       <c r="AM73" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="G74" s="43"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="74" spans="1:39">
       <c r="H74" s="31"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="43"/>
-      <c r="O74" s="43"/>
-      <c r="P74" s="43"/>
-      <c r="Q74" s="43"/>
-      <c r="R74" s="43"/>
-      <c r="S74" s="43"/>
       <c r="T74" s="32"/>
-      <c r="U74" s="43"/>
-      <c r="V74" s="43"/>
-      <c r="W74" s="43"/>
-      <c r="X74" s="43"/>
-      <c r="Y74" s="43"/>
-      <c r="Z74" s="43"/>
-      <c r="AA74" s="43"/>
-      <c r="AB74" s="43"/>
-      <c r="AC74" s="43"/>
-      <c r="AD74" s="43"/>
-    </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="G75" s="43"/>
+    </row>
+    <row r="75" spans="1:39">
       <c r="H75" s="31"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="43"/>
-      <c r="M75" s="43"/>
-      <c r="N75" s="43"/>
-      <c r="O75" s="43"/>
-      <c r="P75" s="43"/>
-      <c r="Q75" s="43"/>
-      <c r="R75" s="43"/>
-      <c r="S75" s="43"/>
       <c r="T75" s="32"/>
-      <c r="U75" s="43"/>
-      <c r="V75" s="43"/>
-      <c r="W75" s="43"/>
-      <c r="X75" s="43"/>
-      <c r="Y75" s="43"/>
-      <c r="Z75" s="43"/>
-      <c r="AA75" s="43"/>
-      <c r="AB75" s="43"/>
-      <c r="AC75" s="43"/>
-      <c r="AD75" s="43"/>
-    </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="G76" s="43"/>
+    </row>
+    <row r="76" spans="1:39">
       <c r="H76" s="33"/>
       <c r="I76" s="34"/>
       <c r="J76" s="34"/>
@@ -13494,84 +14488,30 @@
       <c r="R76" s="34"/>
       <c r="S76" s="34"/>
       <c r="T76" s="35"/>
-      <c r="U76" s="43"/>
-      <c r="V76" s="43"/>
-      <c r="W76" s="43"/>
-      <c r="X76" s="43"/>
-      <c r="Y76" s="43"/>
-      <c r="Z76" s="43"/>
-      <c r="AA76" s="43"/>
-      <c r="AB76" s="43"/>
-      <c r="AC76" s="43"/>
-      <c r="AD76" s="43"/>
-    </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="43"/>
-      <c r="N77" s="43"/>
-      <c r="O77" s="43"/>
-      <c r="P77" s="43"/>
-      <c r="U77" s="43"/>
-      <c r="V77" s="43"/>
-      <c r="W77" s="43"/>
-      <c r="X77" s="43"/>
-      <c r="Y77" s="43"/>
-      <c r="Z77" s="43"/>
-      <c r="AA77" s="43"/>
-      <c r="AB77" s="43"/>
-      <c r="AC77" s="43"/>
-      <c r="AD77" s="43"/>
-    </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="43"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="43"/>
-      <c r="M78" s="43"/>
-      <c r="N78" s="43"/>
-      <c r="O78" s="43"/>
-      <c r="P78" s="43"/>
-      <c r="U78" s="43"/>
-      <c r="V78" s="43"/>
-      <c r="W78" s="43"/>
-      <c r="X78" s="43"/>
-      <c r="Y78" s="43"/>
-      <c r="Z78" s="43"/>
-      <c r="AA78" s="43"/>
-      <c r="AB78" s="43"/>
-      <c r="AC78" s="43"/>
-      <c r="AD78" s="43"/>
-    </row>
-    <row r="79" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="79" spans="1:39" s="5" customFormat="1">
       <c r="A79"/>
       <c r="C79" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9">
+      <c r="C81" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9">
+      <c r="I83" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C81" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="I83" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="3:9">
       <c r="D84" t="s">
         <v>186</v>
       </c>
       <c r="H84" s="2"/>
     </row>
-    <row r="86" spans="3:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="3:9" s="3" customFormat="1">
       <c r="C86" s="8" t="s">
         <v>18</v>
       </c>
@@ -13588,28 +14528,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C74346-497D-4924-9B58-2A138F54FEAD}">
   <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X61" sqref="X61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" s="3" customFormat="1">
       <c r="A1" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A2" s="42"/>
-    </row>
-    <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="42"/>
+    <row r="3" spans="1:18" s="5" customFormat="1">
+      <c r="A3"/>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
@@ -13617,29 +14554,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A4" s="42"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A5" s="42"/>
+    <row r="5" spans="1:18">
       <c r="B5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A6" s="42"/>
-    </row>
-    <row r="7" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="42"/>
+    <row r="7" spans="1:18" s="5" customFormat="1">
+      <c r="A7"/>
       <c r="B7" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A8" s="42"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A9" s="42"/>
+    <row r="9" spans="1:18">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -13650,80 +14576,45 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A10" s="42"/>
+    <row r="10" spans="1:18">
       <c r="B10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A11" s="42"/>
+    <row r="11" spans="1:18">
       <c r="B11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A12" s="42"/>
+    <row r="12" spans="1:18">
       <c r="B12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A13" s="42"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A14" s="42"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A15" s="42"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A16" s="42"/>
-    </row>
-    <row r="17" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="42"/>
+    <row r="17" spans="1:19" s="5" customFormat="1">
+      <c r="A17"/>
       <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A18" s="42"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A19" s="42"/>
+    <row r="19" spans="1:19">
       <c r="B19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A20" s="42"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A21" s="42"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A22" s="42"/>
-    </row>
-    <row r="23" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="42"/>
+    <row r="23" spans="1:19" s="9" customFormat="1">
+      <c r="A23"/>
       <c r="B23" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A24" s="42"/>
-    </row>
-    <row r="25" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="42"/>
+    <row r="25" spans="1:19" s="5" customFormat="1">
+      <c r="A25"/>
       <c r="B25" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A26" s="42"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A27" s="42"/>
+    <row r="27" spans="1:19">
       <c r="F27" s="4"/>
       <c r="G27" t="s">
         <v>113</v>
@@ -13736,7 +14627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19">
       <c r="J30" t="s">
         <v>22</v>
       </c>
@@ -13744,25 +14635,25 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19">
       <c r="F31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="34" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" s="5" customFormat="1">
       <c r="A34" s="7"/>
       <c r="B34" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12">
       <c r="F37" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12">
       <c r="B38" t="s">
         <v>186</v>
       </c>
@@ -13770,25 +14661,25 @@
       <c r="H38" s="4"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="41" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" s="5" customFormat="1">
       <c r="A41" s="7"/>
       <c r="B41" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12">
       <c r="F44" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I44" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12">
       <c r="H45" s="4"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12">
       <c r="B46" t="s">
         <v>188</v>
       </c>
@@ -13799,36 +14690,13 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="49" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:30" s="5" customFormat="1">
       <c r="A49" s="7"/>
       <c r="B49" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="43"/>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="43"/>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="43"/>
-      <c r="X51" s="43"/>
-      <c r="Y51" s="43"/>
-      <c r="Z51" s="43"/>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.45">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
       <c r="E52" s="28"/>
       <c r="F52" s="29"/>
       <c r="G52" s="29"/>
@@ -13840,10 +14708,6 @@
       <c r="M52" s="29"/>
       <c r="N52" s="29"/>
       <c r="O52" s="30"/>
-      <c r="Q52" s="43"/>
-      <c r="R52" s="43"/>
-      <c r="S52" s="43"/>
-      <c r="T52" s="43"/>
       <c r="U52" s="28"/>
       <c r="V52" s="29"/>
       <c r="W52" s="29"/>
@@ -13855,94 +14719,36 @@
       <c r="AC52" s="29"/>
       <c r="AD52" s="30"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:30">
       <c r="E53" s="31"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43" t="s">
+      <c r="G53" t="s">
+        <v>249</v>
+      </c>
+      <c r="K53" t="s">
+        <v>250</v>
+      </c>
+      <c r="O53" s="32"/>
+      <c r="U53" s="31"/>
+      <c r="AA53" t="s">
         <v>251</v>
       </c>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="43"/>
-      <c r="O53" s="32"/>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="43"/>
-      <c r="T53" s="43"/>
-      <c r="U53" s="31"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
-      <c r="X53" s="43"/>
-      <c r="Y53" s="43"/>
-      <c r="Z53" s="43"/>
-      <c r="AA53" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB53" s="43"/>
-      <c r="AC53" s="43"/>
       <c r="AD53" s="32"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:30">
       <c r="E54" s="31"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="44"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="43"/>
+      <c r="K54" s="4"/>
       <c r="O54" s="32"/>
-      <c r="Q54" s="43"/>
-      <c r="R54" s="43"/>
-      <c r="S54" s="43"/>
-      <c r="T54" s="43"/>
       <c r="U54" s="31"/>
-      <c r="V54" s="43"/>
-      <c r="W54" s="43"/>
-      <c r="X54" s="43"/>
-      <c r="Y54" s="43"/>
-      <c r="Z54" s="43"/>
-      <c r="AA54" s="46"/>
-      <c r="AB54" s="43"/>
-      <c r="AC54" s="43"/>
+      <c r="AA54" s="42"/>
       <c r="AD54" s="32"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:30">
       <c r="E55" s="31"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="43"/>
       <c r="O55" s="32"/>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="43"/>
-      <c r="S55" s="43"/>
-      <c r="T55" s="43"/>
       <c r="U55" s="31"/>
-      <c r="V55" s="43"/>
-      <c r="W55" s="43"/>
-      <c r="X55" s="43"/>
-      <c r="Y55" s="43"/>
-      <c r="Z55" s="43"/>
-      <c r="AA55" s="43"/>
-      <c r="AB55" s="43"/>
-      <c r="AC55" s="43"/>
       <c r="AD55" s="32"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:30">
       <c r="E56" s="33"/>
       <c r="F56" s="34"/>
       <c r="G56" s="34"/>
@@ -13965,12 +14771,12 @@
       <c r="AC56" s="34"/>
       <c r="AD56" s="35"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:30">
       <c r="U58" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" s="3" customFormat="1">
       <c r="B64" s="8" t="s">
         <v>18</v>
       </c>
@@ -13986,24 +14792,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E3E2F9-98CE-43F4-9D73-FAE038CE3F86}">
   <dimension ref="A1:AK76"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" s="3" customFormat="1">
       <c r="A1" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" s="5" customFormat="1">
       <c r="A3"/>
       <c r="C3" s="5" t="s">
         <v>5</v>
@@ -14012,18 +14818,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32">
       <c r="C5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" s="5" customFormat="1">
       <c r="A7"/>
       <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -14034,7 +14840,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32">
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -14045,43 +14851,43 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:32">
       <c r="C11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32">
       <c r="C12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" s="5" customFormat="1">
       <c r="A14"/>
       <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32">
       <c r="C16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="47" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" s="43" customFormat="1">
       <c r="B18" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="21">
         <v>45618</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" s="5" customFormat="1">
       <c r="C20" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="F22" s="11"/>
       <c r="H22" t="s">
         <v>15</v>
@@ -14094,10 +14900,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="T24" s="48"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:28">
+      <c r="T24" s="44"/>
+    </row>
+    <row r="25" spans="1:28">
       <c r="S25" t="s">
         <v>192</v>
       </c>
@@ -14105,15 +14911,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="O27" s="42"/>
-    </row>
-    <row r="31" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:28" s="5" customFormat="1">
       <c r="C31" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="33" spans="3:24" x14ac:dyDescent="0.45">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="3:24">
       <c r="G33" s="28"/>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
@@ -14127,32 +14930,12 @@
       <c r="Q33" s="29"/>
       <c r="R33" s="30"/>
     </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:24">
       <c r="G34" s="31"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
       <c r="R34" s="32"/>
     </row>
-    <row r="35" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:24">
       <c r="G35" s="31"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
       <c r="R35" s="32"/>
       <c r="T35" t="s">
         <v>189</v>
@@ -14161,63 +14944,23 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:24">
       <c r="G36" s="31"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
       <c r="R36" s="32"/>
     </row>
-    <row r="37" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:24">
       <c r="G37" s="31"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
       <c r="R37" s="32"/>
     </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:24">
       <c r="G38" s="31"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
       <c r="R38" s="32"/>
     </row>
-    <row r="39" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:24">
       <c r="G39" s="31"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
       <c r="R39" s="32"/>
     </row>
-    <row r="40" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:24">
       <c r="G40" s="33"/>
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
@@ -14231,12 +14974,12 @@
       <c r="Q40" s="34"/>
       <c r="R40" s="35"/>
     </row>
-    <row r="43" spans="3:24" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:24" s="5" customFormat="1">
       <c r="C43" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:24">
       <c r="G45" s="28"/>
       <c r="H45" s="29"/>
       <c r="I45" s="29"/>
@@ -14250,81 +14993,36 @@
       <c r="Q45" s="29"/>
       <c r="R45" s="30"/>
     </row>
-    <row r="46" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:24">
       <c r="G46" s="31"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="43"/>
       <c r="R46" s="32"/>
     </row>
-    <row r="47" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:24">
       <c r="G47" s="31"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
+      <c r="L47" s="2"/>
       <c r="R47" s="32"/>
     </row>
-    <row r="48" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:24">
       <c r="G48" s="31"/>
-      <c r="H48" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="43"/>
+      <c r="H48" t="s">
+        <v>257</v>
+      </c>
+      <c r="L48" s="2"/>
       <c r="R48" s="32"/>
     </row>
-    <row r="49" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:37">
       <c r="G49" s="31"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
+      <c r="L49" s="2"/>
       <c r="R49" s="32"/>
     </row>
-    <row r="50" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:37">
       <c r="G50" s="31"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
+      <c r="L50" t="s">
+        <v>256</v>
+      </c>
       <c r="R50" s="32"/>
     </row>
-    <row r="51" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:37">
       <c r="G51" s="33"/>
       <c r="H51" s="34"/>
       <c r="I51" s="34"/>
@@ -14338,20 +15036,12 @@
       <c r="Q51" s="34"/>
       <c r="R51" s="35"/>
     </row>
-    <row r="52" spans="3:37" x14ac:dyDescent="0.45">
-      <c r="Q52" s="43"/>
-      <c r="R52" s="43"/>
-    </row>
-    <row r="53" spans="3:37" x14ac:dyDescent="0.45">
-      <c r="Q53" s="43"/>
-      <c r="R53" s="43"/>
-    </row>
-    <row r="54" spans="3:37" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:37" s="5" customFormat="1">
       <c r="C54" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="57" spans="3:37" x14ac:dyDescent="0.45">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="57" spans="3:37">
       <c r="G57" s="28"/>
       <c r="H57" s="29"/>
       <c r="I57" s="29"/>
@@ -14377,147 +15067,49 @@
       <c r="AH57" s="29"/>
       <c r="AI57" s="30"/>
     </row>
-    <row r="58" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:37">
       <c r="G58" s="31"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="43"/>
-      <c r="M58" s="43"/>
-      <c r="N58" s="43"/>
-      <c r="O58" s="43"/>
-      <c r="P58" s="43"/>
-      <c r="Q58" s="43"/>
       <c r="R58" s="32"/>
       <c r="X58" s="31"/>
-      <c r="Y58" s="43"/>
-      <c r="Z58" s="43"/>
-      <c r="AA58" s="43"/>
-      <c r="AB58" s="43"/>
-      <c r="AC58" s="43"/>
-      <c r="AD58" s="43"/>
-      <c r="AE58" s="43"/>
-      <c r="AF58" s="43"/>
-      <c r="AG58" s="43"/>
-      <c r="AH58" s="43"/>
       <c r="AI58" s="32"/>
       <c r="AK58" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="59" spans="3:37" x14ac:dyDescent="0.45">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="3:37">
       <c r="G59" s="31"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="43"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="43"/>
-      <c r="Q59" s="43"/>
       <c r="R59" s="32"/>
       <c r="X59" s="31"/>
-      <c r="Y59" s="43"/>
-      <c r="Z59" s="43"/>
-      <c r="AA59" s="43"/>
-      <c r="AB59" s="43"/>
-      <c r="AC59" s="43"/>
-      <c r="AD59" s="43"/>
-      <c r="AE59" s="43"/>
-      <c r="AF59" s="43"/>
-      <c r="AG59" s="43"/>
-      <c r="AH59" s="43"/>
       <c r="AI59" s="32"/>
     </row>
-    <row r="60" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:37">
       <c r="G60" s="31"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="43"/>
-      <c r="M60" s="43"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="43"/>
-      <c r="P60" s="43"/>
-      <c r="Q60" s="43"/>
       <c r="R60" s="32"/>
       <c r="X60" s="31"/>
-      <c r="Y60" s="43"/>
-      <c r="Z60" s="43"/>
-      <c r="AA60" s="43"/>
-      <c r="AB60" s="43"/>
-      <c r="AC60" s="43"/>
-      <c r="AD60" s="43"/>
-      <c r="AE60" s="43"/>
-      <c r="AF60" s="43"/>
-      <c r="AG60" s="43"/>
-      <c r="AH60" s="43"/>
       <c r="AI60" s="32"/>
       <c r="AK60" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="61" spans="3:37" x14ac:dyDescent="0.45">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="3:37">
       <c r="G61" s="31"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="J61" s="43"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="43"/>
-      <c r="M61" s="45"/>
-      <c r="N61" s="43"/>
-      <c r="O61" s="43"/>
-      <c r="P61" s="45"/>
-      <c r="Q61" s="43"/>
+      <c r="I61" t="s">
+        <v>249</v>
+      </c>
       <c r="R61" s="32"/>
       <c r="X61" s="31"/>
-      <c r="Y61" s="43"/>
-      <c r="Z61" s="43"/>
-      <c r="AA61" s="43"/>
-      <c r="AB61" s="43"/>
-      <c r="AC61" s="43"/>
-      <c r="AD61" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE61" s="43"/>
-      <c r="AF61" s="43"/>
-      <c r="AG61" s="45"/>
-      <c r="AH61" s="43"/>
+      <c r="AD61" t="s">
+        <v>251</v>
+      </c>
       <c r="AI61" s="32"/>
     </row>
-    <row r="62" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="62" spans="3:37">
       <c r="G62" s="31"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="43"/>
-      <c r="M62" s="45"/>
-      <c r="N62" s="43"/>
-      <c r="O62" s="43"/>
-      <c r="P62" s="43"/>
-      <c r="Q62" s="43"/>
       <c r="R62" s="32"/>
       <c r="X62" s="31"/>
-      <c r="Y62" s="43"/>
-      <c r="Z62" s="43"/>
-      <c r="AA62" s="43"/>
-      <c r="AB62" s="43"/>
-      <c r="AC62" s="43"/>
-      <c r="AD62" s="45"/>
-      <c r="AE62" s="43"/>
-      <c r="AF62" s="43"/>
-      <c r="AG62" s="43"/>
-      <c r="AH62" s="43"/>
       <c r="AI62" s="32"/>
     </row>
-    <row r="63" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:37">
       <c r="G63" s="33"/>
       <c r="H63" s="34"/>
       <c r="I63" s="34"/>
@@ -14525,7 +15117,7 @@
       <c r="K63" s="34"/>
       <c r="L63" s="34"/>
       <c r="M63" s="34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N63" s="34"/>
       <c r="O63" s="34"/>
@@ -14545,88 +15137,12 @@
       <c r="AH63" s="34"/>
       <c r="AI63" s="35"/>
     </row>
-    <row r="64" spans="3:37" x14ac:dyDescent="0.45">
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
-      <c r="Q64" s="43"/>
-      <c r="R64" s="43"/>
-      <c r="X64" s="43"/>
-      <c r="Y64" s="43"/>
-      <c r="Z64" s="43"/>
-      <c r="AA64" s="43"/>
-      <c r="AB64" s="43"/>
-      <c r="AC64" s="43"/>
-      <c r="AD64" s="43"/>
-      <c r="AE64" s="43"/>
-      <c r="AF64" s="43"/>
-      <c r="AG64" s="43"/>
-      <c r="AH64" s="43"/>
-      <c r="AI64" s="43"/>
-    </row>
-    <row r="65" spans="3:37" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:37" s="5" customFormat="1">
       <c r="C65" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="50"/>
-      <c r="L65" s="50"/>
-      <c r="M65" s="50"/>
-      <c r="N65" s="50"/>
-      <c r="O65" s="50"/>
-      <c r="P65" s="50"/>
-      <c r="Q65" s="50"/>
-      <c r="R65" s="50"/>
-      <c r="X65" s="50"/>
-      <c r="Y65" s="50"/>
-      <c r="Z65" s="50"/>
-      <c r="AA65" s="50"/>
-      <c r="AB65" s="50"/>
-      <c r="AC65" s="50"/>
-      <c r="AD65" s="50"/>
-      <c r="AE65" s="50"/>
-      <c r="AF65" s="50"/>
-      <c r="AG65" s="50"/>
-      <c r="AH65" s="50"/>
-      <c r="AI65" s="50"/>
-    </row>
-    <row r="66" spans="3:37" x14ac:dyDescent="0.45">
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="43"/>
-      <c r="R66" s="43"/>
-      <c r="X66" s="43"/>
-      <c r="Y66" s="43"/>
-      <c r="Z66" s="43"/>
-      <c r="AA66" s="43"/>
-      <c r="AB66" s="43"/>
-      <c r="AC66" s="43"/>
-      <c r="AD66" s="43"/>
-      <c r="AE66" s="43"/>
-      <c r="AF66" s="43"/>
-      <c r="AG66" s="43"/>
-      <c r="AH66" s="43"/>
-      <c r="AI66" s="43"/>
-    </row>
-    <row r="67" spans="3:37" x14ac:dyDescent="0.45">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67" spans="3:37">
       <c r="G67" s="28"/>
       <c r="H67" s="29"/>
       <c r="I67" s="29"/>
@@ -14652,149 +15168,52 @@
       <c r="AH67" s="29"/>
       <c r="AI67" s="30"/>
     </row>
-    <row r="68" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="68" spans="3:37">
       <c r="G68" s="31"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="K68" s="43"/>
-      <c r="L68" s="43"/>
-      <c r="M68" s="43"/>
-      <c r="N68" s="43"/>
+      <c r="J68" t="s">
+        <v>249</v>
+      </c>
       <c r="O68" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="P68" s="43"/>
-      <c r="Q68" s="43"/>
+        <v>250</v>
+      </c>
       <c r="R68" s="32"/>
       <c r="X68" s="31"/>
-      <c r="Y68" s="43"/>
-      <c r="Z68" s="43"/>
-      <c r="AA68" s="43"/>
-      <c r="AB68" s="43"/>
-      <c r="AC68" s="43"/>
-      <c r="AD68" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE68" s="43"/>
-      <c r="AF68" s="43"/>
-      <c r="AG68" s="43"/>
-      <c r="AH68" s="43"/>
+      <c r="AD68" t="s">
+        <v>251</v>
+      </c>
       <c r="AI68" s="32"/>
       <c r="AK68" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="69" spans="3:37" x14ac:dyDescent="0.45">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69" spans="3:37">
       <c r="G69" s="31"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
-      <c r="L69" s="43"/>
-      <c r="M69" s="43"/>
-      <c r="N69" s="43"/>
-      <c r="O69" s="43"/>
-      <c r="P69" s="43"/>
-      <c r="Q69" s="43"/>
       <c r="R69" s="32"/>
       <c r="X69" s="31"/>
-      <c r="Y69" s="43"/>
-      <c r="Z69" s="43"/>
-      <c r="AA69" s="43"/>
-      <c r="AB69" s="43"/>
-      <c r="AC69" s="43"/>
-      <c r="AD69" s="43"/>
-      <c r="AE69" s="43"/>
-      <c r="AF69" s="43"/>
-      <c r="AG69" s="43"/>
-      <c r="AH69" s="43"/>
       <c r="AI69" s="32"/>
       <c r="AK69" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="70" spans="3:37" x14ac:dyDescent="0.45">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="3:37">
       <c r="G70" s="31"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="43"/>
-      <c r="K70" s="43"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="43"/>
-      <c r="O70" s="43"/>
-      <c r="P70" s="43"/>
-      <c r="Q70" s="43"/>
       <c r="R70" s="32"/>
       <c r="X70" s="31"/>
-      <c r="Y70" s="43"/>
-      <c r="Z70" s="43"/>
-      <c r="AA70" s="43"/>
-      <c r="AB70" s="43"/>
-      <c r="AC70" s="43"/>
-      <c r="AD70" s="43"/>
-      <c r="AE70" s="43"/>
-      <c r="AF70" s="43"/>
-      <c r="AG70" s="43"/>
-      <c r="AH70" s="43"/>
       <c r="AI70" s="32"/>
     </row>
-    <row r="71" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="71" spans="3:37">
       <c r="G71" s="31"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="45"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="43"/>
-      <c r="P71" s="45"/>
-      <c r="Q71" s="43"/>
       <c r="R71" s="32"/>
       <c r="X71" s="31"/>
-      <c r="Y71" s="43"/>
-      <c r="Z71" s="43"/>
-      <c r="AA71" s="43"/>
-      <c r="AB71" s="43"/>
-      <c r="AC71" s="43"/>
-      <c r="AD71" s="43"/>
-      <c r="AE71" s="43"/>
-      <c r="AF71" s="43"/>
-      <c r="AG71" s="45"/>
-      <c r="AH71" s="43"/>
       <c r="AI71" s="32"/>
     </row>
-    <row r="72" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="72" spans="3:37">
       <c r="G72" s="31"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="43"/>
-      <c r="O72" s="43"/>
-      <c r="P72" s="43"/>
-      <c r="Q72" s="43"/>
       <c r="R72" s="32"/>
       <c r="X72" s="31"/>
-      <c r="Y72" s="43"/>
-      <c r="Z72" s="43"/>
-      <c r="AA72" s="43"/>
-      <c r="AB72" s="43"/>
-      <c r="AC72" s="43"/>
-      <c r="AD72" s="45"/>
-      <c r="AE72" s="43"/>
-      <c r="AF72" s="43"/>
-      <c r="AG72" s="43"/>
-      <c r="AH72" s="43"/>
       <c r="AI72" s="32"/>
     </row>
-    <row r="73" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="73" spans="3:37">
       <c r="G73" s="33"/>
       <c r="H73" s="34"/>
       <c r="I73" s="34"/>
@@ -14820,33 +15239,7 @@
       <c r="AH73" s="34"/>
       <c r="AI73" s="35"/>
     </row>
-    <row r="74" spans="3:37" x14ac:dyDescent="0.45">
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="43"/>
-      <c r="O74" s="43"/>
-      <c r="P74" s="43"/>
-      <c r="Q74" s="43"/>
-      <c r="R74" s="43"/>
-      <c r="X74" s="43"/>
-      <c r="Y74" s="43"/>
-      <c r="Z74" s="43"/>
-      <c r="AA74" s="43"/>
-      <c r="AB74" s="43"/>
-      <c r="AC74" s="43"/>
-      <c r="AD74" s="43"/>
-      <c r="AE74" s="43"/>
-      <c r="AF74" s="43"/>
-      <c r="AG74" s="43"/>
-      <c r="AH74" s="43"/>
-      <c r="AI74" s="43"/>
-    </row>
-    <row r="76" spans="3:37" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="3:37" s="3" customFormat="1">
       <c r="C76" s="8" t="s">
         <v>18</v>
       </c>
@@ -14864,23 +15257,23 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="3" customFormat="1">
       <c r="A1" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" s="5" customFormat="1">
       <c r="A3"/>
       <c r="C3" s="5" t="s">
         <v>5</v>
@@ -14889,35 +15282,102 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15">
       <c r="C5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15">
       <c r="C6" t="s">
+        <v>286</v>
+      </c>
+      <c r="O6" t="s">
         <v>195</v>
       </c>
-      <c r="O6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:15">
       <c r="C7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" s="5" customFormat="1">
       <c r="C9" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" s="5" customFormat="1">
       <c r="C11" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" s="5" customFormat="1">
+      <c r="C17" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="31"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="32"/>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="31"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="32"/>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="31"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="31"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="32"/>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="32" spans="3:9" s="3" customFormat="1">
       <c r="C32" s="8" t="s">
         <v>18</v>
       </c>
@@ -14925,31 +15385,33 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D571275-5090-4132-914D-6B73F7259A80}">
-  <dimension ref="A1:AP82"/>
+  <dimension ref="A1:AP167"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T161" sqref="T161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="3" customFormat="1">
       <c r="A1" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" s="5" customFormat="1">
       <c r="A3"/>
       <c r="C3" s="5" t="s">
         <v>5</v>
@@ -14958,83 +15420,83 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7">
       <c r="C5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="D6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="D7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7">
       <c r="C11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="D13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7">
       <c r="D14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7">
       <c r="D15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:42">
       <c r="D17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:42">
       <c r="C19" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.45">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42">
       <c r="D20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.45">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42">
       <c r="D21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:42" s="5" customFormat="1">
       <c r="A24"/>
       <c r="C24" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.45">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42">
       <c r="A25" s="21">
         <v>45618</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:42">
       <c r="F26" t="s">
         <v>0</v>
       </c>
@@ -15051,17 +15513,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:42">
       <c r="P28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42">
+      <c r="P29" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="P29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:42">
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
@@ -15091,40 +15553,40 @@
       <c r="AO31" s="36"/>
       <c r="AP31" s="36"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:42">
       <c r="D32" s="36"/>
       <c r="G32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q32" s="36"/>
       <c r="AC32" s="36"/>
       <c r="AF32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP32" s="36"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:42">
       <c r="D33" s="36"/>
       <c r="Q33" s="36"/>
       <c r="T33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AC33" s="36"/>
       <c r="AP33" s="36"/>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:42">
       <c r="D34" s="36"/>
       <c r="Q34" s="36"/>
       <c r="AC34" s="36"/>
       <c r="AP34" s="36"/>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:42">
       <c r="D35" s="36"/>
       <c r="Q35" s="9"/>
       <c r="AC35" s="9"/>
       <c r="AP35" s="36"/>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:42">
       <c r="D36" s="36"/>
       <c r="Q36" s="9" t="s">
         <v>185</v>
@@ -15134,7 +15596,7 @@
       </c>
       <c r="AP36" s="36"/>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:42">
       <c r="D37" s="36"/>
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
@@ -15164,221 +15626,525 @@
       <c r="AO37" s="36"/>
       <c r="AP37" s="36"/>
     </row>
-    <row r="40" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:42" s="5" customFormat="1">
       <c r="A40"/>
       <c r="C40" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42">
+      <c r="D42" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="D42" t="s">
+    <row r="43" spans="1:42">
+      <c r="E43" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="E43" t="s">
+    <row r="44" spans="1:42">
+      <c r="E44" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="E44" t="s">
+    <row r="45" spans="1:42">
+      <c r="E45" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="E45" t="s">
+    <row r="46" spans="1:42">
+      <c r="E46" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="E46" t="s">
+    <row r="47" spans="1:42">
+      <c r="E47" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="E47" t="s">
+    <row r="48" spans="1:42">
+      <c r="D48" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="D48" t="s">
+    <row r="50" spans="3:42">
+      <c r="D50" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="D50" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A52"/>
+    <row r="52" spans="3:42" s="5" customFormat="1">
       <c r="C52" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" spans="3:42">
+      <c r="D54" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="55" spans="3:42">
+      <c r="D55" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="56" spans="3:42">
+      <c r="D56" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="59" spans="3:42">
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="45"/>
+      <c r="P59" s="45"/>
+      <c r="Q59" s="45"/>
+      <c r="R59" s="45"/>
+      <c r="S59" s="45"/>
+      <c r="T59" s="45"/>
+      <c r="U59" s="45"/>
+      <c r="V59" s="45"/>
+      <c r="W59" s="45"/>
+      <c r="X59" s="45"/>
+      <c r="Y59" s="45"/>
+      <c r="Z59" s="45"/>
+      <c r="AA59" s="45"/>
+      <c r="AB59" s="45"/>
+      <c r="AC59" s="45"/>
+      <c r="AD59" s="45"/>
+      <c r="AE59" s="45"/>
+      <c r="AF59" s="45"/>
+      <c r="AG59" s="45"/>
+      <c r="AH59" s="45"/>
+      <c r="AI59" s="45"/>
+      <c r="AJ59" s="45"/>
+      <c r="AK59" s="45"/>
+      <c r="AL59" s="45"/>
+      <c r="AM59" s="45"/>
+      <c r="AN59" s="45"/>
+      <c r="AO59" s="45"/>
+      <c r="AP59" s="45"/>
+    </row>
+    <row r="60" spans="3:42">
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="45"/>
+      <c r="N60" s="45"/>
+      <c r="O60" s="45"/>
+      <c r="P60" s="45"/>
+      <c r="Q60" s="45"/>
+      <c r="R60" s="45"/>
+      <c r="S60" s="45"/>
+      <c r="T60" s="45"/>
+      <c r="U60" s="45"/>
+      <c r="V60" s="45"/>
+      <c r="W60" s="45"/>
+      <c r="X60" s="45"/>
+      <c r="Y60" s="45"/>
+      <c r="Z60" s="45"/>
+      <c r="AA60" s="45"/>
+      <c r="AB60" s="45"/>
+      <c r="AC60" s="45"/>
+      <c r="AD60" s="45"/>
+      <c r="AE60" s="45"/>
+      <c r="AF60" s="45"/>
+      <c r="AG60" s="45"/>
+      <c r="AH60" s="45"/>
+      <c r="AI60" s="45"/>
+      <c r="AJ60" s="45"/>
+      <c r="AK60" s="45"/>
+      <c r="AL60" s="45"/>
+      <c r="AM60" s="45"/>
+      <c r="AN60" s="45"/>
+      <c r="AO60" s="45"/>
+      <c r="AP60" s="45"/>
+    </row>
+    <row r="61" spans="3:42">
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="45"/>
+      <c r="O61" s="45"/>
+      <c r="P61" s="45"/>
+      <c r="Q61" s="45"/>
+      <c r="R61" s="45"/>
+      <c r="S61" s="45"/>
+      <c r="T61" s="45"/>
+      <c r="U61" s="45"/>
+      <c r="V61" s="45"/>
+      <c r="W61" s="45"/>
+      <c r="X61" s="45"/>
+      <c r="Y61" s="45"/>
+      <c r="Z61" s="45"/>
+      <c r="AA61" s="45"/>
+      <c r="AB61" s="45"/>
+      <c r="AC61" s="45"/>
+      <c r="AD61" s="45"/>
+      <c r="AE61" s="45"/>
+      <c r="AF61" s="45"/>
+      <c r="AG61" s="45"/>
+      <c r="AH61" s="45"/>
+      <c r="AI61" s="45"/>
+      <c r="AJ61" s="45"/>
+      <c r="AK61" s="45"/>
+      <c r="AL61" s="45"/>
+      <c r="AM61" s="45"/>
+      <c r="AN61" s="45"/>
+      <c r="AO61" s="45"/>
+      <c r="AP61" s="45"/>
+    </row>
+    <row r="62" spans="3:42">
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="45"/>
+      <c r="L62" s="45"/>
+      <c r="M62" s="45"/>
+      <c r="N62" s="45"/>
+      <c r="O62" s="45"/>
+      <c r="P62" s="45"/>
+      <c r="Q62" s="45"/>
+      <c r="R62" s="45"/>
+      <c r="S62" s="45"/>
+      <c r="T62" s="45"/>
+      <c r="U62" s="45"/>
+      <c r="V62" s="45"/>
+      <c r="W62" s="45"/>
+      <c r="X62" s="45"/>
+      <c r="Y62" s="45"/>
+      <c r="Z62" s="45"/>
+      <c r="AA62" s="45"/>
+      <c r="AB62" s="45"/>
+      <c r="AC62" s="45"/>
+      <c r="AD62" s="45"/>
+      <c r="AE62" s="45"/>
+      <c r="AF62" s="45"/>
+      <c r="AG62" s="45"/>
+      <c r="AH62" s="45"/>
+      <c r="AI62" s="45"/>
+      <c r="AJ62" s="45"/>
+      <c r="AK62" s="45"/>
+      <c r="AL62" s="45"/>
+      <c r="AM62" s="45"/>
+      <c r="AN62" s="45"/>
+      <c r="AO62" s="45"/>
+      <c r="AP62" s="45"/>
+    </row>
+    <row r="63" spans="3:42">
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="K63" s="45"/>
+      <c r="L63" s="45"/>
+      <c r="M63" s="45"/>
+      <c r="N63" s="45"/>
+      <c r="O63" s="45"/>
+      <c r="P63" s="45"/>
+      <c r="Q63" s="45"/>
+      <c r="R63" s="45"/>
+      <c r="S63" s="45"/>
+      <c r="T63" s="45"/>
+      <c r="U63" s="45"/>
+      <c r="V63" s="45"/>
+      <c r="W63" s="45"/>
+      <c r="X63" s="45"/>
+      <c r="Y63" s="45"/>
+      <c r="Z63" s="45"/>
+      <c r="AA63" s="45"/>
+      <c r="AB63" s="45"/>
+      <c r="AC63" s="45"/>
+      <c r="AD63" s="45"/>
+      <c r="AE63" s="45"/>
+      <c r="AF63" s="45"/>
+      <c r="AG63" s="45"/>
+      <c r="AH63" s="45"/>
+      <c r="AI63" s="45"/>
+      <c r="AJ63" s="45"/>
+      <c r="AK63" s="45"/>
+      <c r="AL63" s="45"/>
+      <c r="AM63" s="45"/>
+      <c r="AN63" s="45"/>
+      <c r="AO63" s="45"/>
+      <c r="AP63" s="45"/>
+    </row>
+    <row r="64" spans="3:42">
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="45"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="45"/>
+      <c r="N64" s="45"/>
+      <c r="O64" s="45"/>
+      <c r="P64" s="45"/>
+      <c r="Q64" s="45"/>
+      <c r="R64" s="45"/>
+      <c r="S64" s="45"/>
+      <c r="T64" s="45"/>
+      <c r="U64" s="45"/>
+      <c r="V64" s="45"/>
+      <c r="W64" s="45"/>
+      <c r="X64" s="45"/>
+      <c r="Y64" s="45"/>
+      <c r="Z64" s="45"/>
+      <c r="AA64" s="45"/>
+      <c r="AB64" s="45"/>
+      <c r="AC64" s="45"/>
+      <c r="AD64" s="45"/>
+      <c r="AE64" s="45"/>
+      <c r="AF64" s="45"/>
+      <c r="AG64" s="45"/>
+      <c r="AH64" s="45"/>
+      <c r="AI64" s="45"/>
+      <c r="AJ64" s="45"/>
+      <c r="AK64" s="45"/>
+      <c r="AL64" s="45"/>
+      <c r="AM64" s="45"/>
+      <c r="AN64" s="45"/>
+      <c r="AO64" s="45"/>
+      <c r="AP64" s="45"/>
+    </row>
+    <row r="65" spans="4:42">
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
+      <c r="L65" s="45"/>
+      <c r="M65" s="45"/>
+      <c r="N65" s="45"/>
+      <c r="O65" s="45"/>
+      <c r="P65" s="45"/>
+      <c r="Q65" s="45"/>
+      <c r="R65" s="45"/>
+      <c r="S65" s="45"/>
+      <c r="T65" s="45"/>
+      <c r="U65" s="45"/>
+      <c r="V65" s="45"/>
+      <c r="W65" s="45"/>
+      <c r="X65" s="45"/>
+      <c r="Y65" s="45"/>
+      <c r="Z65" s="45"/>
+      <c r="AA65" s="45"/>
+      <c r="AB65" s="45"/>
+      <c r="AC65" s="45"/>
+      <c r="AD65" s="45"/>
+      <c r="AE65" s="45"/>
+      <c r="AF65" s="45"/>
+      <c r="AG65" s="45"/>
+      <c r="AH65" s="45"/>
+      <c r="AI65" s="45"/>
+      <c r="AJ65" s="45"/>
+      <c r="AK65" s="45"/>
+      <c r="AL65" s="45"/>
+      <c r="AM65" s="45"/>
+      <c r="AN65" s="45"/>
+      <c r="AO65" s="45"/>
+      <c r="AP65" s="45"/>
+    </row>
+    <row r="97" spans="3:3" s="5" customFormat="1">
+      <c r="C97" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" s="5" customFormat="1">
+      <c r="A123"/>
+      <c r="C123" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" s="5" customFormat="1">
+      <c r="A126"/>
+      <c r="C126" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22">
+      <c r="D128" t="s">
+        <v>244</v>
+      </c>
+      <c r="V128" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21">
+      <c r="D130" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="E130" s="39"/>
+      <c r="F130" s="39"/>
+      <c r="G130" s="39"/>
+      <c r="H130" s="40"/>
+      <c r="I130" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="J130" s="40"/>
+    </row>
+    <row r="131" spans="1:21">
+      <c r="D131" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="H131" s="32"/>
+      <c r="I131" s="31"/>
+      <c r="J131" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21">
+      <c r="D132" s="31" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A55"/>
-      <c r="C55" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="D57" t="s">
-        <v>245</v>
-      </c>
-      <c r="V57" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="D59" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="J59" s="40"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="D60" s="31" t="s">
+      <c r="H132" s="32"/>
+      <c r="I132" s="31"/>
+      <c r="J132" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21">
+      <c r="D133" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="H133" s="32"/>
+      <c r="I133" s="31"/>
+      <c r="J133" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21">
+      <c r="D134" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="D61" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="D62" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="D63" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="D64" s="33" t="s">
+      <c r="H134" s="32"/>
+      <c r="I134" s="31"/>
+      <c r="J134" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21">
+      <c r="D135" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="H135" s="32"/>
+      <c r="I135" s="31"/>
+      <c r="J135" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21">
+      <c r="D136" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A67"/>
-      <c r="C67" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="D69" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="F71" s="28"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="30"/>
-      <c r="O71" s="28"/>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="29"/>
-      <c r="R71" s="29"/>
-      <c r="S71" s="29"/>
-      <c r="T71" s="29"/>
-      <c r="U71" s="30"/>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="F72" s="31"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="52"/>
-      <c r="L72" s="32"/>
-      <c r="O72" s="31"/>
-      <c r="P72" s="43"/>
-      <c r="Q72" s="43"/>
-      <c r="R72" s="52"/>
-      <c r="S72" s="43"/>
-      <c r="T72" s="45"/>
-      <c r="U72" s="32"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="F73" s="33"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="34"/>
-      <c r="L73" s="35"/>
-      <c r="O73" s="33"/>
-      <c r="P73" s="34"/>
-      <c r="Q73" s="34"/>
-      <c r="R73" s="34"/>
-      <c r="S73" s="34"/>
-      <c r="T73" s="34"/>
-      <c r="U73" s="35"/>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="P75" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="E79" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C82" s="8" t="s">
+      <c r="E136" s="34"/>
+      <c r="F136" s="34"/>
+      <c r="G136" s="34"/>
+      <c r="H136" s="35"/>
+      <c r="I136" s="33"/>
+      <c r="J136" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" s="5" customFormat="1">
+      <c r="A139"/>
+      <c r="C139" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21">
+      <c r="D141" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21">
+      <c r="F143" s="28"/>
+      <c r="G143" s="29"/>
+      <c r="H143" s="29"/>
+      <c r="I143" s="29"/>
+      <c r="J143" s="29"/>
+      <c r="K143" s="29"/>
+      <c r="L143" s="30"/>
+      <c r="O143" s="28"/>
+      <c r="P143" s="29"/>
+      <c r="Q143" s="29"/>
+      <c r="R143" s="29"/>
+      <c r="S143" s="29"/>
+      <c r="T143" s="29"/>
+      <c r="U143" s="30"/>
+    </row>
+    <row r="144" spans="1:21">
+      <c r="F144" s="31"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="32"/>
+      <c r="O144" s="31"/>
+      <c r="R144" s="6"/>
+      <c r="U144" s="32"/>
+    </row>
+    <row r="145" spans="3:21">
+      <c r="F145" s="33"/>
+      <c r="G145" s="34"/>
+      <c r="H145" s="34"/>
+      <c r="I145" s="34"/>
+      <c r="J145" s="34"/>
+      <c r="K145" s="34"/>
+      <c r="L145" s="35"/>
+      <c r="O145" s="33"/>
+      <c r="P145" s="34"/>
+      <c r="Q145" s="34"/>
+      <c r="R145" s="34"/>
+      <c r="S145" s="34"/>
+      <c r="T145" s="34"/>
+      <c r="U145" s="35"/>
+    </row>
+    <row r="147" spans="3:21">
+      <c r="P147" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="151" spans="3:21" s="5" customFormat="1">
+      <c r="C151" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" s="3" customFormat="1">
+      <c r="C167" s="8" t="s">
         <v>18</v>
       </c>
     </row>

--- a/ゲーム制作資料/全体概要.xlsx
+++ b/ゲーム制作資料/全体概要.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲーム制作資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\buster-shooter\ゲーム制作資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9812E4FA-DADE-4609-B37E-94E808690BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C70201D-13B3-453E-81AC-20D9459663E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{92B53D5B-1DF6-4B5A-BEE7-EE8E3CAF1BDF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{92B53D5B-1DF6-4B5A-BEE7-EE8E3CAF1BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="全体概要" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="215">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -1667,6 +1667,40 @@
   </si>
   <si>
     <t>[Gravity = 0.1くらい]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右クリックで発射→</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連射が出来るようにしたい</t>
+    <rPh sb="0" eb="2">
+      <t>レンシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反転</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①当たった</t>
+    <rPh sb="1" eb="2">
+      <t>ア</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1945,7 +1979,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2058,6 +2092,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3434,6 +3471,265 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="楕円 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6957333-8DF4-47C2-82B6-C86FBF177918}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="1371600"/>
+          <a:ext cx="220980" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>217171</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2692082A-5BE3-45A8-B7D9-8BE33EC5AB08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674371" y="14409420"/>
+          <a:ext cx="240029" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>24765</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矢印: 右 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A5AB81C-2858-4898-B570-624830DB80A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="939165" y="14462761"/>
+          <a:ext cx="440055" cy="129539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="楕円 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95F74E8-4969-4DFB-AF26-73D61AD580B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1394460" y="14424660"/>
+          <a:ext cx="198120" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3809,23 +4105,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>24765</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>60961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="楕円 8">
+        <xdr:cNvPr id="10" name="矢印: 右 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C043B7B0-02A3-4BBA-917D-67699EF565A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99955A6D-428B-428F-8F8C-E05964BC7080}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3833,8 +4129,262 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2514600" y="11887200"/>
-          <a:ext cx="220980" cy="220980"/>
+          <a:off x="2539365" y="14462761"/>
+          <a:ext cx="440055" cy="129539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="楕円 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E13B022-95E2-4E1F-A12E-DBDEA1332CF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1394460" y="11910060"/>
+          <a:ext cx="198120" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矢印: 右 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7731C06E-3CF0-4FC0-B580-BB3CB2DF2410}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3322320" y="11734800"/>
+          <a:ext cx="807720" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>24765</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矢印: 右 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6764388-AC13-4FC2-80BC-4087DF014873}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1624965" y="11948161"/>
+          <a:ext cx="440055" cy="129539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="楕円 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C62089FD-3992-43CF-84F8-F593F0EEEFF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1394460" y="11910060"/>
+          <a:ext cx="198120" cy="205740"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4744,7 +5294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4D0ED0-B69C-4CAA-AFF8-543222FDECD6}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5095,7 +5645,7 @@
   <dimension ref="A1:BK91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA7" sqref="X7:AA7"/>
+      <selection activeCell="AB7" sqref="Y7:AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5909,10 +6459,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7169685A-C1C9-4D2B-8F76-05C9115260E0}">
-  <dimension ref="B1:AP63"/>
+  <dimension ref="B1:AP69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V54" sqref="V54"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63:N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6036,6 +6586,9 @@
     <row r="38" spans="2:35" x14ac:dyDescent="0.45">
       <c r="F38" t="s">
         <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="2:35" x14ac:dyDescent="0.45">
@@ -6256,8 +6809,90 @@
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="8" t="s">
+    <row r="61" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="S61" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="C62" s="29"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="31"/>
+    </row>
+    <row r="63" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="C63" s="32"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="34"/>
+    </row>
+    <row r="64" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="C64" s="32"/>
+      <c r="D64" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="34"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C65" s="32"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="34"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C66" s="35"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="37"/>
+    </row>
+    <row r="69" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6271,10 +6906,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C74346-497D-4924-9B58-2A138F54FEAD}">
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="AB32" sqref="AB32"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="AH53" sqref="AH53:AI53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6388,6 +7023,9 @@
       <c r="I37" t="s">
         <v>58</v>
       </c>
+      <c r="J37" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
@@ -6409,6 +7047,9 @@
       </c>
       <c r="I44" t="s">
         <v>58</v>
+      </c>
+      <c r="J44" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
@@ -6426,13 +7067,127 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="49" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="7"/>
       <c r="B49" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="D51" s="29"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="31"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="30"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="30"/>
+      <c r="AA51" s="30"/>
+      <c r="AB51" s="30"/>
+      <c r="AC51" s="31"/>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="D52" s="32"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="34"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="33"/>
+      <c r="V52" s="33"/>
+      <c r="W52" s="33"/>
+      <c r="X52" s="33"/>
+      <c r="Y52" s="33"/>
+      <c r="Z52" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA52" s="33"/>
+      <c r="AB52" s="33"/>
+      <c r="AC52" s="34"/>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="D53" s="32"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="34"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="33"/>
+      <c r="V53" s="33"/>
+      <c r="W53" s="33"/>
+      <c r="X53" s="33"/>
+      <c r="Y53" s="33"/>
+      <c r="Z53" s="38"/>
+      <c r="AA53" s="33"/>
+      <c r="AB53" s="33"/>
+      <c r="AC53" s="34"/>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="D54" s="32"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="34"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="33"/>
+      <c r="V54" s="33"/>
+      <c r="W54" s="33"/>
+      <c r="X54" s="33"/>
+      <c r="Y54" s="33"/>
+      <c r="Z54" s="33"/>
+      <c r="AA54" s="33"/>
+      <c r="AB54" s="33"/>
+      <c r="AC54" s="34"/>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="D55" s="35"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="37"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="36"/>
+      <c r="V55" s="36"/>
+      <c r="W55" s="36"/>
+      <c r="X55" s="36"/>
+      <c r="Y55" s="36"/>
+      <c r="Z55" s="36"/>
+      <c r="AA55" s="36"/>
+      <c r="AB55" s="36"/>
+      <c r="AC55" s="37"/>
+    </row>
+    <row r="58" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B58" s="8" t="s">
         <v>19</v>
       </c>

--- a/ゲーム制作資料/全体概要.xlsx
+++ b/ゲーム制作資料/全体概要.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲーム制作資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDC6D4F-2476-497F-BCA1-EE7DA9328892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A12122-1E80-4CF1-9570-CF0350C59B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="7" xr2:uid="{92B53D5B-1DF6-4B5A-BEE7-EE8E3CAF1BDF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{92B53D5B-1DF6-4B5A-BEE7-EE8E3CAF1BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="全体概要" sheetId="6" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="312">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -1631,20 +1631,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>表示名：　[BUSTOR　SHOOTER]</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表示名：　[PUSH TO SPACE]</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[]は後から変更できるようにしてください</t>
     <rPh sb="3" eb="4">
       <t>アト</t>
@@ -2415,6 +2401,88 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウスの左クリックで左に、右クリックで右にボールを発射してください</t>
+    <rPh sb="4" eb="5">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボールの速度は、[2]に設定してください</t>
+    <rPh sb="4" eb="6">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[]は、後から変更できるようにしてください</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正：消える→透明になって消えていく　でお願いします</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示は画像を使用します</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示名：　BUSTOR　SHOOTER</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示名：　PUSH SPACE</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2708,7 +2776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2860,6 +2928,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4902,13 +4976,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4962,13 +5036,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5022,13 +5096,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5641,13 +5715,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5701,13 +5775,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>81915</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5764,13 +5838,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5832,13 +5906,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5900,13 +5974,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5968,13 +6042,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6036,13 +6110,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6104,13 +6178,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6172,13 +6246,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14044,12 +14118,12 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.45">
@@ -14093,8 +14167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D571275-5090-4132-914D-6B73F7259A80}">
   <dimension ref="A1:BA167"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P133" sqref="P133"/>
+    <sheetView topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q164" sqref="Q164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -14105,7 +14179,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>157</v>
@@ -14122,7 +14196,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -14132,17 +14206,17 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -14157,12 +14231,12 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.45">
@@ -14172,12 +14246,12 @@
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.45">
@@ -14214,7 +14288,7 @@
       </c>
       <c r="AE26" s="4"/>
       <c r="AG26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.45">
@@ -14333,102 +14407,102 @@
     <row r="40" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40"/>
       <c r="C40" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.45">
       <c r="D42" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.45">
       <c r="E43" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.45">
       <c r="E44" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.45">
       <c r="E45" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.45">
       <c r="E46" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.45">
       <c r="E47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.45">
       <c r="D48" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D50" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="3:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C52" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D54" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D55" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D56" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.45">
       <c r="J63" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C97" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="123" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A123"/>
       <c r="C123" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="126" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A126"/>
       <c r="C126" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.45">
       <c r="D128" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V128" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D130" s="41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E130" s="39"/>
       <c r="F130" s="39"/>
@@ -14437,7 +14511,7 @@
       <c r="I130" s="39"/>
       <c r="J130" s="40"/>
       <c r="K130" s="45" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L130" s="40"/>
     </row>
@@ -14452,7 +14526,7 @@
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D132" s="31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J132" s="32"/>
       <c r="L132" s="32">
@@ -14461,7 +14535,7 @@
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D133" s="31" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J133" s="32"/>
       <c r="L133" s="32">
@@ -14479,7 +14553,7 @@
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D135" s="31" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J135" s="32"/>
       <c r="L135" s="32">
@@ -14504,12 +14578,12 @@
     <row r="139" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A139"/>
       <c r="C139" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D141" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.45">
@@ -14554,12 +14628,12 @@
     </row>
     <row r="147" spans="3:53" x14ac:dyDescent="0.45">
       <c r="P147" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="151" spans="3:53" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C151" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="154" spans="3:53" x14ac:dyDescent="0.45">
@@ -14615,17 +14689,17 @@
       <c r="M156" s="32"/>
       <c r="R156" s="31"/>
       <c r="V156" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Z156" s="32"/>
       <c r="AE156" s="31"/>
       <c r="AI156" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AM156" s="32"/>
       <c r="AS156" s="31"/>
       <c r="AW156" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="BA156" s="32"/>
     </row>
@@ -14729,7 +14803,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -15162,7 +15236,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C10" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>111</v>
@@ -15174,10 +15248,10 @@
         <v>113</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
@@ -15194,7 +15268,7 @@
         <v>120</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>163</v>
@@ -15254,7 +15328,7 @@
         <v>124</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H14" s="20" t="s">
         <v>164</v>
@@ -15287,10 +15361,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>159</v>
@@ -15306,10 +15380,10 @@
         <v>6</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>160</v>
@@ -15404,7 +15478,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
@@ -15412,7 +15486,7 @@
         <v>157</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.45">
@@ -15442,10 +15516,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3B0319-5547-4637-BF71-73227FB167EA}">
-  <dimension ref="A1:AI63"/>
+  <dimension ref="A1:AI66"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -15455,7 +15529,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>55</v>
@@ -15802,115 +15876,77 @@
       <c r="AH32" s="37"/>
       <c r="AI32" s="37"/>
     </row>
-    <row r="34" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35"/>
       <c r="C35" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D37" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E40" t="s">
-        <v>208</v>
-      </c>
-      <c r="N40" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A43"/>
-      <c r="C43" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E42" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A44"/>
+      <c r="C44" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="D45" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D46" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A46" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="D46" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D47" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="E48" t="s">
-        <v>209</v>
-      </c>
-      <c r="N48" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A50"/>
-      <c r="C50" s="5" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="E49" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="E51" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A53"/>
+      <c r="C53" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="D52" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="D55" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="D53" t="s">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="D56" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="E58" s="37"/>
@@ -15954,13 +15990,56 @@
       <c r="O60" s="37"/>
       <c r="P60" s="37"/>
     </row>
-    <row r="63" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A63"/>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+    </row>
+    <row r="66" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A66"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15968,8 +16047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9432B6-34F2-4697-B3B8-316CF4241EDB}">
   <dimension ref="A1:EW91"/>
   <sheetViews>
-    <sheetView topLeftCell="AB14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BG44" sqref="BG44"/>
+    <sheetView topLeftCell="AH37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BL36" sqref="BL36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -15979,7 +16058,7 @@
   <sheetData>
     <row r="1" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>3</v>
@@ -16067,7 +16146,7 @@
       <c r="W9" s="2"/>
       <c r="Z9" s="4"/>
       <c r="AB9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AL9" t="s">
         <v>40</v>
@@ -16100,7 +16179,7 @@
       <c r="W11" s="9"/>
       <c r="Z11" s="11"/>
       <c r="AB11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.45">
@@ -16364,11 +16443,11 @@
       <c r="AY36" s="2"/>
       <c r="BF36" s="2"/>
       <c r="BG36" s="2"/>
-      <c r="BH36" s="2"/>
+      <c r="BH36" s="51"/>
       <c r="BI36" s="2"/>
       <c r="BJ36" s="2"/>
       <c r="BK36" s="2"/>
-      <c r="BL36" s="2"/>
+      <c r="BL36" s="51"/>
       <c r="BM36" s="2"/>
       <c r="BN36" s="2"/>
       <c r="BO36" s="2"/>
@@ -17232,10 +17311,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7169685A-C1C9-4D2B-8F76-05C9115260E0}">
-  <dimension ref="A1:AQ93"/>
+  <dimension ref="A1:AQ98"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -17245,7 +17324,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -17314,7 +17393,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -17544,17 +17623,17 @@
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E54" s="31"/>
       <c r="G54" t="s">
+        <v>224</v>
+      </c>
+      <c r="N54" t="s">
+        <v>225</v>
+      </c>
+      <c r="W54" t="s">
         <v>226</v>
-      </c>
-      <c r="N54" t="s">
-        <v>227</v>
-      </c>
-      <c r="W54" t="s">
-        <v>228</v>
       </c>
       <c r="Z54" s="32"/>
     </row>
@@ -17600,7 +17679,7 @@
       <c r="C61" t="s">
         <v>92</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="AC61" t="s">
         <v>102</v>
       </c>
     </row>
@@ -17619,22 +17698,22 @@
     <row r="64" spans="1:43" x14ac:dyDescent="0.45">
       <c r="G64" s="31"/>
       <c r="I64" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N64" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P64" s="32"/>
     </row>
-    <row r="65" spans="4:39" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:39" x14ac:dyDescent="0.45">
       <c r="G65" s="31"/>
       <c r="P65" s="32"/>
     </row>
-    <row r="66" spans="4:39" x14ac:dyDescent="0.45">
+    <row r="66" spans="3:39" x14ac:dyDescent="0.45">
       <c r="G66" s="31"/>
       <c r="P66" s="32"/>
     </row>
-    <row r="67" spans="4:39" x14ac:dyDescent="0.45">
+    <row r="67" spans="3:39" x14ac:dyDescent="0.45">
       <c r="G67" s="33"/>
       <c r="H67" s="34"/>
       <c r="I67" s="34"/>
@@ -17646,89 +17725,140 @@
       <c r="O67" s="34"/>
       <c r="P67" s="35"/>
     </row>
-    <row r="69" spans="4:39" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D69" s="5" t="s">
+    <row r="68" spans="3:39" x14ac:dyDescent="0.45">
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="47"/>
+      <c r="O68" s="47"/>
+      <c r="P68" s="47"/>
+    </row>
+    <row r="69" spans="3:39" x14ac:dyDescent="0.45">
+      <c r="C69" t="s">
+        <v>305</v>
+      </c>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="47"/>
+      <c r="P69" s="47"/>
+    </row>
+    <row r="70" spans="3:39" x14ac:dyDescent="0.45">
+      <c r="G70" s="47"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="47"/>
+      <c r="O70" s="47"/>
+      <c r="P70" s="47"/>
+    </row>
+    <row r="71" spans="3:39" x14ac:dyDescent="0.45">
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="47"/>
+    </row>
+    <row r="74" spans="3:39" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D74" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="77" spans="3:39" x14ac:dyDescent="0.45">
+      <c r="H77" s="28"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="29"/>
+      <c r="R77" s="29"/>
+      <c r="S77" s="29"/>
+      <c r="T77" s="30"/>
+      <c r="W77" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="78" spans="3:39" x14ac:dyDescent="0.45">
+      <c r="H78" s="31"/>
+      <c r="I78" t="s">
+        <v>251</v>
+      </c>
+      <c r="T78" s="32"/>
+      <c r="W78" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="72" spans="4:39" x14ac:dyDescent="0.45">
-      <c r="H72" s="28"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
-      <c r="M72" s="29"/>
-      <c r="N72" s="29"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="29"/>
-      <c r="R72" s="29"/>
-      <c r="S72" s="29"/>
-      <c r="T72" s="30"/>
-      <c r="W72" t="s">
+      <c r="AM78" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="3:39" x14ac:dyDescent="0.45">
+      <c r="H79" s="31"/>
+      <c r="T79" s="32"/>
+    </row>
+    <row r="80" spans="3:39" x14ac:dyDescent="0.45">
+      <c r="H80" s="31"/>
+      <c r="T80" s="32"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="H81" s="33"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="34"/>
+      <c r="M81" s="34"/>
+      <c r="N81" s="34"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34"/>
+      <c r="Q81" s="34"/>
+      <c r="R81" s="34"/>
+      <c r="S81" s="34"/>
+      <c r="T81" s="35"/>
+    </row>
+    <row r="91" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A91"/>
+      <c r="C91" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="C93" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="4:39" x14ac:dyDescent="0.45">
-      <c r="H73" s="31"/>
-      <c r="I73" t="s">
-        <v>253</v>
-      </c>
-      <c r="T73" s="32"/>
-      <c r="W73" t="s">
-        <v>256</v>
-      </c>
-      <c r="AM73" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="4:39" x14ac:dyDescent="0.45">
-      <c r="H74" s="31"/>
-      <c r="T74" s="32"/>
-    </row>
-    <row r="75" spans="4:39" x14ac:dyDescent="0.45">
-      <c r="H75" s="31"/>
-      <c r="T75" s="32"/>
-    </row>
-    <row r="76" spans="4:39" x14ac:dyDescent="0.45">
-      <c r="H76" s="33"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="34"/>
-      <c r="L76" s="34"/>
-      <c r="M76" s="34"/>
-      <c r="N76" s="34"/>
-      <c r="O76" s="34"/>
-      <c r="P76" s="34"/>
-      <c r="Q76" s="34"/>
-      <c r="R76" s="34"/>
-      <c r="S76" s="34"/>
-      <c r="T76" s="35"/>
-    </row>
-    <row r="86" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A86"/>
-      <c r="C86" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C88" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I90" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D91" t="s">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="I95" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="D96" t="s">
         <v>177</v>
       </c>
-      <c r="H91" s="2"/>
-    </row>
-    <row r="93" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C93" s="8" t="s">
+      <c r="H96" s="2"/>
+    </row>
+    <row r="98" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C98" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -17744,8 +17874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C74346-497D-4924-9B58-2A138F54FEAD}">
   <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD61"/>
+    <sheetView topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -17755,10 +17885,10 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -17804,7 +17934,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -17863,7 +17993,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="F37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I37" t="s">
         <v>48</v>
@@ -17885,7 +18015,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="F44" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I44" t="s">
         <v>48</v>
@@ -17909,7 +18039,7 @@
     <row r="49" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="7"/>
       <c r="B49" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.45">
@@ -17938,15 +18068,15 @@
     <row r="53" spans="1:30" x14ac:dyDescent="0.45">
       <c r="E53" s="31"/>
       <c r="G53" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K53" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O53" s="32"/>
       <c r="U53" s="31"/>
       <c r="AC53" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AD53" s="32"/>
     </row>
@@ -17989,12 +18119,32 @@
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.45">
       <c r="U58" t="s">
-        <v>304</v>
-      </c>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="F59" s="52" t="s">
+        <v>308</v>
+      </c>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="52"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
     </row>
     <row r="61" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B61" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -18012,10 +18162,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E3E2F9-98CE-43F4-9D73-FAE038CE3F86}">
-  <dimension ref="A1:AK77"/>
+  <dimension ref="A1:AK84"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:XFD75"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76:V76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -18025,10 +18175,10 @@
   <sheetData>
     <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -18096,7 +18246,7 @@
     </row>
     <row r="18" spans="1:28" s="43" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B18" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.45">
@@ -18106,13 +18256,13 @@
     </row>
     <row r="20" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C20" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="F22" s="11"/>
       <c r="H22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M22" s="2"/>
       <c r="O22" t="s">
@@ -18135,7 +18285,7 @@
     </row>
     <row r="31" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C31" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="3:24" x14ac:dyDescent="0.45">
@@ -18227,7 +18377,7 @@
     <row r="48" spans="3:24" x14ac:dyDescent="0.45">
       <c r="G48" s="31"/>
       <c r="H48" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L48" s="2"/>
       <c r="R48" s="32"/>
@@ -18240,7 +18390,7 @@
     <row r="50" spans="3:37" x14ac:dyDescent="0.45">
       <c r="G50" s="31"/>
       <c r="L50" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R50" s="32"/>
     </row>
@@ -18260,7 +18410,7 @@
     </row>
     <row r="54" spans="3:37" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C54" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="3:37" x14ac:dyDescent="0.45">
@@ -18295,7 +18445,7 @@
       <c r="X58" s="31"/>
       <c r="AI58" s="32"/>
       <c r="AK58" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="3:37" x14ac:dyDescent="0.45">
@@ -18310,18 +18460,18 @@
       <c r="X60" s="31"/>
       <c r="AI60" s="32"/>
       <c r="AK60" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="3:37" x14ac:dyDescent="0.45">
       <c r="G61" s="31"/>
       <c r="I61" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="R61" s="32"/>
       <c r="X61" s="31"/>
       <c r="AD61" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AI61" s="32"/>
     </row>
@@ -18339,7 +18489,7 @@
       <c r="K63" s="34"/>
       <c r="L63" s="34"/>
       <c r="M63" s="34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N63" s="34"/>
       <c r="O63" s="34"/>
@@ -18359,12 +18509,12 @@
       <c r="AH63" s="34"/>
       <c r="AI63" s="35"/>
     </row>
-    <row r="65" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:37" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C65" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="67" spans="2:37" x14ac:dyDescent="0.45">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="67" spans="3:37" x14ac:dyDescent="0.45">
       <c r="G67" s="28"/>
       <c r="H67" s="29"/>
       <c r="I67" s="29"/>
@@ -18390,52 +18540,52 @@
       <c r="AH67" s="29"/>
       <c r="AI67" s="30"/>
     </row>
-    <row r="68" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="68" spans="3:37" x14ac:dyDescent="0.45">
       <c r="G68" s="31"/>
       <c r="J68" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O68" s="34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="R68" s="32"/>
       <c r="X68" s="31"/>
       <c r="AD68" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AI68" s="32"/>
       <c r="AK68" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="69" spans="2:37" x14ac:dyDescent="0.45">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="3:37" x14ac:dyDescent="0.45">
       <c r="G69" s="31"/>
       <c r="R69" s="32"/>
       <c r="X69" s="31"/>
       <c r="AI69" s="32"/>
       <c r="AK69" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="70" spans="2:37" x14ac:dyDescent="0.45">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="3:37" x14ac:dyDescent="0.45">
       <c r="G70" s="31"/>
       <c r="R70" s="32"/>
       <c r="X70" s="31"/>
       <c r="AI70" s="32"/>
     </row>
-    <row r="71" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="71" spans="3:37" x14ac:dyDescent="0.45">
       <c r="G71" s="31"/>
       <c r="R71" s="32"/>
       <c r="X71" s="31"/>
       <c r="AI71" s="32"/>
     </row>
-    <row r="72" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="72" spans="3:37" x14ac:dyDescent="0.45">
       <c r="G72" s="31"/>
       <c r="R72" s="32"/>
       <c r="X72" s="31"/>
       <c r="AI72" s="32"/>
     </row>
-    <row r="73" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="73" spans="3:37" x14ac:dyDescent="0.45">
       <c r="G73" s="33"/>
       <c r="H73" s="34"/>
       <c r="I73" s="34"/>
@@ -18461,13 +18611,175 @@
       <c r="AH73" s="34"/>
       <c r="AI73" s="35"/>
     </row>
-    <row r="75" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="77" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C77" s="8" t="s">
+    <row r="74" spans="3:37" x14ac:dyDescent="0.45">
+      <c r="G74" s="47"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="47"/>
+      <c r="O74" s="47"/>
+      <c r="P74" s="47"/>
+      <c r="Q74" s="47"/>
+      <c r="R74" s="47"/>
+      <c r="X74" s="47"/>
+      <c r="Y74" s="47"/>
+      <c r="Z74" s="47"/>
+      <c r="AA74" s="47"/>
+      <c r="AB74" s="47"/>
+      <c r="AC74" s="47"/>
+      <c r="AD74" s="47"/>
+      <c r="AE74" s="47"/>
+      <c r="AF74" s="47"/>
+      <c r="AG74" s="47"/>
+      <c r="AH74" s="47"/>
+      <c r="AI74" s="47"/>
+    </row>
+    <row r="75" spans="3:37" x14ac:dyDescent="0.45">
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="47"/>
+      <c r="P75" s="47"/>
+      <c r="Q75" s="47"/>
+      <c r="R75" s="47"/>
+      <c r="X75" s="47"/>
+      <c r="Y75" s="47"/>
+      <c r="Z75" s="47"/>
+      <c r="AA75" s="47"/>
+      <c r="AB75" s="47"/>
+      <c r="AC75" s="47"/>
+      <c r="AD75" s="47"/>
+      <c r="AE75" s="47"/>
+      <c r="AF75" s="47"/>
+      <c r="AG75" s="47"/>
+      <c r="AH75" s="47"/>
+      <c r="AI75" s="47"/>
+    </row>
+    <row r="76" spans="3:37" x14ac:dyDescent="0.45">
+      <c r="G76" s="52" t="s">
+        <v>308</v>
+      </c>
+      <c r="H76" s="52"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="52"/>
+      <c r="K76" s="52"/>
+      <c r="L76" s="52"/>
+      <c r="M76" s="52"/>
+      <c r="N76" s="52"/>
+      <c r="O76" s="52"/>
+      <c r="P76" s="52"/>
+      <c r="Q76" s="52"/>
+      <c r="R76" s="52"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="X76" s="47"/>
+      <c r="Y76" s="47"/>
+      <c r="Z76" s="47"/>
+      <c r="AA76" s="47"/>
+      <c r="AB76" s="47"/>
+      <c r="AC76" s="47"/>
+      <c r="AD76" s="47"/>
+      <c r="AE76" s="47"/>
+      <c r="AF76" s="47"/>
+      <c r="AG76" s="47"/>
+      <c r="AH76" s="47"/>
+      <c r="AI76" s="47"/>
+    </row>
+    <row r="77" spans="3:37" x14ac:dyDescent="0.45">
+      <c r="G77" s="47"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="47"/>
+      <c r="O77" s="47"/>
+      <c r="P77" s="47"/>
+      <c r="Q77" s="47"/>
+      <c r="R77" s="47"/>
+      <c r="X77" s="47"/>
+      <c r="Y77" s="47"/>
+      <c r="Z77" s="47"/>
+      <c r="AA77" s="47"/>
+      <c r="AB77" s="47"/>
+      <c r="AC77" s="47"/>
+      <c r="AD77" s="47"/>
+      <c r="AE77" s="47"/>
+      <c r="AF77" s="47"/>
+      <c r="AG77" s="47"/>
+      <c r="AH77" s="47"/>
+      <c r="AI77" s="47"/>
+    </row>
+    <row r="78" spans="3:37" x14ac:dyDescent="0.45">
+      <c r="G78" s="47"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
+      <c r="N78" s="47"/>
+      <c r="O78" s="47"/>
+      <c r="P78" s="47"/>
+      <c r="Q78" s="47"/>
+      <c r="R78" s="47"/>
+      <c r="X78" s="47"/>
+      <c r="Y78" s="47"/>
+      <c r="Z78" s="47"/>
+      <c r="AA78" s="47"/>
+      <c r="AB78" s="47"/>
+      <c r="AC78" s="47"/>
+      <c r="AD78" s="47"/>
+      <c r="AE78" s="47"/>
+      <c r="AF78" s="47"/>
+      <c r="AG78" s="47"/>
+      <c r="AH78" s="47"/>
+      <c r="AI78" s="47"/>
+    </row>
+    <row r="79" spans="3:37" x14ac:dyDescent="0.45">
+      <c r="G79" s="47"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="47"/>
+      <c r="N79" s="47"/>
+      <c r="O79" s="47"/>
+      <c r="P79" s="47"/>
+      <c r="Q79" s="47"/>
+      <c r="R79" s="47"/>
+      <c r="X79" s="47"/>
+      <c r="Y79" s="47"/>
+      <c r="Z79" s="47"/>
+      <c r="AA79" s="47"/>
+      <c r="AB79" s="47"/>
+      <c r="AC79" s="47"/>
+      <c r="AD79" s="47"/>
+      <c r="AE79" s="47"/>
+      <c r="AF79" s="47"/>
+      <c r="AG79" s="47"/>
+      <c r="AH79" s="47"/>
+      <c r="AI79" s="47"/>
+    </row>
+    <row r="82" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C84" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -18483,8 +18795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4779348F-C110-484A-B833-41753E3F1C60}">
   <dimension ref="A1:BA74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N73" sqref="N73"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI42" sqref="AI42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -18494,10 +18806,10 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -18508,7 +18820,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -18522,7 +18834,7 @@
         <v>7</v>
       </c>
       <c r="N9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="R9" t="s">
         <v>181</v>
@@ -18535,12 +18847,12 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -18551,7 +18863,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.45">
@@ -18584,10 +18896,10 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.45">
       <c r="J28" t="s">
+        <v>289</v>
+      </c>
+      <c r="P28" t="s">
         <v>291</v>
-      </c>
-      <c r="P28" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.45">
@@ -18626,15 +18938,15 @@
     <row r="39" spans="1:30" x14ac:dyDescent="0.45">
       <c r="E39" s="31"/>
       <c r="G39" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K39" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O39" s="32"/>
       <c r="U39" s="31"/>
       <c r="AA39" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AD39" s="32"/>
     </row>
@@ -18677,12 +18989,32 @@
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.45">
       <c r="U44" t="s">
-        <v>241</v>
-      </c>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="G45" s="52" t="s">
+        <v>308</v>
+      </c>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="52"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
     </row>
     <row r="47" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B47" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="2:53" x14ac:dyDescent="0.45">
@@ -18711,7 +19043,7 @@
       <c r="D50" s="31"/>
       <c r="E50" s="47"/>
       <c r="F50" s="47" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G50" s="47"/>
       <c r="H50" s="47"/>
@@ -18725,7 +19057,7 @@
       <c r="U50" s="47"/>
       <c r="V50" s="47"/>
       <c r="W50" s="47" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="X50" s="47"/>
       <c r="Y50" s="32"/>
@@ -18803,7 +19135,7 @@
     </row>
     <row r="56" spans="2:53" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B56" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="58" spans="2:53" x14ac:dyDescent="0.45">
@@ -18924,7 +19256,7 @@
       <c r="AV60" s="47"/>
       <c r="AW60" s="47"/>
       <c r="AX60" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AY60" s="47"/>
       <c r="AZ60" s="47"/>
@@ -19136,12 +19468,12 @@
     </row>
     <row r="66" spans="2:53" x14ac:dyDescent="0.45">
       <c r="Z66" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="69" spans="2:53" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B69" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="2:53" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -19158,10 +19490,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B204F67B-52C7-459B-9EF2-0A83092E6FD3}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -19171,7 +19503,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>8</v>
@@ -19193,7 +19525,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O6" t="s">
         <v>186</v>
@@ -19211,7 +19543,7 @@
     </row>
     <row r="11" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C11" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
@@ -19222,12 +19554,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:24" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C17" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.45">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
@@ -19236,23 +19568,29 @@
       <c r="H19" s="29"/>
       <c r="I19" s="30"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C20" s="31"/>
       <c r="I20" s="32"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C21" s="31"/>
       <c r="I21" s="32"/>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="M21" t="s">
+        <v>306</v>
+      </c>
+      <c r="X21" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C22" s="31"/>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C23" s="31"/>
       <c r="I23" s="32"/>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C24" s="33"/>
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>
@@ -19261,7 +19599,7 @@
       <c r="H24" s="34"/>
       <c r="I24" s="35"/>
     </row>
-    <row r="32" spans="3:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:24" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C32" s="8" t="s">
         <v>17</v>
       </c>

--- a/ゲーム制作資料/全体概要.xlsx
+++ b/ゲーム制作資料/全体概要.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲーム制作資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A12122-1E80-4CF1-9570-CF0350C59B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CE1357-712E-413E-B094-65D36BA80C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{92B53D5B-1DF6-4B5A-BEE7-EE8E3CAF1BDF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{92B53D5B-1DF6-4B5A-BEE7-EE8E3CAF1BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="全体概要" sheetId="6" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="316">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -2363,13 +2363,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボールに当たったら、跳ねます</t>
-    <rPh sb="10" eb="11">
-      <t>ハ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボールに当たった時点で、判定も消してください</t>
     <rPh sb="4" eb="5">
       <t>ア</t>
@@ -2441,25 +2434,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>修正：消える→透明になって消えていく　でお願いします</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウメイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表示は画像を使用します</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジ</t>
@@ -2483,6 +2457,81 @@
     <t>表示名：　PUSH SPACE</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボールに当たったら、消えます</t>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正：消える→やられ画像を0.5秒表示して消える　でお願いします</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５回当たったら、消してください</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４回当たったら、消してください</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１回当たったら、消してください</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2495,7 +2544,7 @@
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2529,6 +2578,23 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -2776,7 +2842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2918,22 +2984,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6688,13 +6748,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6756,13 +6816,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>207645</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6819,13 +6879,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6887,13 +6947,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>207645</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6950,13 +7010,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15518,7 +15578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3B0319-5547-4637-BF71-73227FB167EA}">
   <dimension ref="A1:AI66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
@@ -15895,12 +15955,12 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E40" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E42" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -15924,12 +15984,12 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="E49" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="E51" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -16045,10 +16105,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9432B6-34F2-4697-B3B8-316CF4241EDB}">
-  <dimension ref="A1:EW91"/>
+  <dimension ref="A1:EZ91"/>
   <sheetViews>
-    <sheetView topLeftCell="AH37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BL36" sqref="BL36"/>
+    <sheetView topLeftCell="B18" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="BR22" sqref="BR22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -16389,6 +16449,7 @@
     </row>
     <row r="26" spans="1:153" x14ac:dyDescent="0.45">
       <c r="G26" s="2"/>
+      <c r="I26" s="4"/>
       <c r="EW26" s="2"/>
     </row>
     <row r="27" spans="1:153" x14ac:dyDescent="0.45">
@@ -16401,18 +16462,158 @@
     </row>
     <row r="29" spans="1:153" x14ac:dyDescent="0.45">
       <c r="G29" s="2"/>
+      <c r="Z29" s="47"/>
+      <c r="AA29" s="47"/>
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="47"/>
+      <c r="AD29" s="47"/>
+      <c r="AE29" s="47"/>
+      <c r="AF29" s="47"/>
+      <c r="AG29" s="47"/>
+      <c r="AH29" s="47"/>
+      <c r="AI29" s="47"/>
+      <c r="AJ29" s="47"/>
+      <c r="AK29" s="47"/>
+      <c r="AL29" s="47"/>
+      <c r="AM29" s="47"/>
+      <c r="AN29" s="47"/>
+      <c r="AO29" s="47"/>
+      <c r="AP29" s="47"/>
+      <c r="AQ29" s="47"/>
+      <c r="AR29" s="47"/>
+      <c r="AS29" s="47"/>
+      <c r="AT29" s="47"/>
+      <c r="AU29" s="47"/>
+      <c r="AV29" s="47"/>
+      <c r="AW29" s="47"/>
+      <c r="AX29" s="47"/>
+      <c r="AY29" s="47"/>
+      <c r="AZ29" s="47"/>
+      <c r="BA29" s="47"/>
+      <c r="BB29" s="47"/>
+      <c r="BC29" s="47"/>
+      <c r="BD29" s="47"/>
+      <c r="BE29" s="47"/>
+      <c r="BF29" s="47"/>
+      <c r="BG29" s="47"/>
+      <c r="BH29" s="47"/>
+      <c r="BI29" s="47"/>
+      <c r="BJ29" s="47"/>
+      <c r="BK29" s="47"/>
+      <c r="BL29" s="47"/>
+      <c r="BM29" s="47"/>
+      <c r="BN29" s="47"/>
+      <c r="BO29" s="47"/>
+      <c r="BP29" s="47"/>
+      <c r="BQ29" s="47"/>
+      <c r="BR29" s="47"/>
+      <c r="BS29" s="47"/>
+      <c r="BT29" s="47"/>
+      <c r="BU29" s="47"/>
+      <c r="BV29" s="47"/>
+      <c r="BW29" s="47"/>
+      <c r="BX29" s="47"/>
+      <c r="BY29" s="47"/>
+      <c r="BZ29" s="47"/>
+      <c r="CA29" s="47"/>
+      <c r="CB29" s="47"/>
+      <c r="CC29" s="47"/>
+      <c r="CD29" s="47"/>
+      <c r="CE29" s="47"/>
+      <c r="CF29" s="47"/>
+      <c r="CG29" s="47"/>
+      <c r="CH29" s="47"/>
+      <c r="CI29" s="47"/>
+      <c r="CJ29" s="47"/>
+      <c r="CK29" s="47"/>
+      <c r="CL29" s="47"/>
+      <c r="CM29" s="47"/>
+      <c r="CN29" s="47"/>
+      <c r="CO29" s="47"/>
+      <c r="CP29" s="47"/>
+      <c r="CQ29" s="47"/>
+      <c r="CR29" s="47"/>
+      <c r="CS29" s="47"/>
+      <c r="CT29" s="47"/>
+      <c r="CU29" s="47"/>
+      <c r="CV29" s="47"/>
+      <c r="CW29" s="47"/>
+      <c r="CX29" s="47"/>
+      <c r="CY29" s="47"/>
+      <c r="CZ29" s="47"/>
+      <c r="DA29" s="47"/>
+      <c r="DB29" s="47"/>
+      <c r="DC29" s="47"/>
+      <c r="DD29" s="47"/>
+      <c r="DE29" s="47"/>
+      <c r="DF29" s="47"/>
+      <c r="DG29" s="47"/>
+      <c r="DH29" s="47"/>
+      <c r="DI29" s="47"/>
+      <c r="DJ29" s="47"/>
+      <c r="DK29" s="47"/>
+      <c r="DL29" s="47"/>
+      <c r="DM29" s="47"/>
+      <c r="DN29" s="4"/>
+      <c r="DO29" s="47"/>
+      <c r="DP29" s="47"/>
+      <c r="DQ29" s="47"/>
+      <c r="DR29" s="47"/>
+      <c r="DS29" s="47"/>
+      <c r="DT29" s="47"/>
+      <c r="DU29" s="47"/>
+      <c r="DV29" s="47"/>
+      <c r="DW29" s="47"/>
+      <c r="DX29" s="47"/>
+      <c r="DY29" s="47"/>
+      <c r="DZ29" s="47"/>
+      <c r="EA29" s="47"/>
+      <c r="EB29" s="47"/>
+      <c r="EC29" s="47"/>
+      <c r="ED29" s="47"/>
+      <c r="EE29" s="47"/>
+      <c r="EF29" s="47"/>
+      <c r="EG29" s="47"/>
+      <c r="EH29" s="47"/>
+      <c r="EI29" s="47"/>
+      <c r="EJ29" s="47"/>
+      <c r="EK29" s="47"/>
+      <c r="EL29" s="47"/>
+      <c r="EM29" s="47"/>
+      <c r="EN29" s="47"/>
+      <c r="EO29" s="47"/>
+      <c r="EP29" s="47"/>
+      <c r="EQ29" s="47"/>
+      <c r="ER29" s="47"/>
+      <c r="ES29" s="47"/>
+      <c r="ET29" s="47"/>
+      <c r="EU29" s="47"/>
       <c r="EW29" s="2"/>
     </row>
     <row r="30" spans="1:153" x14ac:dyDescent="0.45">
       <c r="G30" s="2"/>
+      <c r="DM30" s="4"/>
+      <c r="DN30" s="2"/>
+      <c r="DR30" s="11"/>
+      <c r="DV30" s="11"/>
       <c r="EW30" s="2"/>
     </row>
     <row r="31" spans="1:153" x14ac:dyDescent="0.45">
       <c r="G31" s="2"/>
+      <c r="DL31" s="4"/>
+      <c r="DM31" s="2"/>
+      <c r="DN31" s="2"/>
       <c r="EW31" s="2"/>
     </row>
     <row r="32" spans="1:153" x14ac:dyDescent="0.45">
       <c r="G32" s="2"/>
+      <c r="DC32" s="4"/>
+      <c r="DG32" s="4"/>
+      <c r="DJ32" s="47"/>
+      <c r="DK32" s="4"/>
+      <c r="DL32" s="2"/>
+      <c r="DM32" s="2"/>
+      <c r="DN32" s="2"/>
       <c r="EW32" s="2"/>
     </row>
     <row r="33" spans="1:153" x14ac:dyDescent="0.45">
@@ -16420,20 +16621,84 @@
       <c r="AY33" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="EW33" s="2"/>
+      <c r="DC33" s="2"/>
+      <c r="DG33" s="2"/>
+      <c r="DK33" s="2"/>
+      <c r="DL33" s="2"/>
+      <c r="DM33" s="2"/>
+      <c r="DN33" s="2"/>
+      <c r="EW33" s="50"/>
     </row>
     <row r="34" spans="1:153" x14ac:dyDescent="0.45">
       <c r="G34" s="2"/>
+      <c r="CV34" s="2"/>
+      <c r="CW34" s="47"/>
+      <c r="CX34" s="2"/>
+      <c r="CY34" s="2"/>
+      <c r="CZ34" s="2"/>
+      <c r="DA34" s="2"/>
+      <c r="DB34" s="2"/>
+      <c r="DC34" s="2"/>
+      <c r="DD34" s="2"/>
+      <c r="DE34" s="2"/>
+      <c r="DF34" s="2"/>
+      <c r="DG34" s="2"/>
+      <c r="DH34" s="2"/>
+      <c r="DI34" s="2"/>
+      <c r="DJ34" s="2"/>
+      <c r="DK34" s="2"/>
+      <c r="DL34" s="2"/>
+      <c r="DM34" s="2"/>
+      <c r="DN34" s="2"/>
+      <c r="DO34" s="2"/>
+      <c r="DP34" s="2"/>
+      <c r="DQ34" s="2"/>
+      <c r="DR34" s="2"/>
+      <c r="DS34" s="2"/>
+      <c r="DT34" s="2"/>
+      <c r="DU34" s="2"/>
+      <c r="DV34" s="2"/>
+      <c r="DW34" s="2"/>
+      <c r="DX34" s="2"/>
+      <c r="DY34" s="2"/>
+      <c r="DZ34" s="2"/>
+      <c r="EA34" s="2"/>
+      <c r="EB34" s="2"/>
+      <c r="EC34" s="2"/>
+      <c r="ED34" s="2"/>
+      <c r="EE34" s="2"/>
+      <c r="EF34" s="2"/>
+      <c r="EG34" s="2"/>
+      <c r="EH34" s="2"/>
+      <c r="EI34" s="2"/>
+      <c r="EJ34" s="2"/>
+      <c r="EK34" s="2"/>
+      <c r="EL34" s="2"/>
+      <c r="EM34" s="2"/>
+      <c r="EN34" s="2"/>
+      <c r="EO34" s="2"/>
+      <c r="EP34" s="2"/>
+      <c r="EQ34" s="2"/>
+      <c r="ER34" s="2"/>
+      <c r="ES34" s="2"/>
+      <c r="ET34" s="2"/>
+      <c r="EU34" s="2"/>
+      <c r="EV34" s="2"/>
       <c r="EW34" s="2"/>
     </row>
     <row r="35" spans="1:153" x14ac:dyDescent="0.45">
       <c r="G35" s="2"/>
       <c r="AX35" s="2"/>
+      <c r="AY35" s="2"/>
       <c r="BI35" s="12"/>
       <c r="BN35" s="11"/>
       <c r="BQ35" s="12"/>
       <c r="BV35" s="11"/>
       <c r="BY35" s="12"/>
+      <c r="CT35" s="2"/>
+      <c r="DS35" s="2"/>
+      <c r="DW35" s="2"/>
+      <c r="EA35" s="2"/>
       <c r="EW35" s="2"/>
     </row>
     <row r="36" spans="1:153" x14ac:dyDescent="0.45">
@@ -16441,17 +16706,18 @@
       <c r="AW36" s="2"/>
       <c r="AX36" s="2"/>
       <c r="AY36" s="2"/>
+      <c r="AZ36" s="2"/>
+      <c r="BD36" s="2"/>
+      <c r="BE36" s="2"/>
       <c r="BF36" s="2"/>
       <c r="BG36" s="2"/>
-      <c r="BH36" s="51"/>
       <c r="BI36" s="2"/>
       <c r="BJ36" s="2"/>
       <c r="BK36" s="2"/>
-      <c r="BL36" s="51"/>
       <c r="BM36" s="2"/>
       <c r="BN36" s="2"/>
       <c r="BO36" s="2"/>
-      <c r="BP36" s="2"/>
+      <c r="BP36" s="47"/>
       <c r="BQ36" s="2"/>
       <c r="BR36" s="2"/>
       <c r="BS36" s="2"/>
@@ -16463,6 +16729,10 @@
       <c r="BY36" s="2"/>
       <c r="BZ36" s="2"/>
       <c r="CA36" s="2"/>
+      <c r="CR36" s="2"/>
+      <c r="DS36" s="2"/>
+      <c r="DW36" s="2"/>
+      <c r="EA36" s="2"/>
       <c r="EW36" s="2"/>
     </row>
     <row r="37" spans="1:153" x14ac:dyDescent="0.45">
@@ -16472,6 +16742,12 @@
       <c r="AX37" s="2"/>
       <c r="AY37" s="2"/>
       <c r="AZ37" s="2"/>
+      <c r="BA37" s="2"/>
+      <c r="BE37" s="47"/>
+      <c r="CP37" s="2"/>
+      <c r="DS37" s="2"/>
+      <c r="DW37" s="2"/>
+      <c r="EA37" s="2"/>
       <c r="EW37" s="2"/>
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.45">
@@ -16485,6 +16761,12 @@
       <c r="AY38" s="2"/>
       <c r="AZ38" s="2"/>
       <c r="BA38" s="2"/>
+      <c r="BB38" s="2"/>
+      <c r="BD38" s="47"/>
+      <c r="CN38" s="2"/>
+      <c r="DS38" s="2"/>
+      <c r="DW38" s="2"/>
+      <c r="EA38" s="2"/>
       <c r="EW38" s="2"/>
     </row>
     <row r="39" spans="1:153" x14ac:dyDescent="0.45">
@@ -16502,6 +16784,12 @@
       <c r="AZ39" s="2"/>
       <c r="BA39" s="2"/>
       <c r="BB39" s="2"/>
+      <c r="BC39" s="2"/>
+      <c r="CL39" s="2"/>
+      <c r="CN39" s="47"/>
+      <c r="DS39" s="47"/>
+      <c r="DW39" s="47"/>
+      <c r="EA39" s="47"/>
       <c r="EW39" s="2"/>
     </row>
     <row r="40" spans="1:153" x14ac:dyDescent="0.45">
@@ -16531,10 +16819,19 @@
       <c r="BA40" s="2"/>
       <c r="BB40" s="2"/>
       <c r="BC40" s="2"/>
+      <c r="BD40" s="2"/>
       <c r="BK40" s="11"/>
       <c r="BU40" s="11"/>
-      <c r="BW40" s="11"/>
-      <c r="EW40" s="2"/>
+      <c r="BW40" s="47"/>
+      <c r="CJ40" s="4"/>
+      <c r="CK40" s="11"/>
+      <c r="DC40" s="11"/>
+      <c r="DH40" s="11"/>
+      <c r="DM40" s="11"/>
+      <c r="DS40" s="2"/>
+      <c r="DW40" s="2"/>
+      <c r="EA40" s="2"/>
+      <c r="EW40" s="9"/>
     </row>
     <row r="41" spans="1:153" x14ac:dyDescent="0.45">
       <c r="G41" s="2"/>
@@ -16611,7 +16908,7 @@
       <c r="BZ41" s="2"/>
       <c r="CA41" s="2"/>
       <c r="CB41" s="2"/>
-      <c r="CC41" s="2"/>
+      <c r="CC41" s="47"/>
       <c r="CD41" s="2"/>
       <c r="CE41" s="2"/>
       <c r="CF41" s="2"/>
@@ -16692,7 +16989,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="51" spans="7:156" x14ac:dyDescent="0.45">
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -16841,48 +17138,74 @@
       <c r="EV51" s="2"/>
       <c r="EW51" s="2"/>
     </row>
-    <row r="52" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="52" spans="7:156" x14ac:dyDescent="0.45">
       <c r="G52" s="2"/>
-      <c r="AY52" s="1"/>
+      <c r="AY52" s="47"/>
       <c r="EW52" s="2"/>
     </row>
-    <row r="53" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="53" spans="7:156" x14ac:dyDescent="0.45">
       <c r="G53" s="2"/>
-      <c r="AY53" s="1"/>
+      <c r="AY53" s="47"/>
       <c r="EW53" s="2"/>
     </row>
-    <row r="54" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="54" spans="7:156" x14ac:dyDescent="0.45">
       <c r="G54" s="2"/>
-      <c r="AY54" s="1"/>
+      <c r="AY54" s="47"/>
+      <c r="CT54" s="2"/>
+      <c r="DD54" s="2"/>
+      <c r="DN54" s="2"/>
+      <c r="EC54" s="2"/>
+      <c r="EE54" s="2"/>
       <c r="EW54" s="2"/>
-    </row>
-    <row r="55" spans="7:153" x14ac:dyDescent="0.45">
+      <c r="EZ54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="7:156" x14ac:dyDescent="0.45">
       <c r="G55" s="2"/>
-      <c r="AY55" s="1"/>
+      <c r="AY55" s="47"/>
+      <c r="CT55" s="2"/>
+      <c r="DD55" s="2"/>
+      <c r="DN55" s="2"/>
+      <c r="EC55" s="2"/>
+      <c r="EE55" s="2"/>
       <c r="EW55" s="2"/>
     </row>
-    <row r="56" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="56" spans="7:156" x14ac:dyDescent="0.45">
       <c r="G56" s="2"/>
-      <c r="AY56" s="1"/>
+      <c r="AY56" s="47"/>
+      <c r="CT56" s="2"/>
+      <c r="DD56" s="2"/>
+      <c r="DN56" s="2"/>
+      <c r="EC56" s="2"/>
+      <c r="EE56" s="2"/>
       <c r="EW56" s="2"/>
     </row>
-    <row r="57" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="57" spans="7:156" x14ac:dyDescent="0.45">
       <c r="G57" s="2"/>
-      <c r="AY57" s="9"/>
-      <c r="BC57" t="s">
-        <v>51</v>
-      </c>
+      <c r="AY57" s="47"/>
+      <c r="CT57" s="2"/>
+      <c r="DD57" s="2"/>
+      <c r="DN57" s="2"/>
+      <c r="EC57" s="2"/>
+      <c r="EE57" s="2"/>
       <c r="EW57" s="2"/>
     </row>
-    <row r="58" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="58" spans="7:156" x14ac:dyDescent="0.45">
       <c r="G58" s="2"/>
-      <c r="Y58" s="10"/>
-      <c r="AY58" s="13" t="s">
+      <c r="Y58" s="47"/>
+      <c r="AY58" s="48" t="s">
         <v>49</v>
       </c>
+      <c r="CT58" s="2"/>
+      <c r="DD58" s="2"/>
+      <c r="DN58" s="2"/>
+      <c r="DS58" s="2"/>
+      <c r="EC58" s="2"/>
+      <c r="EE58" s="2"/>
       <c r="EW58" s="2"/>
     </row>
-    <row r="59" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="59" spans="7:156" x14ac:dyDescent="0.45">
       <c r="G59" s="2"/>
       <c r="N59" s="4"/>
       <c r="T59" s="11"/>
@@ -16896,10 +17219,16 @@
       <c r="AM59" s="4"/>
       <c r="AN59" s="11"/>
       <c r="AO59" s="4"/>
-      <c r="AY59" s="9"/>
+      <c r="AY59" s="47"/>
+      <c r="CT59" s="2"/>
+      <c r="DD59" s="2"/>
+      <c r="DN59" s="2"/>
+      <c r="DS59" s="4"/>
+      <c r="EC59" s="2"/>
+      <c r="EE59" s="2"/>
       <c r="EW59" s="2"/>
     </row>
-    <row r="60" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="60" spans="7:156" x14ac:dyDescent="0.45">
       <c r="G60" s="2"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
@@ -16943,49 +17272,65 @@
       <c r="AV60" s="10"/>
       <c r="AW60" s="10"/>
       <c r="AX60" s="10"/>
-      <c r="AY60" s="1"/>
+      <c r="AY60" s="47"/>
+      <c r="CF60" s="49"/>
+      <c r="CT60" s="47"/>
+      <c r="DD60" s="47"/>
+      <c r="DN60" s="2"/>
+      <c r="DS60" s="2"/>
+      <c r="EC60" s="47"/>
+      <c r="ED60" s="11"/>
+      <c r="EE60" s="47"/>
       <c r="EW60" s="2"/>
     </row>
-    <row r="61" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="61" spans="7:156" x14ac:dyDescent="0.45">
       <c r="G61" s="2"/>
       <c r="W61" s="10"/>
       <c r="Y61" s="10"/>
-      <c r="AY61" s="1"/>
+      <c r="AY61" s="47"/>
+      <c r="CT61" s="2"/>
+      <c r="CX61" s="4"/>
+      <c r="DA61" s="4"/>
+      <c r="DD61" s="2"/>
+      <c r="DL61" s="11"/>
+      <c r="DN61" s="2"/>
+      <c r="EC61" s="2"/>
+      <c r="EE61" s="2"/>
       <c r="EW61" s="2"/>
     </row>
-    <row r="62" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="62" spans="7:156" x14ac:dyDescent="0.45">
       <c r="G62" s="2"/>
       <c r="W62" s="10"/>
       <c r="Y62" s="10"/>
-      <c r="AY62" s="1"/>
+      <c r="AY62" s="47"/>
       <c r="EW62" s="2"/>
     </row>
-    <row r="63" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="63" spans="7:156" x14ac:dyDescent="0.45">
       <c r="G63" s="2"/>
       <c r="W63" s="10"/>
       <c r="Y63" s="10"/>
-      <c r="AY63" s="1"/>
+      <c r="AY63" s="47"/>
       <c r="EW63" s="2"/>
     </row>
-    <row r="64" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="64" spans="7:156" x14ac:dyDescent="0.45">
       <c r="G64" s="2"/>
       <c r="W64" s="10"/>
       <c r="Y64" s="10"/>
-      <c r="AY64" s="1"/>
+      <c r="AY64" s="47"/>
       <c r="EW64" s="2"/>
     </row>
     <row r="65" spans="1:153" x14ac:dyDescent="0.45">
       <c r="G65" s="2"/>
       <c r="W65" s="10"/>
       <c r="Y65" s="10"/>
-      <c r="AY65" s="14"/>
+      <c r="AY65" s="48"/>
       <c r="EW65" s="2"/>
     </row>
     <row r="66" spans="1:153" x14ac:dyDescent="0.45">
       <c r="G66" s="2"/>
       <c r="W66" s="10"/>
       <c r="Y66" s="10"/>
-      <c r="AY66" s="1"/>
+      <c r="AY66" s="47"/>
       <c r="EW66" s="2"/>
     </row>
     <row r="67" spans="1:153" x14ac:dyDescent="0.45">
@@ -17725,56 +18070,10 @@
       <c r="O67" s="34"/>
       <c r="P67" s="35"/>
     </row>
-    <row r="68" spans="3:39" x14ac:dyDescent="0.45">
-      <c r="G68" s="47"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="47"/>
-      <c r="O68" s="47"/>
-      <c r="P68" s="47"/>
-    </row>
     <row r="69" spans="3:39" x14ac:dyDescent="0.45">
       <c r="C69" t="s">
-        <v>305</v>
-      </c>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="47"/>
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="47"/>
-      <c r="O69" s="47"/>
-      <c r="P69" s="47"/>
-    </row>
-    <row r="70" spans="3:39" x14ac:dyDescent="0.45">
-      <c r="G70" s="47"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="47"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="47"/>
-      <c r="L70" s="47"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="47"/>
-      <c r="P70" s="47"/>
-    </row>
-    <row r="71" spans="3:39" x14ac:dyDescent="0.45">
-      <c r="G71" s="47"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="47"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="47"/>
-      <c r="P71" s="47"/>
+        <v>304</v>
+      </c>
     </row>
     <row r="74" spans="3:39" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D74" s="5" t="s">
@@ -17872,10 +18171,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C74346-497D-4924-9B58-2A138F54FEAD}">
-  <dimension ref="A1:AD64"/>
+  <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -18039,116 +18338,129 @@
     <row r="49" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="7"/>
       <c r="B49" s="5" t="s">
-        <v>301</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="M51" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="E52" s="28"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="30"/>
-      <c r="U52" s="28"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="29"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="29"/>
-      <c r="Z52" s="29"/>
-      <c r="AA52" s="29"/>
-      <c r="AB52" s="29"/>
-      <c r="AC52" s="29"/>
-      <c r="AD52" s="30"/>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="E53" s="31"/>
-      <c r="G53" t="s">
-        <v>236</v>
-      </c>
-      <c r="K53" t="s">
-        <v>237</v>
-      </c>
-      <c r="O53" s="32"/>
-      <c r="U53" s="31"/>
-      <c r="AC53" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD53" s="32"/>
+      <c r="C52" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="E54" s="31"/>
-      <c r="K54" s="4"/>
-      <c r="O54" s="32"/>
-      <c r="U54" s="31"/>
-      <c r="AA54" s="12"/>
-      <c r="AD54" s="32"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="30"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="29"/>
+      <c r="X54" s="29"/>
+      <c r="Y54" s="29"/>
+      <c r="Z54" s="29"/>
+      <c r="AA54" s="29"/>
+      <c r="AB54" s="29"/>
+      <c r="AC54" s="29"/>
+      <c r="AD54" s="30"/>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.45">
       <c r="E55" s="31"/>
+      <c r="G55" t="s">
+        <v>236</v>
+      </c>
+      <c r="K55" t="s">
+        <v>237</v>
+      </c>
       <c r="O55" s="32"/>
       <c r="U55" s="31"/>
+      <c r="AC55" t="s">
+        <v>302</v>
+      </c>
       <c r="AD55" s="32"/>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="E56" s="33"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
-      <c r="O56" s="35"/>
-      <c r="U56" s="33"/>
-      <c r="V56" s="34"/>
-      <c r="W56" s="34"/>
-      <c r="X56" s="34"/>
-      <c r="Y56" s="34"/>
-      <c r="Z56" s="34"/>
-      <c r="AA56" s="34"/>
-      <c r="AB56" s="34"/>
-      <c r="AC56" s="34"/>
-      <c r="AD56" s="35"/>
+      <c r="E56" s="31"/>
+      <c r="K56" s="4"/>
+      <c r="O56" s="32"/>
+      <c r="U56" s="31"/>
+      <c r="AA56" s="12"/>
+      <c r="AD56" s="32"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="E57" s="31"/>
+      <c r="O57" s="32"/>
+      <c r="U57" s="31"/>
+      <c r="AD57" s="32"/>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="U58" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="F59" s="52" t="s">
-        <v>308</v>
-      </c>
-      <c r="G59" s="52"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-    </row>
-    <row r="61" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="8" t="s">
+      <c r="E58" s="33"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="35"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="34"/>
+      <c r="W58" s="34"/>
+      <c r="X58" s="34"/>
+      <c r="Y58" s="34"/>
+      <c r="Z58" s="34"/>
+      <c r="AA58" s="34"/>
+      <c r="AB58" s="34"/>
+      <c r="AC58" s="34"/>
+      <c r="AD58" s="35"/>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="U60" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="F61" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+    </row>
+    <row r="63" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -18164,8 +18476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E3E2F9-98CE-43F4-9D73-FAE038CE3F86}">
   <dimension ref="A1:AK84"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76:V76"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -18411,6 +18723,11 @@
     <row r="54" spans="3:37" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C54" s="5" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="3:37" x14ac:dyDescent="0.45">
+      <c r="C56" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="3:37" x14ac:dyDescent="0.45">
@@ -18611,171 +18928,32 @@
       <c r="AH73" s="34"/>
       <c r="AI73" s="35"/>
     </row>
-    <row r="74" spans="3:37" x14ac:dyDescent="0.45">
-      <c r="G74" s="47"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="47"/>
-      <c r="J74" s="47"/>
-      <c r="K74" s="47"/>
-      <c r="L74" s="47"/>
-      <c r="M74" s="47"/>
-      <c r="N74" s="47"/>
-      <c r="O74" s="47"/>
-      <c r="P74" s="47"/>
-      <c r="Q74" s="47"/>
-      <c r="R74" s="47"/>
-      <c r="X74" s="47"/>
-      <c r="Y74" s="47"/>
-      <c r="Z74" s="47"/>
-      <c r="AA74" s="47"/>
-      <c r="AB74" s="47"/>
-      <c r="AC74" s="47"/>
-      <c r="AD74" s="47"/>
-      <c r="AE74" s="47"/>
-      <c r="AF74" s="47"/>
-      <c r="AG74" s="47"/>
-      <c r="AH74" s="47"/>
-      <c r="AI74" s="47"/>
-    </row>
-    <row r="75" spans="3:37" x14ac:dyDescent="0.45">
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="47"/>
-      <c r="K75" s="47"/>
-      <c r="L75" s="47"/>
-      <c r="M75" s="47"/>
-      <c r="N75" s="47"/>
-      <c r="O75" s="47"/>
-      <c r="P75" s="47"/>
-      <c r="Q75" s="47"/>
-      <c r="R75" s="47"/>
-      <c r="X75" s="47"/>
-      <c r="Y75" s="47"/>
-      <c r="Z75" s="47"/>
-      <c r="AA75" s="47"/>
-      <c r="AB75" s="47"/>
-      <c r="AC75" s="47"/>
-      <c r="AD75" s="47"/>
-      <c r="AE75" s="47"/>
-      <c r="AF75" s="47"/>
-      <c r="AG75" s="47"/>
-      <c r="AH75" s="47"/>
-      <c r="AI75" s="47"/>
-    </row>
     <row r="76" spans="3:37" x14ac:dyDescent="0.45">
-      <c r="G76" s="52" t="s">
-        <v>308</v>
-      </c>
-      <c r="H76" s="52"/>
-      <c r="I76" s="52"/>
-      <c r="J76" s="52"/>
-      <c r="K76" s="52"/>
-      <c r="L76" s="52"/>
-      <c r="M76" s="52"/>
-      <c r="N76" s="52"/>
-      <c r="O76" s="52"/>
-      <c r="P76" s="52"/>
-      <c r="Q76" s="52"/>
-      <c r="R76" s="52"/>
+      <c r="G76" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
       <c r="V76" s="5"/>
-      <c r="X76" s="47"/>
-      <c r="Y76" s="47"/>
-      <c r="Z76" s="47"/>
-      <c r="AA76" s="47"/>
-      <c r="AB76" s="47"/>
-      <c r="AC76" s="47"/>
-      <c r="AD76" s="47"/>
-      <c r="AE76" s="47"/>
-      <c r="AF76" s="47"/>
-      <c r="AG76" s="47"/>
-      <c r="AH76" s="47"/>
-      <c r="AI76" s="47"/>
-    </row>
-    <row r="77" spans="3:37" x14ac:dyDescent="0.45">
-      <c r="G77" s="47"/>
-      <c r="H77" s="47"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="47"/>
-      <c r="K77" s="47"/>
-      <c r="L77" s="47"/>
-      <c r="M77" s="47"/>
-      <c r="N77" s="47"/>
-      <c r="O77" s="47"/>
-      <c r="P77" s="47"/>
-      <c r="Q77" s="47"/>
-      <c r="R77" s="47"/>
-      <c r="X77" s="47"/>
-      <c r="Y77" s="47"/>
-      <c r="Z77" s="47"/>
-      <c r="AA77" s="47"/>
-      <c r="AB77" s="47"/>
-      <c r="AC77" s="47"/>
-      <c r="AD77" s="47"/>
-      <c r="AE77" s="47"/>
-      <c r="AF77" s="47"/>
-      <c r="AG77" s="47"/>
-      <c r="AH77" s="47"/>
-      <c r="AI77" s="47"/>
-    </row>
-    <row r="78" spans="3:37" x14ac:dyDescent="0.45">
-      <c r="G78" s="47"/>
-      <c r="H78" s="47"/>
-      <c r="I78" s="47"/>
-      <c r="J78" s="47"/>
-      <c r="K78" s="47"/>
-      <c r="L78" s="47"/>
-      <c r="M78" s="47"/>
-      <c r="N78" s="47"/>
-      <c r="O78" s="47"/>
-      <c r="P78" s="47"/>
-      <c r="Q78" s="47"/>
-      <c r="R78" s="47"/>
-      <c r="X78" s="47"/>
-      <c r="Y78" s="47"/>
-      <c r="Z78" s="47"/>
-      <c r="AA78" s="47"/>
-      <c r="AB78" s="47"/>
-      <c r="AC78" s="47"/>
-      <c r="AD78" s="47"/>
-      <c r="AE78" s="47"/>
-      <c r="AF78" s="47"/>
-      <c r="AG78" s="47"/>
-      <c r="AH78" s="47"/>
-      <c r="AI78" s="47"/>
-    </row>
-    <row r="79" spans="3:37" x14ac:dyDescent="0.45">
-      <c r="G79" s="47"/>
-      <c r="H79" s="47"/>
-      <c r="I79" s="47"/>
-      <c r="J79" s="47"/>
-      <c r="K79" s="47"/>
-      <c r="L79" s="47"/>
-      <c r="M79" s="47"/>
-      <c r="N79" s="47"/>
-      <c r="O79" s="47"/>
-      <c r="P79" s="47"/>
-      <c r="Q79" s="47"/>
-      <c r="R79" s="47"/>
-      <c r="X79" s="47"/>
-      <c r="Y79" s="47"/>
-      <c r="Z79" s="47"/>
-      <c r="AA79" s="47"/>
-      <c r="AB79" s="47"/>
-      <c r="AC79" s="47"/>
-      <c r="AD79" s="47"/>
-      <c r="AE79" s="47"/>
-      <c r="AF79" s="47"/>
-      <c r="AG79" s="47"/>
-      <c r="AH79" s="47"/>
-      <c r="AI79" s="47"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="5"/>
+      <c r="Y76" s="5"/>
     </row>
     <row r="82" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B82" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -18795,8 +18973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4779348F-C110-484A-B833-41753E3F1C60}">
   <dimension ref="A1:BA74"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI42" sqref="AI42"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH41" sqref="AH41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -18910,6 +19088,11 @@
       <c r="A35" s="7"/>
       <c r="B35" s="5" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.45">
@@ -18993,24 +19176,27 @@
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="G45" s="52" t="s">
-        <v>308</v>
-      </c>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="52"/>
+      <c r="G45" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
     </row>
     <row r="47" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B47" s="5" t="s">
@@ -19035,81 +19221,37 @@
       <c r="W49" s="29"/>
       <c r="X49" s="29"/>
       <c r="Y49" s="30"/>
-      <c r="Z49" s="47"/>
-      <c r="AA49" s="47"/>
-      <c r="AB49" s="47"/>
     </row>
     <row r="50" spans="2:53" x14ac:dyDescent="0.45">
       <c r="D50" s="31"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47" t="s">
+      <c r="F50" t="s">
         <v>295</v>
       </c>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
       <c r="K50" s="32"/>
       <c r="Q50" s="31"/>
-      <c r="R50" s="47"/>
-      <c r="S50" s="47"/>
-      <c r="T50" s="47"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47" t="s">
+      <c r="W50" t="s">
         <v>296</v>
       </c>
-      <c r="X50" s="47"/>
       <c r="Y50" s="32"/>
-      <c r="Z50" s="47"/>
-      <c r="AA50" s="47"/>
-      <c r="AB50" s="47"/>
     </row>
     <row r="51" spans="2:53" x14ac:dyDescent="0.45">
       <c r="D51" s="31"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="50"/>
+      <c r="E51" s="2"/>
+      <c r="J51" s="4"/>
       <c r="K51" s="32"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="47" t="s">
+      <c r="Q51" s="31"/>
+      <c r="R51" t="s">
         <v>177</v>
       </c>
-      <c r="S51" s="47"/>
-      <c r="T51" s="47"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="49"/>
-      <c r="W51" s="50"/>
-      <c r="X51" s="47"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="4"/>
       <c r="Y51" s="32"/>
-      <c r="Z51" s="47"/>
-      <c r="AA51" s="47"/>
-      <c r="AB51" s="47"/>
     </row>
     <row r="52" spans="2:53" x14ac:dyDescent="0.45">
       <c r="D52" s="31"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
       <c r="K52" s="32"/>
       <c r="Q52" s="31"/>
-      <c r="R52" s="47"/>
-      <c r="S52" s="47"/>
-      <c r="T52" s="47"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
-      <c r="X52" s="47"/>
       <c r="Y52" s="32"/>
-      <c r="Z52" s="47"/>
-      <c r="AA52" s="47"/>
-      <c r="AB52" s="47"/>
     </row>
     <row r="53" spans="2:53" x14ac:dyDescent="0.45">
       <c r="D53" s="33"/>
@@ -19129,9 +19271,6 @@
       <c r="W53" s="34"/>
       <c r="X53" s="34"/>
       <c r="Y53" s="35"/>
-      <c r="Z53" s="47"/>
-      <c r="AA53" s="47"/>
-      <c r="AB53" s="47"/>
     </row>
     <row r="56" spans="2:53" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B56" s="5" t="s">
@@ -19181,248 +19320,56 @@
     </row>
     <row r="59" spans="2:53" x14ac:dyDescent="0.45">
       <c r="E59" s="31"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="47"/>
       <c r="Q59" s="32"/>
       <c r="W59" s="31"/>
-      <c r="X59" s="47"/>
-      <c r="Y59" s="47"/>
-      <c r="Z59" s="47"/>
-      <c r="AA59" s="47"/>
-      <c r="AB59" s="47"/>
-      <c r="AC59" s="47"/>
-      <c r="AD59" s="47"/>
-      <c r="AE59" s="47"/>
-      <c r="AF59" s="47"/>
-      <c r="AG59" s="47"/>
-      <c r="AH59" s="47"/>
       <c r="AI59" s="32"/>
       <c r="AO59" s="31"/>
-      <c r="AP59" s="47"/>
-      <c r="AQ59" s="47"/>
-      <c r="AR59" s="47"/>
-      <c r="AS59" s="47"/>
-      <c r="AT59" s="47"/>
-      <c r="AU59" s="47"/>
-      <c r="AV59" s="47"/>
-      <c r="AW59" s="47"/>
-      <c r="AX59" s="47"/>
-      <c r="AY59" s="47"/>
-      <c r="AZ59" s="47"/>
       <c r="BA59" s="32"/>
     </row>
     <row r="60" spans="2:53" x14ac:dyDescent="0.45">
       <c r="E60" s="31"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="50"/>
-      <c r="O60" s="47"/>
-      <c r="P60" s="47"/>
+      <c r="N60" s="4"/>
       <c r="Q60" s="32"/>
       <c r="W60" s="31"/>
-      <c r="X60" s="47"/>
-      <c r="Y60" s="47"/>
-      <c r="Z60" s="47"/>
-      <c r="AA60" s="47"/>
-      <c r="AB60" s="47"/>
-      <c r="AC60" s="50"/>
-      <c r="AD60" s="47"/>
-      <c r="AE60" s="47"/>
-      <c r="AG60" s="47"/>
-      <c r="AH60" s="47"/>
+      <c r="AC60" s="4"/>
       <c r="AI60" s="32"/>
       <c r="AO60" s="31"/>
-      <c r="AP60" s="47"/>
-      <c r="AQ60" s="47"/>
-      <c r="AR60" s="47"/>
-      <c r="AS60" s="47"/>
-      <c r="AT60" s="47"/>
-      <c r="AU60" s="50"/>
-      <c r="AV60" s="47"/>
-      <c r="AW60" s="47"/>
+      <c r="AU60" s="4"/>
       <c r="AX60" t="s">
         <v>299</v>
       </c>
-      <c r="AY60" s="47"/>
-      <c r="AZ60" s="47"/>
       <c r="BA60" s="32"/>
     </row>
     <row r="61" spans="2:53" x14ac:dyDescent="0.45">
       <c r="E61" s="31"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="47"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="47"/>
-      <c r="O61" s="47"/>
-      <c r="P61" s="47"/>
       <c r="Q61" s="32"/>
       <c r="W61" s="31"/>
-      <c r="X61" s="47"/>
-      <c r="Y61" s="47"/>
-      <c r="Z61" s="47"/>
-      <c r="AA61" s="47"/>
-      <c r="AB61" s="47"/>
-      <c r="AC61" s="47"/>
-      <c r="AD61" s="47"/>
-      <c r="AE61" s="47"/>
-      <c r="AF61" s="47"/>
-      <c r="AG61" s="47"/>
-      <c r="AH61" s="47"/>
       <c r="AI61" s="32"/>
       <c r="AO61" s="31"/>
-      <c r="AP61" s="47"/>
-      <c r="AQ61" s="47"/>
-      <c r="AR61" s="47"/>
-      <c r="AS61" s="47"/>
-      <c r="AU61" s="47"/>
-      <c r="AV61" s="47"/>
-      <c r="AW61" s="47"/>
-      <c r="AX61" s="47"/>
-      <c r="AY61" s="47"/>
-      <c r="AZ61" s="47"/>
       <c r="BA61" s="32"/>
     </row>
     <row r="62" spans="2:53" x14ac:dyDescent="0.45">
       <c r="E62" s="31"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="47"/>
-      <c r="O62" s="47"/>
-      <c r="P62" s="47"/>
       <c r="Q62" s="32"/>
       <c r="W62" s="31"/>
-      <c r="X62" s="47"/>
-      <c r="Y62" s="47"/>
-      <c r="Z62" s="47"/>
-      <c r="AA62" s="47"/>
-      <c r="AB62" s="47"/>
-      <c r="AC62" s="47"/>
-      <c r="AD62" s="47"/>
-      <c r="AE62" s="47"/>
-      <c r="AF62" s="47"/>
-      <c r="AG62" s="47"/>
-      <c r="AH62" s="47"/>
       <c r="AI62" s="32"/>
       <c r="AO62" s="31"/>
-      <c r="AP62" s="47"/>
-      <c r="AQ62" s="47"/>
-      <c r="AR62" s="47"/>
-      <c r="AS62" s="47"/>
-      <c r="AT62" s="47"/>
-      <c r="AU62" s="47"/>
-      <c r="AV62" s="47"/>
-      <c r="AW62" s="47"/>
-      <c r="AX62" s="47"/>
-      <c r="AY62" s="47"/>
-      <c r="AZ62" s="47"/>
       <c r="BA62" s="32"/>
     </row>
     <row r="63" spans="2:53" x14ac:dyDescent="0.45">
       <c r="E63" s="31"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="47"/>
-      <c r="N63" s="47"/>
-      <c r="O63" s="47"/>
-      <c r="P63" s="47"/>
       <c r="Q63" s="32"/>
       <c r="W63" s="31"/>
-      <c r="X63" s="47"/>
-      <c r="Y63" s="47"/>
-      <c r="Z63" s="47"/>
-      <c r="AA63" s="47"/>
-      <c r="AB63" s="47"/>
-      <c r="AC63" s="47"/>
-      <c r="AD63" s="47"/>
-      <c r="AE63" s="47"/>
-      <c r="AF63" s="47"/>
-      <c r="AG63" s="47"/>
-      <c r="AH63" s="47"/>
       <c r="AI63" s="32"/>
       <c r="AO63" s="31"/>
-      <c r="AP63" s="47"/>
-      <c r="AQ63" s="47"/>
-      <c r="AR63" s="47"/>
-      <c r="AS63" s="47"/>
-      <c r="AT63" s="47"/>
-      <c r="AU63" s="47"/>
-      <c r="AV63" s="47"/>
-      <c r="AW63" s="47"/>
-      <c r="AX63" s="47"/>
-      <c r="AY63" s="47"/>
-      <c r="AZ63" s="47"/>
       <c r="BA63" s="32"/>
     </row>
     <row r="64" spans="2:53" x14ac:dyDescent="0.45">
       <c r="E64" s="31"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="47"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="47"/>
-      <c r="O64" s="47"/>
-      <c r="P64" s="47"/>
       <c r="Q64" s="32"/>
       <c r="W64" s="31"/>
-      <c r="X64" s="47"/>
-      <c r="Y64" s="47"/>
-      <c r="Z64" s="47"/>
-      <c r="AA64" s="47"/>
-      <c r="AB64" s="47"/>
-      <c r="AC64" s="47"/>
-      <c r="AD64" s="47"/>
-      <c r="AE64" s="47"/>
-      <c r="AF64" s="47"/>
-      <c r="AG64" s="47"/>
-      <c r="AH64" s="47"/>
       <c r="AI64" s="32"/>
       <c r="AO64" s="31"/>
-      <c r="AP64" s="47"/>
-      <c r="AQ64" s="47"/>
-      <c r="AR64" s="47"/>
-      <c r="AS64" s="47"/>
-      <c r="AT64" s="47"/>
-      <c r="AU64" s="47"/>
-      <c r="AV64" s="47"/>
-      <c r="AW64" s="47"/>
-      <c r="AX64" s="47"/>
-      <c r="AY64" s="47"/>
-      <c r="AZ64" s="47"/>
       <c r="BA64" s="32"/>
     </row>
     <row r="65" spans="2:53" x14ac:dyDescent="0.45">
@@ -19473,7 +19420,7 @@
     </row>
     <row r="69" spans="2:53" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B69" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="74" spans="2:53" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -19576,10 +19523,10 @@
       <c r="C21" s="31"/>
       <c r="I21" s="32"/>
       <c r="M21" t="s">
+        <v>305</v>
+      </c>
+      <c r="X21" t="s">
         <v>306</v>
-      </c>
-      <c r="X21" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="22" spans="3:24" x14ac:dyDescent="0.45">

--- a/ゲーム制作資料/全体概要.xlsx
+++ b/ゲーム制作資料/全体概要.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲーム制作資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\buster-shooter\ゲーム制作資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDC6D4F-2476-497F-BCA1-EE7DA9328892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2335C018-65C7-48E2-9CFB-4E26C6A46741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="7" xr2:uid="{92B53D5B-1DF6-4B5A-BEE7-EE8E3CAF1BDF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="4" xr2:uid="{92B53D5B-1DF6-4B5A-BEE7-EE8E3CAF1BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="全体概要" sheetId="6" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="309">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -2415,6 +2415,47 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左クリック</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵にあたって被弾したら点滅する。点滅している間は無敵。無敵と点滅の時間は１秒</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒダン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ムテキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ムテキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ビョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -15444,7 +15485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3B0319-5547-4637-BF71-73227FB167EA}">
   <dimension ref="A1:AI63"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
@@ -17234,8 +17275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7169685A-C1C9-4D2B-8F76-05C9115260E0}">
   <dimension ref="A1:AQ93"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="AE76" sqref="AE76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -17705,29 +17746,39 @@
       <c r="S76" s="34"/>
       <c r="T76" s="35"/>
     </row>
-    <row r="86" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="4:39" x14ac:dyDescent="0.45">
+      <c r="Z80" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="Z81" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86"/>
       <c r="C86" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C88" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
       <c r="I90" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
       <c r="D91" t="s">
         <v>177</v>
       </c>
       <c r="H91" s="2"/>
     </row>
-    <row r="93" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C93" s="8" t="s">
         <v>17</v>
       </c>
@@ -18483,7 +18534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4779348F-C110-484A-B833-41753E3F1C60}">
   <dimension ref="A1:BA74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N73" sqref="N73"/>
     </sheetView>
   </sheetViews>

--- a/ゲーム制作資料/全体概要.xlsx
+++ b/ゲーム制作資料/全体概要.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲーム制作資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E24BEA1-1B6D-43B4-B86C-9EAFAB8C07D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC05851D-6E64-407A-B23E-7A8F36538966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="10" xr2:uid="{92B53D5B-1DF6-4B5A-BEE7-EE8E3CAF1BDF}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" firstSheet="3" activeTab="10" xr2:uid="{92B53D5B-1DF6-4B5A-BEE7-EE8E3CAF1BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="全体概要" sheetId="6" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="385">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -3173,6 +3173,187 @@
     <t>スライムのデザインにしました</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>クリア画面表示</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示画像テキスト</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GAME CLEAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>imageファイルに画像があります</t>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー画面表示</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが画面外まで消えたら、画像テキストを表示してください</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示テキスト</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GAME OVER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.敵に3回当たったらゲームオーバーです</t>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.ゲームオーバーになったら、プレイヤーを操作不可にして、敵をすべて静止させてください</t>
+    <rPh sb="21" eb="23">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.画面のど真ん中に、ゲームオーバーを表示してください</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.ゲームオーバー処理をしてください</t>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.２秒後にタイトルに戻ってください</t>
+    <rPh sb="3" eb="5">
+      <t>ビョウゴ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.２秒後にタイトルに戻ってください</t>
+    <rPh sb="3" eb="5">
+      <t>ビョウゴ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.画面のど真ん中に、大きくゲームクリア表示をしてください</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ゴールに到達したら、プレイヤーを操作不可にして、敵をすべて静止させてください</t>
+    <rPh sb="6" eb="8">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -3182,7 +3363,7 @@
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3276,6 +3457,14 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3700,13 +3889,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13121,8 +13310,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="1097280" y="7345680"/>
-          <a:ext cx="281940" cy="548640"/>
+          <a:off x="1103947" y="7651433"/>
+          <a:ext cx="291465" cy="556260"/>
           <a:chOff x="4091940" y="5669280"/>
           <a:chExt cx="563880" cy="1318260"/>
         </a:xfrm>
@@ -13342,8 +13531,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="7033064">
-          <a:off x="1676400" y="7399020"/>
-          <a:ext cx="281940" cy="548640"/>
+          <a:off x="1685925" y="7709535"/>
+          <a:ext cx="300990" cy="556260"/>
           <a:chOff x="4091940" y="5669280"/>
           <a:chExt cx="563880" cy="1318260"/>
         </a:xfrm>
@@ -13563,8 +13752,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="8172370">
-          <a:off x="2171700" y="7353300"/>
-          <a:ext cx="281940" cy="548640"/>
+          <a:off x="2194560" y="7658100"/>
+          <a:ext cx="285750" cy="567690"/>
           <a:chOff x="4091940" y="5669280"/>
           <a:chExt cx="563880" cy="1318260"/>
         </a:xfrm>
@@ -13784,8 +13973,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="2773680" y="7292340"/>
-          <a:ext cx="281940" cy="548640"/>
+          <a:off x="2807970" y="7587615"/>
+          <a:ext cx="285750" cy="577215"/>
           <a:chOff x="4091940" y="5669280"/>
           <a:chExt cx="563880" cy="1318260"/>
         </a:xfrm>
@@ -14005,8 +14194,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="13587030">
-          <a:off x="3307080" y="7315200"/>
-          <a:ext cx="281940" cy="548640"/>
+          <a:off x="3344227" y="7620953"/>
+          <a:ext cx="291465" cy="556260"/>
           <a:chOff x="4091940" y="5669280"/>
           <a:chExt cx="563880" cy="1318260"/>
         </a:xfrm>
@@ -14226,8 +14415,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="15804010">
-          <a:off x="3939540" y="7254240"/>
-          <a:ext cx="281940" cy="548640"/>
+          <a:off x="3984307" y="7559993"/>
+          <a:ext cx="291465" cy="556260"/>
           <a:chOff x="4091940" y="5669280"/>
           <a:chExt cx="563880" cy="1318260"/>
         </a:xfrm>
@@ -14447,8 +14636,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="18987629">
-          <a:off x="4511040" y="7246620"/>
-          <a:ext cx="281940" cy="548640"/>
+          <a:off x="4568190" y="7541895"/>
+          <a:ext cx="285750" cy="577215"/>
           <a:chOff x="4091940" y="5669280"/>
           <a:chExt cx="563880" cy="1318260"/>
         </a:xfrm>
@@ -14668,8 +14857,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5044440" y="7239000"/>
-          <a:ext cx="281940" cy="548640"/>
+          <a:off x="5109210" y="7534275"/>
+          <a:ext cx="285750" cy="577215"/>
           <a:chOff x="4091940" y="5669280"/>
           <a:chExt cx="563880" cy="1318260"/>
         </a:xfrm>
@@ -14889,8 +15078,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="1389549">
-          <a:off x="5539740" y="7231380"/>
-          <a:ext cx="281940" cy="548640"/>
+          <a:off x="5608320" y="7526655"/>
+          <a:ext cx="285750" cy="577215"/>
           <a:chOff x="4091940" y="5669280"/>
           <a:chExt cx="563880" cy="1318260"/>
         </a:xfrm>
@@ -15110,8 +15299,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="6073140" y="7261860"/>
-          <a:ext cx="281940" cy="548640"/>
+          <a:off x="6148387" y="7567613"/>
+          <a:ext cx="291465" cy="556260"/>
           <a:chOff x="4091940" y="5669280"/>
           <a:chExt cx="563880" cy="1318260"/>
         </a:xfrm>
@@ -15952,7 +16141,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>190434</xdr:colOff>
+      <xdr:colOff>156817</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>70485</xdr:rowOff>
     </xdr:to>
@@ -15996,7 +16185,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
-      <xdr:colOff>138243</xdr:colOff>
+      <xdr:colOff>138242</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>89807</xdr:rowOff>
     </xdr:to>
@@ -16040,7 +16229,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>126</xdr:col>
-      <xdr:colOff>74990</xdr:colOff>
+      <xdr:colOff>74991</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>140154</xdr:rowOff>
     </xdr:to>
@@ -16584,13 +16773,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>233081</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>225462</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>225461</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16644,13 +16833,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>26896</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>26895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>224119</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>170329</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16704,13 +16893,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>197223</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>19272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>80680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16764,13 +16953,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>10308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>225462</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>10308</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16824,13 +17013,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>215155</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>188259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>107576</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>71717</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16884,13 +17073,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>10308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>225462</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>10308</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16944,13 +17133,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>10308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>225462</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>10308</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17004,13 +17193,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>80683</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>62752</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>206186</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>179293</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17064,13 +17253,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>225462</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17124,13 +17313,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>185057</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>130629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>211952</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>192037</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17184,13 +17373,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>225462</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17244,13 +17433,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>65314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>26895</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>126722</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17304,13 +17493,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>217714</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>217714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>214576</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>217714</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17364,13 +17553,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>140588</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>152404</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>27822</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17427,13 +17616,13 @@
     <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>32657</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>59552</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>104951</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17487,13 +17676,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>10885</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>7747</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17547,13 +17736,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>140588</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>928</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>119743</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>163289</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17610,13 +17799,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>10308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>225462</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>10308</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17670,13 +17859,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>119743</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>195943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>12164</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>79401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17730,13 +17919,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>206829</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>65315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>195944</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17790,13 +17979,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>174170</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>119741</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>206829</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17850,13 +18039,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>10308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>225462</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>10308</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17910,13 +18099,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>130629</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>185058</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17970,13 +18159,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>225462</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18030,13 +18219,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>21772</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>43542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>10885</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>10885</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18090,13 +18279,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>32656</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>228599</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18150,13 +18339,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>32656</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>228599</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18265,7 +18454,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>179379</xdr:colOff>
+      <xdr:colOff>179380</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>53873</xdr:rowOff>
     </xdr:to>
@@ -18306,6 +18495,644 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>225462</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="楕円 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F565DD-35DA-45BA-8E50-3F2C37B2D17A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1804147" y="43299529"/>
+          <a:ext cx="225462" cy="235324"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="ハート 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E90EE2F-B27B-458B-B51D-65D07D56D6BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1377684" y="41931130"/>
+          <a:ext cx="213230" cy="202667"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="ハート 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F924AB2-D56C-4FFC-9E8F-7C2ACB710542}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590915" y="41920244"/>
+          <a:ext cx="217713" cy="195943"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="ハート 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8333AA1-2403-4557-9B5E-48C42FB9B2DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1815033" y="41920244"/>
+          <a:ext cx="217713" cy="195943"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>225462</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="楕円 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB01E286-C594-417D-8FAE-88950958CF23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1804147" y="38593059"/>
+          <a:ext cx="225462" cy="235323"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="ハート 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85B8F268-4C71-437A-B811-BF21DFAD815A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1377684" y="37224660"/>
+          <a:ext cx="213230" cy="202666"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="ハート 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92DAA6A1-C1BA-4A3F-99FC-60F07CA189DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590915" y="37213774"/>
+          <a:ext cx="217713" cy="195943"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="ハート 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9174D686-37FC-43FD-B59C-56C2FAF461B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1815033" y="37213774"/>
+          <a:ext cx="217713" cy="195943"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>224120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>89649</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="テキスト ボックス 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0CACA3A-284B-6D3A-D417-6E5BC7F14FA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2723029" y="37640561"/>
+          <a:ext cx="2465294" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GAME CLEAR</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="テキスト ボックス 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7951567C-A085-4B82-9328-86941FC4D4F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3092823" y="54090794"/>
+          <a:ext cx="2465294" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GAME OVER</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18325,9 +19152,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -18365,7 +19192,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -18471,7 +19298,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -18613,7 +19440,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -18627,129 +19454,129 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" s="3" customFormat="1">
       <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" s="5" customFormat="1">
       <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" s="5" customFormat="1">
       <c r="B7" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4">
       <c r="D10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4">
       <c r="D11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4">
       <c r="D12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4">
       <c r="D13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4">
       <c r="D14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:4">
       <c r="D15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:3" s="5" customFormat="1">
       <c r="B17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3">
       <c r="C20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:3">
       <c r="C21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:3">
       <c r="C22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:3">
       <c r="C23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:3">
       <c r="C24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:3">
       <c r="C25" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:3">
       <c r="C26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:3">
       <c r="C27" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:3">
       <c r="C28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:3">
       <c r="C29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:3">
       <c r="B31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:2" s="1" customFormat="1">
       <c r="B36" s="13" t="s">
         <v>75</v>
       </c>
@@ -18769,12 +19596,12 @@
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="3" customFormat="1">
       <c r="A1" s="37" t="s">
         <v>190</v>
       </c>
@@ -18782,7 +19609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" s="5" customFormat="1">
       <c r="A3"/>
       <c r="C3" s="5" t="s">
         <v>5</v>
@@ -18791,12 +19618,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15">
       <c r="C5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15">
       <c r="C6" t="s">
         <v>233</v>
       </c>
@@ -18804,37 +19631,37 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15">
       <c r="C7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" s="5" customFormat="1">
       <c r="C9" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15">
       <c r="C11" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15">
       <c r="C12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" s="5" customFormat="1">
       <c r="C14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" s="5" customFormat="1">
       <c r="C16" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:24">
       <c r="E19" t="s">
         <v>0</v>
       </c>
@@ -18842,12 +19669,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:24" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:24" s="5" customFormat="1">
       <c r="C22" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:24">
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -18856,11 +19683,11 @@
       <c r="H24" s="28"/>
       <c r="I24" s="29"/>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:24">
       <c r="C25" s="30"/>
       <c r="I25" s="31"/>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:24">
       <c r="C26" s="30"/>
       <c r="I26" s="31"/>
       <c r="M26" t="s">
@@ -18870,15 +19697,15 @@
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:24">
       <c r="C27" s="30"/>
       <c r="I27" s="31"/>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:24">
       <c r="C28" s="30"/>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:24">
       <c r="C29" s="32"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
@@ -18887,12 +19714,12 @@
       <c r="H29" s="33"/>
       <c r="I29" s="34"/>
     </row>
-    <row r="31" spans="3:24" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:24" s="9" customFormat="1">
       <c r="D31" s="12" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="37" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:3" s="3" customFormat="1">
       <c r="C37" s="8" t="s">
         <v>17</v>
       </c>
@@ -18907,17 +19734,19 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D571275-5090-4132-914D-6B73F7259A80}">
-  <dimension ref="A1:BG203"/>
+  <dimension ref="A1:BG238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A225" sqref="A225"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="3" customFormat="1">
       <c r="A1" s="37" t="s">
         <v>190</v>
       </c>
@@ -18925,7 +19754,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" s="5" customFormat="1">
       <c r="A3"/>
       <c r="C3" s="5" t="s">
         <v>5</v>
@@ -18934,98 +19763,98 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" s="9" customFormat="1">
       <c r="C5" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7">
       <c r="D6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7">
       <c r="D7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" s="9" customFormat="1">
       <c r="C9" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" s="9" customFormat="1">
       <c r="C11" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7">
       <c r="D13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7">
       <c r="D14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7">
       <c r="D15" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7">
       <c r="D16" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:38">
       <c r="D17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:38" s="9" customFormat="1">
       <c r="C19" s="12" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:38">
       <c r="D20" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:38">
       <c r="D21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:38" s="5" customFormat="1">
       <c r="C23" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:38">
       <c r="C25" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:38">
       <c r="C26" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:38" s="5" customFormat="1">
       <c r="A28"/>
       <c r="C28" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:38">
       <c r="A29" s="20">
         <v>45618</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:38">
       <c r="F30" t="s">
         <v>0</v>
       </c>
@@ -19046,21 +19875,21 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="P32" s="58" t="s">
+    <row r="32" spans="1:38">
+      <c r="P32" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="58"/>
+      <c r="AA32" s="58"/>
       <c r="AC32" s="5" t="s">
         <v>346</v>
       </c>
@@ -19076,12 +19905,12 @@
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:42">
       <c r="P33" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:42">
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
       <c r="F35" s="35"/>
@@ -19111,7 +19940,7 @@
       <c r="AO35" s="35"/>
       <c r="AP35" s="35"/>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:42">
       <c r="D36" s="35"/>
       <c r="G36" t="s">
         <v>158</v>
@@ -19123,7 +19952,7 @@
       </c>
       <c r="AP36" s="35"/>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:42">
       <c r="D37" s="35"/>
       <c r="Q37" s="35"/>
       <c r="T37" t="s">
@@ -19132,19 +19961,19 @@
       <c r="AC37" s="35"/>
       <c r="AP37" s="35"/>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:42">
       <c r="D38" s="35"/>
       <c r="Q38" s="35"/>
       <c r="AC38" s="35"/>
       <c r="AP38" s="35"/>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:42">
       <c r="D39" s="35"/>
       <c r="Q39" s="9"/>
       <c r="AC39" s="9"/>
       <c r="AP39" s="35"/>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:42">
       <c r="D40" s="35"/>
       <c r="Q40" s="9" t="s">
         <v>140</v>
@@ -19154,7 +19983,7 @@
       </c>
       <c r="AP40" s="35"/>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:42">
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
       <c r="F41" s="35"/>
@@ -19184,78 +20013,78 @@
       <c r="AO41" s="35"/>
       <c r="AP41" s="35"/>
     </row>
-    <row r="44" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:42" s="5" customFormat="1">
       <c r="A44"/>
       <c r="C44" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:42">
       <c r="D46" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:42">
       <c r="E47" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:42">
       <c r="E48" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:5">
       <c r="E49" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:5">
       <c r="E50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:5">
       <c r="E51" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:5">
       <c r="D52" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:5">
       <c r="D54" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="56" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:5" s="5" customFormat="1">
       <c r="C56" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:5">
       <c r="D58" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:5">
       <c r="D59" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:5">
       <c r="D60" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="10:10">
       <c r="J67" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11">
       <c r="A99" s="20">
         <v>45643</v>
       </c>
@@ -19272,47 +20101,47 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
     </row>
-    <row r="100" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" s="5" customFormat="1">
       <c r="C100" s="5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11">
       <c r="D102" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" s="5" customFormat="1">
       <c r="C104" s="5" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11">
       <c r="D106" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11">
       <c r="D107" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11">
       <c r="D108" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" s="5" customFormat="1">
       <c r="C110" s="5" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11">
       <c r="D112" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:22">
       <c r="D113" t="s">
         <v>359</v>
       </c>
@@ -19320,34 +20149,34 @@
         <v>360</v>
       </c>
     </row>
-    <row r="116" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:22" s="5" customFormat="1">
       <c r="C116" s="5" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:22">
       <c r="D118" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="123" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:22" s="5" customFormat="1">
       <c r="A123"/>
       <c r="C123" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:22">
       <c r="E124" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="126" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:22" s="5" customFormat="1">
       <c r="A126"/>
       <c r="C126" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:22">
       <c r="D128" t="s">
         <v>194</v>
       </c>
@@ -19355,7 +20184,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:21">
       <c r="D130" s="40" t="s">
         <v>195</v>
       </c>
@@ -19370,7 +20199,7 @@
       </c>
       <c r="L130" s="39"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:21">
       <c r="D131" s="30" t="s">
         <v>67</v>
       </c>
@@ -19379,7 +20208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:21">
       <c r="D132" s="30" t="s">
         <v>236</v>
       </c>
@@ -19388,7 +20217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:21">
       <c r="D133" s="30" t="s">
         <v>240</v>
       </c>
@@ -19397,7 +20226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:21">
       <c r="D134" s="30" t="s">
         <v>68</v>
       </c>
@@ -19406,7 +20235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:21">
       <c r="D135" s="30" t="s">
         <v>232</v>
       </c>
@@ -19415,7 +20244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:21">
       <c r="D136" s="32" t="s">
         <v>69</v>
       </c>
@@ -19430,7 +20259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:21">
       <c r="D137" s="54" t="s">
         <v>297</v>
       </c>
@@ -19445,18 +20274,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:21" s="5" customFormat="1">
       <c r="A139"/>
       <c r="C139" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:21">
       <c r="D141" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:21">
       <c r="F143" s="27"/>
       <c r="G143" s="28"/>
       <c r="H143" s="28"/>
@@ -19472,7 +20301,7 @@
       <c r="T143" s="28"/>
       <c r="U143" s="29"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:21">
       <c r="F144" s="30"/>
       <c r="K144" s="35"/>
       <c r="L144" s="31"/>
@@ -19480,7 +20309,7 @@
       <c r="R144" s="35"/>
       <c r="U144" s="31"/>
     </row>
-    <row r="145" spans="3:26" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:27">
       <c r="F145" s="32"/>
       <c r="G145" s="33"/>
       <c r="H145" s="33"/>
@@ -19496,558 +20325,794 @@
       <c r="T145" s="33"/>
       <c r="U145" s="34"/>
     </row>
-    <row r="147" spans="3:26" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:27">
       <c r="P147" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="152" spans="3:26" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C152" s="5" t="s">
+    <row r="151" spans="1:27" s="6" customFormat="1">
+      <c r="C151" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27">
+      <c r="A152" s="20">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27">
+      <c r="B153" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27">
+      <c r="C154" t="s">
+        <v>383</v>
+      </c>
+      <c r="U154" s="59" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27">
+      <c r="C155" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27">
+      <c r="C157" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27">
+      <c r="E158" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27">
+      <c r="E160" s="27"/>
+      <c r="F160" s="28"/>
+      <c r="G160" s="28"/>
+      <c r="H160" s="28"/>
+      <c r="I160" s="28"/>
+      <c r="J160" s="28"/>
+      <c r="K160" s="28"/>
+      <c r="L160" s="28"/>
+      <c r="M160" s="28"/>
+      <c r="N160" s="28"/>
+      <c r="O160" s="28"/>
+      <c r="P160" s="28"/>
+      <c r="Q160" s="28"/>
+      <c r="R160" s="28"/>
+      <c r="S160" s="28"/>
+      <c r="T160" s="28"/>
+      <c r="U160" s="28"/>
+      <c r="V160" s="28"/>
+      <c r="W160" s="28"/>
+      <c r="X160" s="28"/>
+      <c r="Y160" s="28"/>
+      <c r="Z160" s="28"/>
+      <c r="AA160" s="29"/>
+    </row>
+    <row r="161" spans="3:27">
+      <c r="E161" s="30"/>
+      <c r="AA161" s="31"/>
+    </row>
+    <row r="162" spans="3:27">
+      <c r="E162" s="30"/>
+      <c r="AA162" s="31"/>
+    </row>
+    <row r="163" spans="3:27">
+      <c r="E163" s="30"/>
+      <c r="AA163" s="31"/>
+    </row>
+    <row r="164" spans="3:27">
+      <c r="E164" s="30"/>
+      <c r="AA164" s="31"/>
+    </row>
+    <row r="165" spans="3:27">
+      <c r="E165" s="30"/>
+      <c r="AA165" s="31"/>
+    </row>
+    <row r="166" spans="3:27">
+      <c r="E166" s="32"/>
+      <c r="F166" s="33"/>
+      <c r="G166" s="33"/>
+      <c r="H166" s="33"/>
+      <c r="I166" s="33"/>
+      <c r="J166" s="33"/>
+      <c r="K166" s="33"/>
+      <c r="L166" s="33"/>
+      <c r="M166" s="33"/>
+      <c r="N166" s="4"/>
+      <c r="O166" s="33"/>
+      <c r="P166" s="4"/>
+      <c r="Q166" s="33"/>
+      <c r="R166" s="33"/>
+      <c r="S166" s="33"/>
+      <c r="T166" s="33"/>
+      <c r="U166" s="33"/>
+      <c r="V166" s="33"/>
+      <c r="W166" s="33"/>
+      <c r="X166" s="33"/>
+      <c r="Y166" s="33"/>
+      <c r="Z166" s="33"/>
+      <c r="AA166" s="34"/>
+    </row>
+    <row r="170" spans="3:27" s="5" customFormat="1">
+      <c r="C170" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="154" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="E154" t="s">
+    <row r="172" spans="3:27">
+      <c r="E172" t="s">
         <v>292</v>
       </c>
-      <c r="U154" t="s">
+      <c r="U172" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="156" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="E156" s="27"/>
-      <c r="F156" s="28"/>
-      <c r="G156" s="28"/>
-      <c r="H156" s="28"/>
-      <c r="I156" s="28"/>
-      <c r="J156" s="28"/>
-      <c r="K156" s="28"/>
-      <c r="L156" s="28"/>
-      <c r="M156" s="29"/>
-      <c r="R156" s="27"/>
-      <c r="S156" s="28"/>
-      <c r="T156" s="28"/>
-      <c r="U156" s="28"/>
-      <c r="V156" s="28"/>
-      <c r="W156" s="28"/>
-      <c r="X156" s="28"/>
-      <c r="Y156" s="28"/>
-      <c r="Z156" s="29"/>
-    </row>
-    <row r="157" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="E157" s="30"/>
-      <c r="M157" s="31"/>
-      <c r="R157" s="30"/>
-      <c r="U157" t="s">
+    <row r="174" spans="3:27">
+      <c r="E174" s="27"/>
+      <c r="F174" s="28"/>
+      <c r="G174" s="28"/>
+      <c r="H174" s="28"/>
+      <c r="I174" s="28"/>
+      <c r="J174" s="28"/>
+      <c r="K174" s="28"/>
+      <c r="L174" s="28"/>
+      <c r="M174" s="29"/>
+      <c r="R174" s="27"/>
+      <c r="S174" s="28"/>
+      <c r="T174" s="28"/>
+      <c r="U174" s="28"/>
+      <c r="V174" s="28"/>
+      <c r="W174" s="28"/>
+      <c r="X174" s="28"/>
+      <c r="Y174" s="28"/>
+      <c r="Z174" s="29"/>
+    </row>
+    <row r="175" spans="3:27">
+      <c r="E175" s="30"/>
+      <c r="M175" s="31"/>
+      <c r="R175" s="30"/>
+      <c r="U175" t="s">
         <v>294</v>
       </c>
-      <c r="Z157" s="31"/>
-    </row>
-    <row r="158" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="E158" s="30"/>
-      <c r="I158" t="s">
+      <c r="Z175" s="31"/>
+    </row>
+    <row r="176" spans="3:27">
+      <c r="E176" s="30"/>
+      <c r="I176" t="s">
         <v>235</v>
       </c>
-      <c r="M158" s="31"/>
-      <c r="R158" s="30"/>
-      <c r="Z158" s="31"/>
-    </row>
-    <row r="159" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="E159" s="30"/>
-      <c r="K159" s="4"/>
-      <c r="M159" s="31"/>
-      <c r="R159" s="30"/>
-      <c r="X159" s="4"/>
-      <c r="Z159" s="31"/>
-    </row>
-    <row r="160" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="E160" s="30"/>
-      <c r="M160" s="31"/>
-      <c r="R160" s="30"/>
-      <c r="Z160" s="31"/>
-    </row>
-    <row r="161" spans="3:53" x14ac:dyDescent="0.45">
-      <c r="E161" s="30"/>
-      <c r="M161" s="31"/>
-      <c r="R161" s="30"/>
-      <c r="Z161" s="31"/>
-    </row>
-    <row r="162" spans="3:53" x14ac:dyDescent="0.45">
-      <c r="E162" s="32"/>
-      <c r="F162" s="33"/>
-      <c r="G162" s="33"/>
-      <c r="H162" s="33"/>
-      <c r="I162" s="33"/>
-      <c r="J162" s="33"/>
-      <c r="K162" s="33"/>
-      <c r="L162" s="33"/>
-      <c r="M162" s="34"/>
-      <c r="R162" s="32"/>
-      <c r="S162" s="33"/>
-      <c r="T162" s="33"/>
-      <c r="U162" s="33"/>
-      <c r="V162" s="33"/>
-      <c r="W162" s="33"/>
-      <c r="X162" s="33"/>
-      <c r="Y162" s="33"/>
-      <c r="Z162" s="34"/>
-    </row>
-    <row r="164" spans="3:53" x14ac:dyDescent="0.45">
-      <c r="C164" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="165" spans="3:53" x14ac:dyDescent="0.45">
-      <c r="E165" s="27"/>
-      <c r="F165" s="28"/>
-      <c r="G165" s="28"/>
-      <c r="H165" s="28"/>
-      <c r="I165" s="28"/>
-      <c r="J165" s="28"/>
-      <c r="K165" s="28"/>
-      <c r="L165" s="28"/>
-      <c r="M165" s="28"/>
-      <c r="N165" s="28"/>
-      <c r="O165" s="28"/>
-      <c r="P165" s="28"/>
-      <c r="Q165" s="28"/>
-      <c r="R165" s="28"/>
-      <c r="S165" s="28"/>
-      <c r="T165" s="28"/>
-      <c r="U165" s="28"/>
-      <c r="V165" s="28"/>
-      <c r="W165" s="28"/>
-      <c r="X165" s="28"/>
-      <c r="Y165" s="28"/>
-      <c r="Z165" s="28"/>
-      <c r="AA165" s="29"/>
-    </row>
-    <row r="166" spans="3:53" x14ac:dyDescent="0.45">
-      <c r="E166" s="30"/>
-      <c r="AA166" s="31"/>
-    </row>
-    <row r="167" spans="3:53" x14ac:dyDescent="0.45">
-      <c r="E167" s="30"/>
-      <c r="AA167" s="31"/>
-    </row>
-    <row r="168" spans="3:53" x14ac:dyDescent="0.45">
-      <c r="E168" s="30"/>
-      <c r="AA168" s="31"/>
-    </row>
-    <row r="169" spans="3:53" x14ac:dyDescent="0.45">
-      <c r="E169" s="30"/>
-      <c r="AA169" s="31"/>
-    </row>
-    <row r="170" spans="3:53" x14ac:dyDescent="0.45">
-      <c r="E170" s="30"/>
-      <c r="AA170" s="31"/>
-    </row>
-    <row r="171" spans="3:53" x14ac:dyDescent="0.45">
-      <c r="E171" s="32"/>
-      <c r="F171" s="33"/>
-      <c r="G171" s="33"/>
-      <c r="H171" s="33"/>
-      <c r="I171" s="33"/>
-      <c r="J171" s="33"/>
-      <c r="K171" s="33"/>
-      <c r="L171" s="33"/>
-      <c r="M171" s="33"/>
-      <c r="N171" s="4"/>
-      <c r="O171" s="33"/>
-      <c r="P171" s="4"/>
-      <c r="Q171" s="33"/>
-      <c r="R171" s="33"/>
-      <c r="S171" s="33"/>
-      <c r="T171" s="33"/>
-      <c r="U171" s="33"/>
-      <c r="V171" s="33"/>
-      <c r="W171" s="33"/>
-      <c r="X171" s="33"/>
-      <c r="Y171" s="33"/>
-      <c r="Z171" s="33"/>
-      <c r="AA171" s="34"/>
-    </row>
-    <row r="173" spans="3:53" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C173" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="176" spans="3:53" x14ac:dyDescent="0.45">
-      <c r="E176" s="27"/>
-      <c r="F176" s="28"/>
-      <c r="G176" s="28"/>
-      <c r="H176" s="28"/>
-      <c r="I176" s="28"/>
-      <c r="J176" s="28"/>
-      <c r="K176" s="28"/>
-      <c r="L176" s="28"/>
-      <c r="M176" s="29"/>
-      <c r="R176" s="27"/>
-      <c r="S176" s="28"/>
-      <c r="T176" s="28"/>
-      <c r="U176" s="28"/>
-      <c r="V176" s="28"/>
-      <c r="W176" s="28"/>
-      <c r="X176" s="28"/>
-      <c r="Y176" s="28"/>
-      <c r="Z176" s="29"/>
-      <c r="AE176" s="27"/>
-      <c r="AF176" s="28"/>
-      <c r="AG176" s="28"/>
-      <c r="AH176" s="28"/>
-      <c r="AI176" s="28"/>
-      <c r="AJ176" s="28"/>
-      <c r="AK176" s="28"/>
-      <c r="AL176" s="28"/>
-      <c r="AM176" s="29"/>
-      <c r="AS176" s="27"/>
-      <c r="AT176" s="28"/>
-      <c r="AU176" s="28"/>
-      <c r="AV176" s="28"/>
-      <c r="AW176" s="28"/>
-      <c r="AX176" s="28"/>
-      <c r="AY176" s="28"/>
-      <c r="AZ176" s="28"/>
-      <c r="BA176" s="29"/>
-    </row>
-    <row r="177" spans="4:59" x14ac:dyDescent="0.45">
+      <c r="M176" s="31"/>
+      <c r="R176" s="30"/>
+      <c r="Z176" s="31"/>
+    </row>
+    <row r="177" spans="1:27">
       <c r="E177" s="30"/>
+      <c r="K177" s="4"/>
       <c r="M177" s="31"/>
       <c r="R177" s="30"/>
+      <c r="X177" s="4"/>
       <c r="Z177" s="31"/>
-      <c r="AE177" s="30"/>
-      <c r="AM177" s="31"/>
-      <c r="AS177" s="30"/>
-      <c r="BA177" s="31"/>
-    </row>
-    <row r="178" spans="4:59" x14ac:dyDescent="0.45">
+    </row>
+    <row r="178" spans="1:27">
       <c r="E178" s="30"/>
       <c r="M178" s="31"/>
       <c r="R178" s="30"/>
-      <c r="V178" t="s">
-        <v>235</v>
-      </c>
       <c r="Z178" s="31"/>
-      <c r="AE178" s="30"/>
-      <c r="AI178" t="s">
-        <v>245</v>
-      </c>
-      <c r="AM178" s="31"/>
-      <c r="AS178" s="30"/>
-      <c r="AW178" t="s">
-        <v>246</v>
-      </c>
-      <c r="BA178" s="31"/>
-    </row>
-    <row r="179" spans="4:59" x14ac:dyDescent="0.45">
+    </row>
+    <row r="179" spans="1:27">
       <c r="E179" s="30"/>
-      <c r="K179" s="4"/>
       <c r="M179" s="31"/>
       <c r="R179" s="30"/>
-      <c r="X179" s="4"/>
       <c r="Z179" s="31"/>
-      <c r="AE179" s="30"/>
-      <c r="AK179" s="4"/>
-      <c r="AM179" s="31"/>
-      <c r="AS179" s="30"/>
-      <c r="AY179" s="4"/>
-      <c r="BA179" s="31"/>
-    </row>
-    <row r="180" spans="4:59" x14ac:dyDescent="0.45">
-      <c r="E180" s="30"/>
-      <c r="M180" s="31"/>
-      <c r="R180" s="30"/>
-      <c r="Z180" s="31"/>
-      <c r="AE180" s="30"/>
-      <c r="AM180" s="31"/>
-      <c r="AS180" s="30"/>
-      <c r="BA180" s="31"/>
-    </row>
-    <row r="181" spans="4:59" x14ac:dyDescent="0.45">
-      <c r="E181" s="30"/>
-      <c r="M181" s="31"/>
-      <c r="R181" s="30"/>
-      <c r="Z181" s="31"/>
-      <c r="AE181" s="30"/>
-      <c r="AM181" s="31"/>
-      <c r="AS181" s="30"/>
-      <c r="BA181" s="31"/>
-    </row>
-    <row r="182" spans="4:59" x14ac:dyDescent="0.45">
-      <c r="E182" s="32"/>
-      <c r="F182" s="33"/>
-      <c r="G182" s="33"/>
-      <c r="H182" s="33"/>
-      <c r="I182" s="33"/>
-      <c r="J182" s="33"/>
-      <c r="K182" s="33"/>
-      <c r="L182" s="33"/>
-      <c r="M182" s="34"/>
-      <c r="R182" s="32"/>
-      <c r="S182" s="33"/>
-      <c r="T182" s="33"/>
-      <c r="U182" s="33"/>
-      <c r="V182" s="33"/>
-      <c r="W182" s="33"/>
-      <c r="X182" s="33"/>
-      <c r="Y182" s="33"/>
-      <c r="Z182" s="34"/>
-      <c r="AE182" s="32"/>
-      <c r="AF182" s="33"/>
-      <c r="AG182" s="33"/>
-      <c r="AH182" s="33"/>
-      <c r="AI182" s="33"/>
-      <c r="AJ182" s="33"/>
-      <c r="AK182" s="33"/>
-      <c r="AL182" s="33"/>
-      <c r="AM182" s="34"/>
-      <c r="AS182" s="32"/>
-      <c r="AT182" s="33"/>
-      <c r="AU182" s="33"/>
-      <c r="AV182" s="33"/>
-      <c r="AW182" s="33"/>
-      <c r="AX182" s="33"/>
-      <c r="AY182" s="33"/>
-      <c r="AZ182" s="33"/>
-      <c r="BA182" s="34"/>
-    </row>
-    <row r="184" spans="4:59" x14ac:dyDescent="0.45">
-      <c r="D184" t="s">
+    </row>
+    <row r="180" spans="1:27">
+      <c r="E180" s="32"/>
+      <c r="F180" s="33"/>
+      <c r="G180" s="33"/>
+      <c r="H180" s="33"/>
+      <c r="I180" s="33"/>
+      <c r="J180" s="33"/>
+      <c r="K180" s="33"/>
+      <c r="L180" s="33"/>
+      <c r="M180" s="34"/>
+      <c r="R180" s="32"/>
+      <c r="S180" s="33"/>
+      <c r="T180" s="33"/>
+      <c r="U180" s="33"/>
+      <c r="V180" s="33"/>
+      <c r="W180" s="33"/>
+      <c r="X180" s="33"/>
+      <c r="Y180" s="33"/>
+      <c r="Z180" s="34"/>
+    </row>
+    <row r="182" spans="1:27">
+      <c r="C182" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27">
+      <c r="E183" s="27"/>
+      <c r="F183" s="28"/>
+      <c r="G183" s="28"/>
+      <c r="H183" s="28"/>
+      <c r="I183" s="28"/>
+      <c r="J183" s="28"/>
+      <c r="K183" s="28"/>
+      <c r="L183" s="28"/>
+      <c r="M183" s="28"/>
+      <c r="N183" s="28"/>
+      <c r="O183" s="28"/>
+      <c r="P183" s="28"/>
+      <c r="Q183" s="28"/>
+      <c r="R183" s="28"/>
+      <c r="S183" s="28"/>
+      <c r="T183" s="28"/>
+      <c r="U183" s="28"/>
+      <c r="V183" s="28"/>
+      <c r="W183" s="28"/>
+      <c r="X183" s="28"/>
+      <c r="Y183" s="28"/>
+      <c r="Z183" s="28"/>
+      <c r="AA183" s="29"/>
+    </row>
+    <row r="184" spans="1:27">
+      <c r="E184" s="30"/>
+      <c r="AA184" s="31"/>
+    </row>
+    <row r="185" spans="1:27">
+      <c r="E185" s="30"/>
+      <c r="AA185" s="31"/>
+    </row>
+    <row r="186" spans="1:27">
+      <c r="E186" s="30"/>
+      <c r="AA186" s="31"/>
+    </row>
+    <row r="187" spans="1:27">
+      <c r="E187" s="30"/>
+      <c r="AA187" s="31"/>
+    </row>
+    <row r="188" spans="1:27">
+      <c r="E188" s="30"/>
+      <c r="AA188" s="31"/>
+    </row>
+    <row r="189" spans="1:27">
+      <c r="E189" s="32"/>
+      <c r="F189" s="33"/>
+      <c r="G189" s="33"/>
+      <c r="H189" s="33"/>
+      <c r="I189" s="33"/>
+      <c r="J189" s="33"/>
+      <c r="K189" s="33"/>
+      <c r="L189" s="33"/>
+      <c r="M189" s="33"/>
+      <c r="N189" s="4"/>
+      <c r="O189" s="33"/>
+      <c r="P189" s="4"/>
+      <c r="Q189" s="33"/>
+      <c r="R189" s="33"/>
+      <c r="S189" s="33"/>
+      <c r="T189" s="33"/>
+      <c r="U189" s="33"/>
+      <c r="V189" s="33"/>
+      <c r="W189" s="33"/>
+      <c r="X189" s="33"/>
+      <c r="Y189" s="33"/>
+      <c r="Z189" s="33"/>
+      <c r="AA189" s="34"/>
+    </row>
+    <row r="191" spans="1:27" s="5" customFormat="1">
+      <c r="C191" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="192" spans="1:27">
+      <c r="A192" s="20">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="193" spans="2:53">
+      <c r="B193" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="194" spans="2:53">
+      <c r="C194" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="195" spans="2:53">
+      <c r="C195" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="196" spans="2:53">
+      <c r="C196" t="s">
+        <v>379</v>
+      </c>
+      <c r="T196" s="59" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="197" spans="2:53">
+      <c r="C197" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="199" spans="2:53">
+      <c r="E199" s="27"/>
+      <c r="F199" s="28"/>
+      <c r="G199" s="28"/>
+      <c r="H199" s="28"/>
+      <c r="I199" s="28"/>
+      <c r="J199" s="28"/>
+      <c r="K199" s="28"/>
+      <c r="L199" s="28"/>
+      <c r="M199" s="29"/>
+      <c r="R199" s="27"/>
+      <c r="S199" s="28"/>
+      <c r="T199" s="28"/>
+      <c r="U199" s="28"/>
+      <c r="V199" s="28"/>
+      <c r="W199" s="28"/>
+      <c r="X199" s="28"/>
+      <c r="Y199" s="28"/>
+      <c r="Z199" s="29"/>
+      <c r="AE199" s="27"/>
+      <c r="AF199" s="28"/>
+      <c r="AG199" s="28"/>
+      <c r="AH199" s="28"/>
+      <c r="AI199" s="28"/>
+      <c r="AJ199" s="28"/>
+      <c r="AK199" s="28"/>
+      <c r="AL199" s="28"/>
+      <c r="AM199" s="29"/>
+      <c r="AS199" s="27"/>
+      <c r="AT199" s="28"/>
+      <c r="AU199" s="28"/>
+      <c r="AV199" s="28"/>
+      <c r="AW199" s="28"/>
+      <c r="AX199" s="28"/>
+      <c r="AY199" s="28"/>
+      <c r="AZ199" s="28"/>
+      <c r="BA199" s="29"/>
+    </row>
+    <row r="200" spans="2:53">
+      <c r="E200" s="30"/>
+      <c r="M200" s="31"/>
+      <c r="R200" s="30"/>
+      <c r="Z200" s="31"/>
+      <c r="AE200" s="30"/>
+      <c r="AM200" s="31"/>
+      <c r="AS200" s="30"/>
+      <c r="BA200" s="31"/>
+    </row>
+    <row r="201" spans="2:53">
+      <c r="E201" s="30"/>
+      <c r="M201" s="31"/>
+      <c r="R201" s="30"/>
+      <c r="V201" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z201" s="31"/>
+      <c r="AE201" s="30"/>
+      <c r="AI201" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM201" s="31"/>
+      <c r="AS201" s="30"/>
+      <c r="AW201" t="s">
+        <v>246</v>
+      </c>
+      <c r="BA201" s="31"/>
+    </row>
+    <row r="202" spans="2:53">
+      <c r="E202" s="30"/>
+      <c r="K202" s="4"/>
+      <c r="M202" s="31"/>
+      <c r="R202" s="30"/>
+      <c r="X202" s="4"/>
+      <c r="Z202" s="31"/>
+      <c r="AE202" s="30"/>
+      <c r="AK202" s="4"/>
+      <c r="AM202" s="31"/>
+      <c r="AS202" s="30"/>
+      <c r="AY202" s="4"/>
+      <c r="BA202" s="31"/>
+    </row>
+    <row r="203" spans="2:53">
+      <c r="E203" s="30"/>
+      <c r="M203" s="31"/>
+      <c r="R203" s="30"/>
+      <c r="Z203" s="31"/>
+      <c r="AE203" s="30"/>
+      <c r="AM203" s="31"/>
+      <c r="AS203" s="30"/>
+      <c r="BA203" s="31"/>
+    </row>
+    <row r="204" spans="2:53">
+      <c r="E204" s="30"/>
+      <c r="M204" s="31"/>
+      <c r="R204" s="30"/>
+      <c r="Z204" s="31"/>
+      <c r="AE204" s="30"/>
+      <c r="AM204" s="31"/>
+      <c r="AS204" s="30"/>
+      <c r="BA204" s="31"/>
+    </row>
+    <row r="205" spans="2:53">
+      <c r="E205" s="32"/>
+      <c r="F205" s="33"/>
+      <c r="G205" s="33"/>
+      <c r="H205" s="33"/>
+      <c r="I205" s="33"/>
+      <c r="J205" s="33"/>
+      <c r="K205" s="33"/>
+      <c r="L205" s="33"/>
+      <c r="M205" s="34"/>
+      <c r="R205" s="32"/>
+      <c r="S205" s="33"/>
+      <c r="T205" s="33"/>
+      <c r="U205" s="33"/>
+      <c r="V205" s="33"/>
+      <c r="W205" s="33"/>
+      <c r="X205" s="33"/>
+      <c r="Y205" s="33"/>
+      <c r="Z205" s="34"/>
+      <c r="AE205" s="32"/>
+      <c r="AF205" s="33"/>
+      <c r="AG205" s="33"/>
+      <c r="AH205" s="33"/>
+      <c r="AI205" s="33"/>
+      <c r="AJ205" s="33"/>
+      <c r="AK205" s="33"/>
+      <c r="AL205" s="33"/>
+      <c r="AM205" s="34"/>
+      <c r="AS205" s="32"/>
+      <c r="AT205" s="33"/>
+      <c r="AU205" s="33"/>
+      <c r="AV205" s="33"/>
+      <c r="AW205" s="33"/>
+      <c r="AX205" s="33"/>
+      <c r="AY205" s="33"/>
+      <c r="AZ205" s="33"/>
+      <c r="BA205" s="34"/>
+    </row>
+    <row r="207" spans="2:53">
+      <c r="D207" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="185" spans="4:59" x14ac:dyDescent="0.45">
-      <c r="D185" t="s">
+    <row r="208" spans="2:53">
+      <c r="D208" t="s">
         <v>295</v>
       </c>
-      <c r="Y185" t="s">
+      <c r="Y208" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="186" spans="4:59" x14ac:dyDescent="0.45">
-      <c r="D186" t="s">
+    <row r="209" spans="1:59">
+      <c r="D209" t="s">
         <v>284</v>
       </c>
-      <c r="U186" t="s">
+      <c r="U209" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="188" spans="4:59" x14ac:dyDescent="0.45">
-      <c r="D188" s="27"/>
-      <c r="E188" s="28"/>
-      <c r="F188" s="28"/>
-      <c r="G188" s="28"/>
-      <c r="H188" s="28"/>
-      <c r="I188" s="28"/>
-      <c r="J188" s="28"/>
-      <c r="K188" s="28"/>
-      <c r="L188" s="28"/>
-      <c r="M188" s="28"/>
-      <c r="N188" s="29"/>
-      <c r="S188" s="27"/>
-      <c r="T188" s="28"/>
-      <c r="U188" s="28"/>
-      <c r="V188" s="28"/>
-      <c r="W188" s="28"/>
-      <c r="X188" s="28"/>
-      <c r="Y188" s="28"/>
-      <c r="Z188" s="28"/>
-      <c r="AA188" s="28"/>
-      <c r="AB188" s="28"/>
-      <c r="AC188" s="29"/>
-      <c r="AH188" s="27"/>
-      <c r="AI188" s="28"/>
-      <c r="AJ188" s="28"/>
-      <c r="AK188" s="28"/>
-      <c r="AL188" s="28"/>
-      <c r="AM188" s="28"/>
-      <c r="AN188" s="28"/>
-      <c r="AO188" s="28"/>
-      <c r="AP188" s="28"/>
-      <c r="AQ188" s="28"/>
-      <c r="AR188" s="29"/>
-      <c r="AW188" s="27"/>
-      <c r="AX188" s="28"/>
-      <c r="AY188" s="28"/>
-      <c r="AZ188" s="28"/>
-      <c r="BA188" s="28"/>
-      <c r="BB188" s="28"/>
-      <c r="BC188" s="28"/>
-      <c r="BD188" s="28"/>
-      <c r="BE188" s="28"/>
-      <c r="BF188" s="28"/>
-      <c r="BG188" s="29"/>
-    </row>
-    <row r="189" spans="4:59" x14ac:dyDescent="0.45">
-      <c r="D189" s="30"/>
-      <c r="N189" s="31"/>
-      <c r="S189" s="30"/>
-      <c r="AC189" s="31"/>
-      <c r="AH189" s="30"/>
-      <c r="AR189" s="31"/>
-      <c r="AW189" s="30"/>
-      <c r="BG189" s="31"/>
-    </row>
-    <row r="190" spans="4:59" x14ac:dyDescent="0.45">
-      <c r="D190" s="30"/>
-      <c r="N190" s="31"/>
-      <c r="S190" s="30"/>
-      <c r="AC190" s="31"/>
-      <c r="AH190" s="30"/>
-      <c r="AR190" s="31"/>
-      <c r="AW190" s="30"/>
-      <c r="BG190" s="31"/>
-    </row>
-    <row r="191" spans="4:59" x14ac:dyDescent="0.45">
-      <c r="D191" s="30"/>
-      <c r="G191" t="s">
+    <row r="211" spans="1:59">
+      <c r="D211" s="27"/>
+      <c r="E211" s="28"/>
+      <c r="F211" s="28"/>
+      <c r="G211" s="28"/>
+      <c r="H211" s="28"/>
+      <c r="I211" s="28"/>
+      <c r="J211" s="28"/>
+      <c r="K211" s="28"/>
+      <c r="L211" s="28"/>
+      <c r="M211" s="28"/>
+      <c r="N211" s="29"/>
+      <c r="S211" s="27"/>
+      <c r="T211" s="28"/>
+      <c r="U211" s="28"/>
+      <c r="V211" s="28"/>
+      <c r="W211" s="28"/>
+      <c r="X211" s="28"/>
+      <c r="Y211" s="28"/>
+      <c r="Z211" s="28"/>
+      <c r="AA211" s="28"/>
+      <c r="AB211" s="28"/>
+      <c r="AC211" s="29"/>
+      <c r="AH211" s="27"/>
+      <c r="AI211" s="28"/>
+      <c r="AJ211" s="28"/>
+      <c r="AK211" s="28"/>
+      <c r="AL211" s="28"/>
+      <c r="AM211" s="28"/>
+      <c r="AN211" s="28"/>
+      <c r="AO211" s="28"/>
+      <c r="AP211" s="28"/>
+      <c r="AQ211" s="28"/>
+      <c r="AR211" s="29"/>
+      <c r="AW211" s="27"/>
+      <c r="AX211" s="28"/>
+      <c r="AY211" s="28"/>
+      <c r="AZ211" s="28"/>
+      <c r="BA211" s="28"/>
+      <c r="BB211" s="28"/>
+      <c r="BC211" s="28"/>
+      <c r="BD211" s="28"/>
+      <c r="BE211" s="28"/>
+      <c r="BF211" s="28"/>
+      <c r="BG211" s="29"/>
+    </row>
+    <row r="212" spans="1:59">
+      <c r="D212" s="30"/>
+      <c r="N212" s="31"/>
+      <c r="S212" s="30"/>
+      <c r="AC212" s="31"/>
+      <c r="AH212" s="30"/>
+      <c r="AR212" s="31"/>
+      <c r="AW212" s="30"/>
+      <c r="BG212" s="31"/>
+    </row>
+    <row r="213" spans="1:59">
+      <c r="D213" s="30"/>
+      <c r="N213" s="31"/>
+      <c r="S213" s="30"/>
+      <c r="AC213" s="31"/>
+      <c r="AH213" s="30"/>
+      <c r="AR213" s="31"/>
+      <c r="AW213" s="30"/>
+      <c r="BG213" s="31"/>
+    </row>
+    <row r="214" spans="1:59">
+      <c r="D214" s="30"/>
+      <c r="G214" t="s">
         <v>285</v>
       </c>
-      <c r="N191" s="31"/>
-      <c r="S191" s="30"/>
-      <c r="V191" t="s">
+      <c r="N214" s="31"/>
+      <c r="S214" s="30"/>
+      <c r="V214" t="s">
         <v>286</v>
       </c>
-      <c r="AC191" s="31"/>
-      <c r="AH191" s="30"/>
-      <c r="AK191" t="s">
+      <c r="AC214" s="31"/>
+      <c r="AH214" s="30"/>
+      <c r="AK214" t="s">
         <v>287</v>
       </c>
-      <c r="AR191" s="31"/>
-      <c r="AW191" s="30"/>
-      <c r="AZ191" t="s">
+      <c r="AR214" s="31"/>
+      <c r="AW214" s="30"/>
+      <c r="AZ214" t="s">
         <v>288</v>
       </c>
-      <c r="BG191" s="31"/>
-    </row>
-    <row r="192" spans="4:59" x14ac:dyDescent="0.45">
-      <c r="D192" s="30"/>
-      <c r="N192" s="31"/>
-      <c r="S192" s="30"/>
-      <c r="AC192" s="31"/>
-      <c r="AH192" s="30"/>
-      <c r="AR192" s="31"/>
-      <c r="AW192" s="30"/>
-      <c r="BG192" s="31"/>
-    </row>
-    <row r="193" spans="3:59" x14ac:dyDescent="0.45">
-      <c r="D193" s="30"/>
-      <c r="H193" s="4"/>
-      <c r="N193" s="31"/>
-      <c r="S193" s="30"/>
-      <c r="W193" s="4"/>
-      <c r="AC193" s="31"/>
-      <c r="AH193" s="30"/>
-      <c r="AL193" s="4"/>
-      <c r="AR193" s="31"/>
-      <c r="AW193" s="30"/>
-      <c r="BA193" s="4"/>
-      <c r="BG193" s="31"/>
-    </row>
-    <row r="194" spans="3:59" x14ac:dyDescent="0.45">
-      <c r="D194" s="52"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
-      <c r="H194" s="2"/>
-      <c r="I194" s="2"/>
-      <c r="J194" s="2"/>
-      <c r="K194" s="2"/>
-      <c r="L194" s="2"/>
-      <c r="M194" s="2"/>
-      <c r="N194" s="53"/>
-      <c r="S194" s="52"/>
-      <c r="T194" s="2"/>
-      <c r="U194" s="2"/>
-      <c r="V194" s="2"/>
-      <c r="W194" s="2"/>
-      <c r="X194" s="2"/>
-      <c r="Y194" s="2"/>
-      <c r="Z194" s="2"/>
-      <c r="AA194" s="2"/>
-      <c r="AB194" s="2"/>
-      <c r="AC194" s="53"/>
-      <c r="AH194" s="52"/>
-      <c r="AI194" s="2"/>
-      <c r="AJ194" s="2"/>
-      <c r="AK194" s="2"/>
-      <c r="AL194" s="2"/>
-      <c r="AM194" s="2"/>
-      <c r="AN194" s="2"/>
-      <c r="AO194" s="2"/>
-      <c r="AP194" s="2"/>
-      <c r="AQ194" s="2"/>
-      <c r="AR194" s="53"/>
-      <c r="AW194" s="52"/>
-      <c r="AX194" s="2"/>
-      <c r="AY194" s="2"/>
-      <c r="AZ194" s="2"/>
-      <c r="BA194" s="2"/>
-      <c r="BB194" s="2"/>
-      <c r="BC194" s="2"/>
-      <c r="BD194" s="2"/>
-      <c r="BE194" s="2"/>
-      <c r="BF194" s="2"/>
-      <c r="BG194" s="53"/>
-    </row>
-    <row r="195" spans="3:59" x14ac:dyDescent="0.45">
-      <c r="D195" s="30"/>
-      <c r="N195" s="31"/>
-      <c r="S195" s="30"/>
-      <c r="AC195" s="31"/>
-      <c r="AH195" s="30"/>
-      <c r="AR195" s="31"/>
-      <c r="AW195" s="30"/>
-      <c r="BG195" s="31"/>
-    </row>
-    <row r="196" spans="3:59" x14ac:dyDescent="0.45">
-      <c r="D196" s="32"/>
-      <c r="E196" s="33"/>
-      <c r="F196" s="33"/>
-      <c r="G196" s="33"/>
-      <c r="H196" s="33"/>
-      <c r="I196" s="33"/>
-      <c r="J196" s="33"/>
-      <c r="K196" s="33"/>
-      <c r="L196" s="33"/>
-      <c r="M196" s="33"/>
-      <c r="N196" s="34"/>
-      <c r="S196" s="32"/>
-      <c r="T196" s="33"/>
-      <c r="U196" s="33"/>
-      <c r="V196" s="33"/>
-      <c r="W196" s="33"/>
-      <c r="X196" s="33"/>
-      <c r="Y196" s="33"/>
-      <c r="Z196" s="33"/>
-      <c r="AA196" s="33"/>
-      <c r="AB196" s="33"/>
-      <c r="AC196" s="34"/>
-      <c r="AH196" s="32"/>
-      <c r="AI196" s="33"/>
-      <c r="AJ196" s="33"/>
-      <c r="AK196" s="33"/>
-      <c r="AL196" s="33"/>
-      <c r="AM196" s="33"/>
-      <c r="AN196" s="33"/>
-      <c r="AO196" s="33"/>
-      <c r="AP196" s="33"/>
-      <c r="AQ196" s="33"/>
-      <c r="AR196" s="34"/>
-      <c r="AW196" s="32"/>
-      <c r="AX196" s="33"/>
-      <c r="AY196" s="33"/>
-      <c r="AZ196" s="33"/>
-      <c r="BA196" s="33"/>
-      <c r="BB196" s="33"/>
-      <c r="BC196" s="33"/>
-      <c r="BD196" s="33"/>
-      <c r="BE196" s="33"/>
-      <c r="BF196" s="33"/>
-      <c r="BG196" s="34"/>
-    </row>
-    <row r="203" spans="3:59" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C203" s="8" t="s">
+      <c r="BG214" s="31"/>
+    </row>
+    <row r="215" spans="1:59">
+      <c r="D215" s="30"/>
+      <c r="N215" s="31"/>
+      <c r="S215" s="30"/>
+      <c r="AC215" s="31"/>
+      <c r="AH215" s="30"/>
+      <c r="AR215" s="31"/>
+      <c r="AW215" s="30"/>
+      <c r="BG215" s="31"/>
+    </row>
+    <row r="216" spans="1:59">
+      <c r="D216" s="30"/>
+      <c r="H216" s="4"/>
+      <c r="N216" s="31"/>
+      <c r="S216" s="30"/>
+      <c r="W216" s="4"/>
+      <c r="AC216" s="31"/>
+      <c r="AH216" s="30"/>
+      <c r="AL216" s="4"/>
+      <c r="AR216" s="31"/>
+      <c r="AW216" s="30"/>
+      <c r="BA216" s="4"/>
+      <c r="BG216" s="31"/>
+    </row>
+    <row r="217" spans="1:59">
+      <c r="D217" s="52"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
+      <c r="J217" s="2"/>
+      <c r="K217" s="2"/>
+      <c r="L217" s="2"/>
+      <c r="M217" s="2"/>
+      <c r="N217" s="53"/>
+      <c r="S217" s="52"/>
+      <c r="T217" s="2"/>
+      <c r="U217" s="2"/>
+      <c r="V217" s="2"/>
+      <c r="W217" s="2"/>
+      <c r="X217" s="2"/>
+      <c r="Y217" s="2"/>
+      <c r="Z217" s="2"/>
+      <c r="AA217" s="2"/>
+      <c r="AB217" s="2"/>
+      <c r="AC217" s="53"/>
+      <c r="AH217" s="52"/>
+      <c r="AI217" s="2"/>
+      <c r="AJ217" s="2"/>
+      <c r="AK217" s="2"/>
+      <c r="AL217" s="2"/>
+      <c r="AM217" s="2"/>
+      <c r="AN217" s="2"/>
+      <c r="AO217" s="2"/>
+      <c r="AP217" s="2"/>
+      <c r="AQ217" s="2"/>
+      <c r="AR217" s="53"/>
+      <c r="AW217" s="52"/>
+      <c r="AX217" s="2"/>
+      <c r="AY217" s="2"/>
+      <c r="AZ217" s="2"/>
+      <c r="BA217" s="2"/>
+      <c r="BB217" s="2"/>
+      <c r="BC217" s="2"/>
+      <c r="BD217" s="2"/>
+      <c r="BE217" s="2"/>
+      <c r="BF217" s="2"/>
+      <c r="BG217" s="53"/>
+    </row>
+    <row r="218" spans="1:59">
+      <c r="D218" s="30"/>
+      <c r="N218" s="31"/>
+      <c r="S218" s="30"/>
+      <c r="AC218" s="31"/>
+      <c r="AH218" s="30"/>
+      <c r="AR218" s="31"/>
+      <c r="AW218" s="30"/>
+      <c r="BG218" s="31"/>
+    </row>
+    <row r="219" spans="1:59">
+      <c r="D219" s="32"/>
+      <c r="E219" s="33"/>
+      <c r="F219" s="33"/>
+      <c r="G219" s="33"/>
+      <c r="H219" s="33"/>
+      <c r="I219" s="33"/>
+      <c r="J219" s="33"/>
+      <c r="K219" s="33"/>
+      <c r="L219" s="33"/>
+      <c r="M219" s="33"/>
+      <c r="N219" s="34"/>
+      <c r="S219" s="32"/>
+      <c r="T219" s="33"/>
+      <c r="U219" s="33"/>
+      <c r="V219" s="33"/>
+      <c r="W219" s="33"/>
+      <c r="X219" s="33"/>
+      <c r="Y219" s="33"/>
+      <c r="Z219" s="33"/>
+      <c r="AA219" s="33"/>
+      <c r="AB219" s="33"/>
+      <c r="AC219" s="34"/>
+      <c r="AH219" s="32"/>
+      <c r="AI219" s="33"/>
+      <c r="AJ219" s="33"/>
+      <c r="AK219" s="33"/>
+      <c r="AL219" s="33"/>
+      <c r="AM219" s="33"/>
+      <c r="AN219" s="33"/>
+      <c r="AO219" s="33"/>
+      <c r="AP219" s="33"/>
+      <c r="AQ219" s="33"/>
+      <c r="AR219" s="34"/>
+      <c r="AW219" s="32"/>
+      <c r="AX219" s="33"/>
+      <c r="AY219" s="33"/>
+      <c r="AZ219" s="33"/>
+      <c r="BA219" s="33"/>
+      <c r="BB219" s="33"/>
+      <c r="BC219" s="33"/>
+      <c r="BD219" s="33"/>
+      <c r="BE219" s="33"/>
+      <c r="BF219" s="33"/>
+      <c r="BG219" s="34"/>
+    </row>
+    <row r="223" spans="1:59" s="6" customFormat="1">
+      <c r="C223" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="224" spans="1:59">
+      <c r="A224" s="20">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="225" spans="3:29">
+      <c r="C225" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="227" spans="3:29">
+      <c r="E227" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="228" spans="3:29">
+      <c r="G228" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="230" spans="3:29">
+      <c r="G230" s="27"/>
+      <c r="H230" s="28"/>
+      <c r="I230" s="28"/>
+      <c r="J230" s="28"/>
+      <c r="K230" s="28"/>
+      <c r="L230" s="28"/>
+      <c r="M230" s="28"/>
+      <c r="N230" s="28"/>
+      <c r="O230" s="28"/>
+      <c r="P230" s="28"/>
+      <c r="Q230" s="28"/>
+      <c r="R230" s="28"/>
+      <c r="S230" s="28"/>
+      <c r="T230" s="28"/>
+      <c r="U230" s="28"/>
+      <c r="V230" s="28"/>
+      <c r="W230" s="28"/>
+      <c r="X230" s="28"/>
+      <c r="Y230" s="28"/>
+      <c r="Z230" s="28"/>
+      <c r="AA230" s="28"/>
+      <c r="AB230" s="28"/>
+      <c r="AC230" s="29"/>
+    </row>
+    <row r="231" spans="3:29">
+      <c r="G231" s="30"/>
+      <c r="AC231" s="31"/>
+    </row>
+    <row r="232" spans="3:29">
+      <c r="G232" s="30"/>
+      <c r="AC232" s="31"/>
+    </row>
+    <row r="233" spans="3:29">
+      <c r="G233" s="30"/>
+      <c r="AC233" s="31"/>
+    </row>
+    <row r="234" spans="3:29">
+      <c r="G234" s="30"/>
+      <c r="AC234" s="31"/>
+    </row>
+    <row r="235" spans="3:29">
+      <c r="G235" s="30"/>
+      <c r="AC235" s="31"/>
+    </row>
+    <row r="236" spans="3:29">
+      <c r="G236" s="32"/>
+      <c r="H236" s="33"/>
+      <c r="I236" s="33"/>
+      <c r="J236" s="33"/>
+      <c r="K236" s="33"/>
+      <c r="L236" s="33"/>
+      <c r="M236" s="33"/>
+      <c r="N236" s="33"/>
+      <c r="O236" s="33"/>
+      <c r="P236" s="4"/>
+      <c r="Q236" s="33"/>
+      <c r="R236" s="4"/>
+      <c r="S236" s="33"/>
+      <c r="T236" s="33"/>
+      <c r="U236" s="33"/>
+      <c r="V236" s="33"/>
+      <c r="W236" s="33"/>
+      <c r="X236" s="33"/>
+      <c r="Y236" s="33"/>
+      <c r="Z236" s="33"/>
+      <c r="AA236" s="33"/>
+      <c r="AB236" s="33"/>
+      <c r="AC236" s="34"/>
+    </row>
+    <row r="238" spans="3:29" s="3" customFormat="1">
+      <c r="C238" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -20067,12 +21132,12 @@
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" s="1" customFormat="1">
       <c r="A1" s="37" t="s">
         <v>190</v>
       </c>
@@ -20080,23 +21145,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" s="5" customFormat="1">
       <c r="A3"/>
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17">
       <c r="C4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17">
       <c r="C5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17">
       <c r="C6" t="s">
         <v>151</v>
       </c>
@@ -20104,18 +21169,18 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17">
       <c r="C7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17">
       <c r="C9" s="5" t="s">
         <v>308</v>
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17">
       <c r="C10" s="5" t="s">
         <v>342</v>
       </c>
@@ -20132,7 +21197,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17">
       <c r="C11" s="5" t="s">
         <v>343</v>
       </c>
@@ -20149,19 +21214,19 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="13" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:17" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" ht="18.600000000000001" customHeight="1"/>
+    <row r="14" spans="1:17" s="5" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="C14" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" ht="18.600000000000001" customHeight="1"/>
+    <row r="16" spans="1:17">
       <c r="C16" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="19" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:3" s="1" customFormat="1">
       <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
@@ -20180,43 +21245,43 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.3984375" customWidth="1"/>
-    <col min="3" max="3" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.3984375" customWidth="1"/>
+    <col min="13" max="13" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="B1" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" s="5" customFormat="1">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" s="5" customFormat="1">
       <c r="B8" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10">
       <c r="C10" s="15" t="s">
         <v>223</v>
       </c>
@@ -20236,7 +21301,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10">
       <c r="C11" s="17" t="s">
         <v>110</v>
       </c>
@@ -20257,7 +21322,7 @@
       </c>
       <c r="J11" s="20"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10">
       <c r="C12" s="21">
         <v>1</v>
       </c>
@@ -20274,7 +21339,7 @@
       <c r="H12" s="19"/>
       <c r="J12" s="20"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10">
       <c r="A13" s="26"/>
       <c r="C13" s="21">
         <v>2</v>
@@ -20296,7 +21361,7 @@
       </c>
       <c r="J13" s="20"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10">
       <c r="C14" s="21">
         <v>3</v>
       </c>
@@ -20317,7 +21382,7 @@
       </c>
       <c r="J14" s="20"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10">
       <c r="C15" s="21">
         <v>4</v>
       </c>
@@ -20338,7 +21403,7 @@
       </c>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10">
       <c r="C16" s="21">
         <v>5</v>
       </c>
@@ -20357,7 +21422,7 @@
       </c>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10">
       <c r="C17" s="21">
         <v>6</v>
       </c>
@@ -20376,7 +21441,7 @@
       </c>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:10">
       <c r="C18" s="21">
         <v>7</v>
       </c>
@@ -20397,7 +21462,7 @@
       </c>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10">
       <c r="C19" s="21">
         <v>8</v>
       </c>
@@ -20417,7 +21482,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10">
       <c r="C20" s="21">
         <v>9</v>
       </c>
@@ -20435,7 +21500,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:10">
       <c r="C21" s="21">
         <v>10</v>
       </c>
@@ -20455,7 +21520,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:10">
       <c r="C22" s="21">
         <v>11</v>
       </c>
@@ -20471,7 +21536,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:10">
       <c r="C23" s="21">
         <v>12</v>
       </c>
@@ -20481,7 +21546,7 @@
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
     </row>
-    <row r="25" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:10" s="3" customFormat="1">
       <c r="B25" s="8" t="s">
         <v>17</v>
       </c>
@@ -20504,12 +21569,12 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="9" customFormat="1">
       <c r="A1" s="37" t="s">
         <v>190</v>
       </c>
@@ -20517,75 +21582,75 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" s="5" customFormat="1">
       <c r="A3"/>
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3">
       <c r="C5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3">
       <c r="C6" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3">
       <c r="C7" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" s="5" customFormat="1">
       <c r="C9" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3">
       <c r="C11" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3">
       <c r="C12" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" s="5" customFormat="1">
       <c r="A15"/>
       <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35">
       <c r="C17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35">
       <c r="D18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:35">
       <c r="D19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35">
       <c r="D20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" s="5" customFormat="1">
       <c r="A22"/>
       <c r="C22" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:35">
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
@@ -20609,7 +21674,7 @@
       <c r="AH27" s="36"/>
       <c r="AI27" s="36"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:35">
       <c r="N28" s="36"/>
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
@@ -20633,7 +21698,7 @@
       <c r="AH28" s="36"/>
       <c r="AI28" s="36"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:35">
       <c r="N29" s="36"/>
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
@@ -20657,7 +21722,7 @@
       <c r="AH29" s="36"/>
       <c r="AI29" s="36"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:35">
       <c r="N30" s="36"/>
       <c r="O30" s="36"/>
       <c r="P30" s="36"/>
@@ -20681,7 +21746,7 @@
       <c r="AH30" s="36"/>
       <c r="AI30" s="36"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:35">
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
@@ -20705,7 +21770,7 @@
       <c r="AH31" s="36"/>
       <c r="AI31" s="36"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:35">
       <c r="N32" s="36"/>
       <c r="O32" s="36"/>
       <c r="P32" s="36"/>
@@ -20729,7 +21794,7 @@
       <c r="AH32" s="36"/>
       <c r="AI32" s="36"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:35">
       <c r="N33" s="36"/>
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
@@ -20753,7 +21818,7 @@
       <c r="AH33" s="36"/>
       <c r="AI33" s="36"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:35">
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="36"/>
@@ -20777,7 +21842,7 @@
       <c r="AH34" s="36"/>
       <c r="AI34" s="36"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:35">
       <c r="N35" s="36"/>
       <c r="O35" s="36"/>
       <c r="P35" s="36"/>
@@ -20801,7 +21866,7 @@
       <c r="AH35" s="36"/>
       <c r="AI35" s="36"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:35">
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
       <c r="P36" s="36"/>
@@ -20825,7 +21890,7 @@
       <c r="AH36" s="36"/>
       <c r="AI36" s="36"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:35">
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
       <c r="P37" s="36"/>
@@ -20849,7 +21914,7 @@
       <c r="AH37" s="36"/>
       <c r="AI37" s="36"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:35">
       <c r="N38" s="36"/>
       <c r="O38" s="36"/>
       <c r="P38" s="36"/>
@@ -20873,45 +21938,45 @@
       <c r="AH38" s="36"/>
       <c r="AI38" s="36"/>
     </row>
-    <row r="40" spans="1:35" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:35" ht="18.600000000000001" customHeight="1"/>
+    <row r="41" spans="1:35" s="5" customFormat="1">
       <c r="A41"/>
       <c r="C41" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:35">
       <c r="D43" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:35">
       <c r="D44" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:35">
       <c r="E46" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:35">
       <c r="E48" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:16" s="5" customFormat="1">
       <c r="A50"/>
       <c r="C50" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:16">
       <c r="D52" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:16">
       <c r="A53" s="37" t="s">
         <v>190</v>
       </c>
@@ -20919,33 +21984,33 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:16">
       <c r="E55" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:16">
       <c r="E57" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:16" s="5" customFormat="1">
       <c r="A59"/>
       <c r="C59" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:16">
       <c r="D61" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:16">
       <c r="D62" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:16">
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
@@ -20959,7 +22024,7 @@
       <c r="O64" s="36"/>
       <c r="P64" s="36"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:16">
       <c r="E65" s="36"/>
       <c r="F65" s="36"/>
       <c r="G65" s="36"/>
@@ -20973,7 +22038,7 @@
       <c r="O65" s="36"/>
       <c r="P65" s="36"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:16">
       <c r="E66" s="36"/>
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
@@ -20987,7 +22052,7 @@
       <c r="O66" s="36"/>
       <c r="P66" s="36"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:16">
       <c r="E67" s="36"/>
       <c r="F67" s="36"/>
       <c r="G67" s="36"/>
@@ -21001,7 +22066,7 @@
       <c r="O67" s="36"/>
       <c r="P67" s="36"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:16">
       <c r="E68" s="36"/>
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
@@ -21015,7 +22080,7 @@
       <c r="O68" s="36"/>
       <c r="P68" s="36"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:16">
       <c r="E69" s="36"/>
       <c r="F69" s="36"/>
       <c r="G69" s="36"/>
@@ -21029,7 +22094,7 @@
       <c r="O69" s="36"/>
       <c r="P69" s="36"/>
     </row>
-    <row r="72" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:16" s="5" customFormat="1">
       <c r="A72"/>
     </row>
   </sheetData>
@@ -21048,12 +22113,12 @@
       <selection activeCell="AB41" sqref="AB41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" s="3" customFormat="1">
       <c r="A1" s="37" t="s">
         <v>190</v>
       </c>
@@ -21061,7 +22126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:64" s="5" customFormat="1">
       <c r="A3"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
@@ -21070,7 +22135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:64">
       <c r="AB5" t="s">
         <v>0</v>
       </c>
@@ -21078,7 +22143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:64">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -21109,7 +22174,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:64">
       <c r="D7" s="2"/>
       <c r="W7" s="2"/>
       <c r="AB7" t="s">
@@ -21125,7 +22190,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:64">
       <c r="D8" s="2"/>
       <c r="W8" s="2"/>
       <c r="AL8" t="s">
@@ -21138,7 +22203,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:64">
       <c r="D9" s="2"/>
       <c r="W9" s="2"/>
       <c r="Z9" s="4"/>
@@ -21155,7 +22220,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:64">
       <c r="D10" s="2"/>
       <c r="O10" s="2"/>
       <c r="W10" s="2"/>
@@ -21169,7 +22234,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:64">
       <c r="D11" s="2"/>
       <c r="M11" s="2"/>
       <c r="O11" s="2"/>
@@ -21179,7 +22244,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:64">
       <c r="D12" s="2"/>
       <c r="G12" s="7"/>
       <c r="K12" s="2"/>
@@ -21190,7 +22255,7 @@
       <c r="V12" s="6"/>
       <c r="W12" s="9"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:64">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -21216,32 +22281,32 @@
         <v>276</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:64">
       <c r="Z15" s="6"/>
       <c r="AB15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:153" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:153">
       <c r="Z17" s="2"/>
       <c r="AB17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:153" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:153">
       <c r="Z19" s="9"/>
       <c r="AB19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:153" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:153" s="6" customFormat="1">
       <c r="A21"/>
       <c r="B21" s="7"/>
       <c r="C21" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:153" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:153">
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -21390,29 +22455,29 @@
       <c r="EV25" s="2"/>
       <c r="EW25" s="2"/>
     </row>
-    <row r="26" spans="1:153" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:153">
       <c r="G26" s="2"/>
       <c r="I26" s="4"/>
       <c r="DY26" s="2"/>
       <c r="EW26" s="2"/>
     </row>
-    <row r="27" spans="1:153" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:153">
       <c r="G27" s="2"/>
       <c r="DY27" s="2"/>
       <c r="EW27" s="2"/>
     </row>
-    <row r="28" spans="1:153" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:153">
       <c r="G28" s="2"/>
       <c r="DY28" s="2"/>
       <c r="EW28" s="2"/>
     </row>
-    <row r="29" spans="1:153" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:153">
       <c r="G29" s="2"/>
       <c r="DN29" s="4"/>
       <c r="DY29" s="2"/>
       <c r="EW29" s="9"/>
     </row>
-    <row r="30" spans="1:153" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:153">
       <c r="G30" s="2"/>
       <c r="DM30" s="4"/>
       <c r="DN30" s="2"/>
@@ -21434,7 +22499,7 @@
       <c r="EV30" s="2"/>
       <c r="EW30" s="2"/>
     </row>
-    <row r="31" spans="1:153" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:153">
       <c r="G31" s="2"/>
       <c r="DL31" s="4"/>
       <c r="DM31" s="2"/>
@@ -21444,7 +22509,7 @@
       <c r="EJ31" s="2"/>
       <c r="EW31" s="2"/>
     </row>
-    <row r="32" spans="1:153" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:153">
       <c r="G32" s="2"/>
       <c r="DC32" s="4"/>
       <c r="DG32" s="4"/>
@@ -21458,7 +22523,7 @@
       <c r="EJ32" s="2"/>
       <c r="EW32" s="2"/>
     </row>
-    <row r="33" spans="1:153" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:153">
       <c r="G33" s="2"/>
       <c r="AY33" s="45" t="s">
         <v>48</v>
@@ -21473,7 +22538,7 @@
       <c r="EJ33" s="2"/>
       <c r="EW33" s="46"/>
     </row>
-    <row r="34" spans="1:153" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:153">
       <c r="G34" s="2"/>
       <c r="CV34" s="2"/>
       <c r="CX34" s="2"/>
@@ -21529,7 +22594,7 @@
       <c r="EV34" s="2"/>
       <c r="EW34" s="2"/>
     </row>
-    <row r="35" spans="1:153" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:153">
       <c r="G35" s="2"/>
       <c r="AX35" s="2"/>
       <c r="AY35" s="2"/>
@@ -21544,7 +22609,7 @@
       <c r="EA35" s="2"/>
       <c r="EW35" s="2"/>
     </row>
-    <row r="36" spans="1:153" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:153">
       <c r="G36" s="2"/>
       <c r="AW36" s="2"/>
       <c r="AX36" s="2"/>
@@ -21577,7 +22642,7 @@
       <c r="EA36" s="2"/>
       <c r="EW36" s="2"/>
     </row>
-    <row r="37" spans="1:153" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:153">
       <c r="G37" s="2"/>
       <c r="AV37" s="2"/>
       <c r="AW37" s="2"/>
@@ -21591,7 +22656,7 @@
       <c r="EA37" s="2"/>
       <c r="EW37" s="2"/>
     </row>
-    <row r="38" spans="1:153" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:153">
       <c r="G38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
@@ -21609,7 +22674,7 @@
       <c r="EA38" s="2"/>
       <c r="EW38" s="2"/>
     </row>
-    <row r="39" spans="1:153" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:153">
       <c r="G39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -21628,7 +22693,7 @@
       <c r="CL39" s="2"/>
       <c r="EW39" s="2"/>
     </row>
-    <row r="40" spans="1:153" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:153">
       <c r="G40" s="2"/>
       <c r="M40" s="2"/>
       <c r="Q40" s="2"/>
@@ -21670,7 +22735,7 @@
       <c r="EN40" s="4"/>
       <c r="EW40" s="9"/>
     </row>
-    <row r="41" spans="1:153" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:153">
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -21818,14 +22883,14 @@
       <c r="EV41" s="2"/>
       <c r="EW41" s="2"/>
     </row>
-    <row r="47" spans="1:153" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:153" s="6" customFormat="1">
       <c r="A47"/>
       <c r="B47" s="7"/>
       <c r="C47" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="7:156" x14ac:dyDescent="0.45">
+    <row r="49" spans="7:156">
       <c r="CN49" t="s">
         <v>279</v>
       </c>
@@ -21836,7 +22901,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="51" spans="7:156" x14ac:dyDescent="0.45">
+    <row r="51" spans="7:156">
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -21985,7 +23050,7 @@
       <c r="EV51" s="2"/>
       <c r="EW51" s="2"/>
     </row>
-    <row r="52" spans="7:156" x14ac:dyDescent="0.45">
+    <row r="52" spans="7:156">
       <c r="G52" s="2"/>
       <c r="BZ52" s="2"/>
       <c r="CA52" s="2"/>
@@ -22051,7 +23116,7 @@
       <c r="EV52" s="2"/>
       <c r="EW52" s="2"/>
     </row>
-    <row r="53" spans="7:156" x14ac:dyDescent="0.45">
+    <row r="53" spans="7:156">
       <c r="G53" s="2"/>
       <c r="BZ53" s="2"/>
       <c r="CA53" s="2"/>
@@ -22107,7 +23172,7 @@
       <c r="EV53" s="2"/>
       <c r="EW53" s="2"/>
     </row>
-    <row r="54" spans="7:156" x14ac:dyDescent="0.45">
+    <row r="54" spans="7:156">
       <c r="G54" s="2"/>
       <c r="BZ54" s="2"/>
       <c r="CA54" s="2"/>
@@ -22170,7 +23235,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="7:156" x14ac:dyDescent="0.45">
+    <row r="55" spans="7:156">
       <c r="G55" s="2"/>
       <c r="BZ55" s="2"/>
       <c r="CA55" s="2"/>
@@ -22231,7 +23296,7 @@
       <c r="EV55" s="2"/>
       <c r="EW55" s="2"/>
     </row>
-    <row r="56" spans="7:156" x14ac:dyDescent="0.45">
+    <row r="56" spans="7:156">
       <c r="G56" s="2"/>
       <c r="BZ56" s="2"/>
       <c r="CA56" s="2"/>
@@ -22291,7 +23356,7 @@
       <c r="EV56" s="2"/>
       <c r="EW56" s="2"/>
     </row>
-    <row r="57" spans="7:156" x14ac:dyDescent="0.45">
+    <row r="57" spans="7:156">
       <c r="G57" s="2"/>
       <c r="BZ57" s="2"/>
       <c r="CA57" s="2"/>
@@ -22350,7 +23415,7 @@
       <c r="EV57" s="2"/>
       <c r="EW57" s="2"/>
     </row>
-    <row r="58" spans="7:156" x14ac:dyDescent="0.45">
+    <row r="58" spans="7:156">
       <c r="G58" s="2"/>
       <c r="AY58" s="45" t="s">
         <v>49</v>
@@ -22411,7 +23476,7 @@
       <c r="ET58" s="2"/>
       <c r="EW58" s="2"/>
     </row>
-    <row r="59" spans="7:156" x14ac:dyDescent="0.45">
+    <row r="59" spans="7:156">
       <c r="G59" s="2"/>
       <c r="AS59" s="1"/>
       <c r="BH59" t="s">
@@ -22469,7 +23534,7 @@
       <c r="ES59" s="2"/>
       <c r="EW59" s="2"/>
     </row>
-    <row r="60" spans="7:156" x14ac:dyDescent="0.45">
+    <row r="60" spans="7:156">
       <c r="G60" s="2"/>
       <c r="S60" s="1"/>
       <c r="AR60" s="1"/>
@@ -22518,7 +23583,7 @@
       <c r="EU60" s="2"/>
       <c r="EW60" s="2"/>
     </row>
-    <row r="61" spans="7:156" x14ac:dyDescent="0.45">
+    <row r="61" spans="7:156">
       <c r="G61" s="2"/>
       <c r="AQ61" s="1"/>
       <c r="BZ61" s="2"/>
@@ -22573,7 +23638,7 @@
       <c r="EU61" s="2"/>
       <c r="EW61" s="2"/>
     </row>
-    <row r="62" spans="7:156" x14ac:dyDescent="0.45">
+    <row r="62" spans="7:156">
       <c r="G62" s="2"/>
       <c r="BZ62" s="2"/>
       <c r="CA62" s="2"/>
@@ -22623,7 +23688,7 @@
       <c r="EU62" s="2"/>
       <c r="EW62" s="2"/>
     </row>
-    <row r="63" spans="7:156" x14ac:dyDescent="0.45">
+    <row r="63" spans="7:156">
       <c r="G63" s="2"/>
       <c r="AM63" s="2"/>
       <c r="AN63" s="2"/>
@@ -22681,7 +23746,7 @@
       <c r="EU63" s="2"/>
       <c r="EW63" s="2"/>
     </row>
-    <row r="64" spans="7:156" x14ac:dyDescent="0.45">
+    <row r="64" spans="7:156">
       <c r="G64" s="2"/>
       <c r="AD64" s="4"/>
       <c r="AG64" s="1"/>
@@ -22745,7 +23810,7 @@
       <c r="EU64" s="2"/>
       <c r="EW64" s="2"/>
     </row>
-    <row r="65" spans="1:153" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:153">
       <c r="G65" s="2"/>
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
@@ -22810,7 +23875,7 @@
       <c r="EU65" s="2"/>
       <c r="EW65" s="2"/>
     </row>
-    <row r="66" spans="1:153" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:153">
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -22944,7 +24009,7 @@
       <c r="EU66" s="2"/>
       <c r="EW66" s="2"/>
     </row>
-    <row r="67" spans="1:153" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:153">
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -23087,18 +24152,18 @@
       <c r="EV67" s="9"/>
       <c r="EW67" s="2"/>
     </row>
-    <row r="71" spans="1:153" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:153" s="6" customFormat="1">
       <c r="A71"/>
       <c r="C71" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="93" spans="7:153">
       <c r="L93" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="95" spans="7:153">
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
@@ -23247,7 +24312,7 @@
       <c r="EV95" s="2"/>
       <c r="EW95" s="2"/>
     </row>
-    <row r="96" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="96" spans="7:153">
       <c r="G96" s="2"/>
       <c r="DS96" s="35"/>
       <c r="DT96" s="35"/>
@@ -23281,7 +24346,7 @@
       <c r="EV96" s="35"/>
       <c r="EW96" s="2"/>
     </row>
-    <row r="97" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="97" spans="7:153">
       <c r="G97" s="2"/>
       <c r="AY97" s="1"/>
       <c r="BY97" s="1"/>
@@ -23320,7 +24385,7 @@
       <c r="EV97" s="35"/>
       <c r="EW97" s="2"/>
     </row>
-    <row r="98" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="98" spans="7:153">
       <c r="G98" s="2"/>
       <c r="AY98" s="1"/>
       <c r="BF98" s="10"/>
@@ -23350,7 +24415,7 @@
       <c r="EV98" s="35"/>
       <c r="EW98" s="2"/>
     </row>
-    <row r="99" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="99" spans="7:153">
       <c r="G99" s="2"/>
       <c r="AS99" s="2"/>
       <c r="AT99" s="2"/>
@@ -23394,7 +24459,7 @@
       <c r="EV99" s="35"/>
       <c r="EW99" s="2"/>
     </row>
-    <row r="100" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="100" spans="7:153">
       <c r="G100" s="2"/>
       <c r="AK100" s="2"/>
       <c r="AL100" s="2"/>
@@ -23431,7 +24496,7 @@
       <c r="ES100" s="10"/>
       <c r="EW100" s="2"/>
     </row>
-    <row r="101" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="101" spans="7:153">
       <c r="G101" s="2"/>
       <c r="AH101" s="2"/>
       <c r="AI101" s="2"/>
@@ -23471,7 +24536,7 @@
       <c r="ES101" s="35"/>
       <c r="EW101" s="2"/>
     </row>
-    <row r="102" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="102" spans="7:153">
       <c r="G102" s="2"/>
       <c r="AE102" s="2"/>
       <c r="AF102" s="2"/>
@@ -23531,7 +24596,7 @@
       <c r="EP102" s="35"/>
       <c r="EW102" s="2"/>
     </row>
-    <row r="103" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="103" spans="7:153">
       <c r="G103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
@@ -23595,7 +24660,7 @@
       <c r="EP103" s="35"/>
       <c r="EW103" s="46"/>
     </row>
-    <row r="104" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="104" spans="7:153">
       <c r="G104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
@@ -23645,7 +24710,7 @@
       <c r="EQ104" s="35"/>
       <c r="EW104" s="2"/>
     </row>
-    <row r="105" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="105" spans="7:153">
       <c r="G105" s="2"/>
       <c r="AL105" s="35"/>
       <c r="AM105" s="35"/>
@@ -23692,7 +24757,7 @@
       <c r="EP105" s="35"/>
       <c r="EW105" s="2"/>
     </row>
-    <row r="106" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="106" spans="7:153">
       <c r="G106" s="2"/>
       <c r="AH106" s="35"/>
       <c r="AI106" s="35"/>
@@ -23729,7 +24794,7 @@
       <c r="EP106" s="35"/>
       <c r="EW106" s="2"/>
     </row>
-    <row r="107" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="107" spans="7:153">
       <c r="G107" s="2"/>
       <c r="AH107" s="35"/>
       <c r="AI107" s="35"/>
@@ -23773,7 +24838,7 @@
       <c r="ET107" s="4"/>
       <c r="EW107" s="2"/>
     </row>
-    <row r="108" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="108" spans="7:153">
       <c r="G108" s="2"/>
       <c r="AI108" s="35"/>
       <c r="AJ108" s="35"/>
@@ -23825,7 +24890,7 @@
       <c r="ET108" s="35"/>
       <c r="EW108" s="2"/>
     </row>
-    <row r="109" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="109" spans="7:153">
       <c r="G109" s="2"/>
       <c r="AJ109" s="35"/>
       <c r="AK109" s="35"/>
@@ -23875,7 +24940,7 @@
       <c r="EP109" s="35"/>
       <c r="EW109" s="2"/>
     </row>
-    <row r="110" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="110" spans="7:153">
       <c r="G110" s="2"/>
       <c r="AK110" s="35"/>
       <c r="AL110" s="35"/>
@@ -23927,7 +24992,7 @@
       <c r="EP110" s="35"/>
       <c r="EW110" s="2"/>
     </row>
-    <row r="111" spans="7:153" x14ac:dyDescent="0.45">
+    <row r="111" spans="7:153">
       <c r="G111" s="2"/>
       <c r="DI111" s="35"/>
       <c r="DJ111" s="35"/>
@@ -23963,12 +25028,12 @@
       <c r="ES111" s="9"/>
       <c r="EW111" s="2"/>
     </row>
-    <row r="116" spans="3:51" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="3:51" s="6" customFormat="1">
       <c r="C116" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="122" spans="3:51" x14ac:dyDescent="0.45">
+    <row r="122" spans="3:51">
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
@@ -24015,7 +25080,7 @@
       <c r="AX122" s="2"/>
       <c r="AY122" s="2"/>
     </row>
-    <row r="123" spans="3:51" x14ac:dyDescent="0.45">
+    <row r="123" spans="3:51">
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
@@ -24059,7 +25124,7 @@
       <c r="AX123" s="2"/>
       <c r="AY123" s="2"/>
     </row>
-    <row r="124" spans="3:51" x14ac:dyDescent="0.45">
+    <row r="124" spans="3:51">
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
@@ -24103,7 +25168,7 @@
       <c r="AX124" s="2"/>
       <c r="AY124" s="2"/>
     </row>
-    <row r="125" spans="3:51" x14ac:dyDescent="0.45">
+    <row r="125" spans="3:51">
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
@@ -24143,7 +25208,7 @@
       <c r="AX125" s="2"/>
       <c r="AY125" s="2"/>
     </row>
-    <row r="126" spans="3:51" x14ac:dyDescent="0.45">
+    <row r="126" spans="3:51">
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -24188,7 +25253,7 @@
       <c r="AX126" s="2"/>
       <c r="AY126" s="2"/>
     </row>
-    <row r="127" spans="3:51" x14ac:dyDescent="0.45">
+    <row r="127" spans="3:51">
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -24233,7 +25298,7 @@
       <c r="AX127" s="2"/>
       <c r="AY127" s="2"/>
     </row>
-    <row r="128" spans="3:51" x14ac:dyDescent="0.45">
+    <row r="128" spans="3:51">
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -24278,7 +25343,7 @@
       <c r="AX128" s="2"/>
       <c r="AY128" s="2"/>
     </row>
-    <row r="129" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="129" spans="7:51">
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -24296,7 +25361,7 @@
       <c r="AX129" s="2"/>
       <c r="AY129" s="2"/>
     </row>
-    <row r="130" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="130" spans="7:51">
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -24314,7 +25379,7 @@
       <c r="AX130" s="2"/>
       <c r="AY130" s="2"/>
     </row>
-    <row r="131" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="131" spans="7:51">
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
@@ -24340,7 +25405,7 @@
       <c r="AX131" s="2"/>
       <c r="AY131" s="2"/>
     </row>
-    <row r="132" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="132" spans="7:51">
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -24385,7 +25450,7 @@
       <c r="AX132" s="2"/>
       <c r="AY132" s="2"/>
     </row>
-    <row r="133" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="133" spans="7:51">
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
@@ -24430,7 +25495,7 @@
       <c r="AX133" s="2"/>
       <c r="AY133" s="2"/>
     </row>
-    <row r="134" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="134" spans="7:51">
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
@@ -24475,7 +25540,7 @@
       <c r="AX134" s="2"/>
       <c r="AY134" s="2"/>
     </row>
-    <row r="135" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="135" spans="7:51">
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
@@ -24520,7 +25585,7 @@
       <c r="AX135" s="2"/>
       <c r="AY135" s="2"/>
     </row>
-    <row r="136" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="136" spans="7:51">
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
@@ -24564,7 +25629,7 @@
       <c r="AX136" s="2"/>
       <c r="AY136" s="2"/>
     </row>
-    <row r="137" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="137" spans="7:51">
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
@@ -24582,7 +25647,7 @@
       <c r="AX137" s="2"/>
       <c r="AY137" s="2"/>
     </row>
-    <row r="138" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="138" spans="7:51">
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
@@ -24600,7 +25665,7 @@
       <c r="AX138" s="2"/>
       <c r="AY138" s="2"/>
     </row>
-    <row r="139" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="139" spans="7:51">
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
@@ -24625,7 +25690,7 @@
       <c r="AX139" s="2"/>
       <c r="AY139" s="2"/>
     </row>
-    <row r="140" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="140" spans="7:51">
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
@@ -24670,7 +25735,7 @@
       <c r="AX140" s="2"/>
       <c r="AY140" s="2"/>
     </row>
-    <row r="141" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="141" spans="7:51">
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
@@ -24715,7 +25780,7 @@
       <c r="AX141" s="2"/>
       <c r="AY141" s="2"/>
     </row>
-    <row r="142" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="142" spans="7:51">
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
@@ -24760,7 +25825,7 @@
       <c r="AX142" s="2"/>
       <c r="AY142" s="2"/>
     </row>
-    <row r="143" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="143" spans="7:51">
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
@@ -24805,7 +25870,7 @@
       <c r="AX143" s="2"/>
       <c r="AY143" s="2"/>
     </row>
-    <row r="144" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="144" spans="7:51">
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
@@ -24850,7 +25915,7 @@
       <c r="AX144" s="2"/>
       <c r="AY144" s="2"/>
     </row>
-    <row r="145" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="145" spans="7:51">
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
@@ -24895,7 +25960,7 @@
       <c r="AX145" s="2"/>
       <c r="AY145" s="2"/>
     </row>
-    <row r="146" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="146" spans="7:51">
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
@@ -24926,7 +25991,7 @@
       <c r="AX146" s="2"/>
       <c r="AY146" s="2"/>
     </row>
-    <row r="147" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="147" spans="7:51">
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
@@ -24958,7 +26023,7 @@
       <c r="AX147" s="2"/>
       <c r="AY147" s="2"/>
     </row>
-    <row r="148" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="148" spans="7:51">
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
@@ -24990,7 +26055,7 @@
       <c r="AX148" s="2"/>
       <c r="AY148" s="2"/>
     </row>
-    <row r="149" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="149" spans="7:51">
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
@@ -25021,7 +26086,7 @@
       <c r="AX149" s="2"/>
       <c r="AY149" s="2"/>
     </row>
-    <row r="150" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="150" spans="7:51">
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
@@ -25052,7 +26117,7 @@
       <c r="AX150" s="2"/>
       <c r="AY150" s="2"/>
     </row>
-    <row r="151" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="151" spans="7:51">
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
@@ -25083,7 +26148,7 @@
       <c r="AX151" s="2"/>
       <c r="AY151" s="2"/>
     </row>
-    <row r="152" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="152" spans="7:51">
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
@@ -25114,7 +26179,7 @@
       <c r="AX152" s="2"/>
       <c r="AY152" s="2"/>
     </row>
-    <row r="153" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="153" spans="7:51">
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
@@ -25147,7 +26212,7 @@
       <c r="AX153" s="2"/>
       <c r="AY153" s="2"/>
     </row>
-    <row r="154" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="154" spans="7:51">
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
@@ -25193,7 +26258,7 @@
       <c r="AX154" s="2"/>
       <c r="AY154" s="2"/>
     </row>
-    <row r="155" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="155" spans="7:51">
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
@@ -25239,7 +26304,7 @@
       <c r="AX155" s="2"/>
       <c r="AY155" s="2"/>
     </row>
-    <row r="156" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="156" spans="7:51">
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
@@ -25285,7 +26350,7 @@
       <c r="AX156" s="2"/>
       <c r="AY156" s="2"/>
     </row>
-    <row r="157" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="157" spans="7:51">
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
@@ -25331,7 +26396,7 @@
       <c r="AX157" s="2"/>
       <c r="AY157" s="2"/>
     </row>
-    <row r="158" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="158" spans="7:51">
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
@@ -25377,7 +26442,7 @@
       <c r="AX158" s="2"/>
       <c r="AY158" s="2"/>
     </row>
-    <row r="159" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="159" spans="7:51">
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
@@ -25423,7 +26488,7 @@
       <c r="AX159" s="2"/>
       <c r="AY159" s="2"/>
     </row>
-    <row r="160" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="160" spans="7:51">
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
@@ -25469,7 +26534,7 @@
       <c r="AX160" s="2"/>
       <c r="AY160" s="2"/>
     </row>
-    <row r="161" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="161" spans="7:51">
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
@@ -25515,7 +26580,7 @@
       <c r="AX161" s="2"/>
       <c r="AY161" s="2"/>
     </row>
-    <row r="162" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="162" spans="7:51">
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
@@ -25533,7 +26598,7 @@
       <c r="AX162" s="2"/>
       <c r="AY162" s="2"/>
     </row>
-    <row r="163" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="163" spans="7:51">
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
@@ -25552,7 +26617,7 @@
       <c r="AX163" s="2"/>
       <c r="AY163" s="2"/>
     </row>
-    <row r="164" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="164" spans="7:51">
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
@@ -25571,7 +26636,7 @@
       <c r="AX164" s="2"/>
       <c r="AY164" s="2"/>
     </row>
-    <row r="165" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="165" spans="7:51">
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
@@ -25590,7 +26655,7 @@
       <c r="AX165" s="2"/>
       <c r="AY165" s="2"/>
     </row>
-    <row r="166" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="166" spans="7:51">
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
@@ -25608,7 +26673,7 @@
       <c r="AX166" s="2"/>
       <c r="AY166" s="2"/>
     </row>
-    <row r="167" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="167" spans="7:51">
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
@@ -25626,7 +26691,7 @@
       <c r="AX167" s="2"/>
       <c r="AY167" s="2"/>
     </row>
-    <row r="168" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="168" spans="7:51">
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
@@ -25648,7 +26713,7 @@
       <c r="AX168" s="2"/>
       <c r="AY168" s="2"/>
     </row>
-    <row r="169" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="169" spans="7:51">
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
@@ -25694,7 +26759,7 @@
       <c r="AX169" s="2"/>
       <c r="AY169" s="2"/>
     </row>
-    <row r="170" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="170" spans="7:51">
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
@@ -25740,7 +26805,7 @@
       <c r="AX170" s="2"/>
       <c r="AY170" s="2"/>
     </row>
-    <row r="171" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="171" spans="7:51">
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
@@ -25786,7 +26851,7 @@
       <c r="AX171" s="2"/>
       <c r="AY171" s="2"/>
     </row>
-    <row r="172" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="172" spans="7:51">
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
@@ -25832,7 +26897,7 @@
       <c r="AX172" s="2"/>
       <c r="AY172" s="2"/>
     </row>
-    <row r="173" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="173" spans="7:51">
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
@@ -25878,7 +26943,7 @@
       <c r="AX173" s="2"/>
       <c r="AY173" s="2"/>
     </row>
-    <row r="174" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="174" spans="7:51">
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
@@ -25924,7 +26989,7 @@
       <c r="AX174" s="2"/>
       <c r="AY174" s="2"/>
     </row>
-    <row r="175" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="175" spans="7:51">
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
@@ -25933,7 +26998,7 @@
       <c r="AX175" s="2"/>
       <c r="AY175" s="2"/>
     </row>
-    <row r="176" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="176" spans="7:51">
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
@@ -25942,7 +27007,7 @@
       <c r="AX176" s="2"/>
       <c r="AY176" s="2"/>
     </row>
-    <row r="177" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="177" spans="7:51">
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
@@ -25952,7 +27017,7 @@
       <c r="AX177" s="2"/>
       <c r="AY177" s="2"/>
     </row>
-    <row r="178" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="178" spans="7:51">
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
@@ -25964,7 +27029,7 @@
       <c r="AX178" s="2"/>
       <c r="AY178" s="2"/>
     </row>
-    <row r="179" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="179" spans="7:51">
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
@@ -25974,7 +27039,7 @@
       <c r="AX179" s="2"/>
       <c r="AY179" s="2"/>
     </row>
-    <row r="180" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="180" spans="7:51">
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
@@ -25983,7 +27048,7 @@
       <c r="AX180" s="2"/>
       <c r="AY180" s="2"/>
     </row>
-    <row r="181" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="181" spans="7:51">
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
@@ -25992,7 +27057,7 @@
       <c r="AX181" s="2"/>
       <c r="AY181" s="2"/>
     </row>
-    <row r="182" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="182" spans="7:51">
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
@@ -26005,7 +27070,7 @@
       <c r="AX182" s="2"/>
       <c r="AY182" s="2"/>
     </row>
-    <row r="183" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="183" spans="7:51">
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
@@ -26051,7 +27116,7 @@
       <c r="AX183" s="2"/>
       <c r="AY183" s="2"/>
     </row>
-    <row r="184" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="184" spans="7:51">
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
@@ -26097,7 +27162,7 @@
       <c r="AX184" s="2"/>
       <c r="AY184" s="2"/>
     </row>
-    <row r="185" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="185" spans="7:51">
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
@@ -26143,7 +27208,7 @@
       <c r="AX185" s="2"/>
       <c r="AY185" s="2"/>
     </row>
-    <row r="186" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="186" spans="7:51">
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
@@ -26189,7 +27254,7 @@
       <c r="AX186" s="2"/>
       <c r="AY186" s="2"/>
     </row>
-    <row r="187" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="187" spans="7:51">
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
@@ -26235,7 +27300,7 @@
       <c r="AX187" s="2"/>
       <c r="AY187" s="2"/>
     </row>
-    <row r="188" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="188" spans="7:51">
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
@@ -26244,7 +27309,7 @@
       <c r="AX188" s="2"/>
       <c r="AY188" s="2"/>
     </row>
-    <row r="189" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="189" spans="7:51">
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
@@ -26253,7 +27318,7 @@
       <c r="AX189" s="2"/>
       <c r="AY189" s="2"/>
     </row>
-    <row r="190" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="190" spans="7:51">
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
@@ -26268,7 +27333,7 @@
       <c r="AX190" s="2"/>
       <c r="AY190" s="2"/>
     </row>
-    <row r="191" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="191" spans="7:51">
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
@@ -26277,7 +27342,7 @@
       <c r="AX191" s="2"/>
       <c r="AY191" s="2"/>
     </row>
-    <row r="192" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="192" spans="7:51">
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
@@ -26286,7 +27351,7 @@
       <c r="AX192" s="2"/>
       <c r="AY192" s="2"/>
     </row>
-    <row r="193" spans="2:152" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:152">
       <c r="G193" s="9"/>
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
@@ -26302,7 +27367,7 @@
       <c r="AX193" s="2"/>
       <c r="AY193" s="2"/>
     </row>
-    <row r="194" spans="2:152" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:152">
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
@@ -26349,12 +27414,12 @@
       <c r="AX194" s="2"/>
       <c r="AY194" s="2"/>
     </row>
-    <row r="198" spans="2:152" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:152" s="6" customFormat="1">
       <c r="B198" s="6" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="202" spans="2:152" x14ac:dyDescent="0.45">
+    <row r="202" spans="2:152">
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
@@ -26503,7 +27568,7 @@
       <c r="EU202" s="2"/>
       <c r="EV202" s="2"/>
     </row>
-    <row r="203" spans="2:152" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:152">
       <c r="F203" s="2"/>
       <c r="CB203" s="2"/>
       <c r="CL203" s="2"/>
@@ -26516,7 +27581,7 @@
       <c r="EF203" s="2"/>
       <c r="EV203" s="2"/>
     </row>
-    <row r="204" spans="2:152" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:152">
       <c r="F204" s="2"/>
       <c r="CB204" s="2"/>
       <c r="CL204" s="2"/>
@@ -26532,7 +27597,7 @@
       <c r="EF204" s="2"/>
       <c r="EV204" s="2"/>
     </row>
-    <row r="205" spans="2:152" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:152">
       <c r="F205" s="2"/>
       <c r="CB205" s="2"/>
       <c r="CL205" s="2"/>
@@ -26545,7 +27610,7 @@
       <c r="EF205" s="2"/>
       <c r="EV205" s="2"/>
     </row>
-    <row r="206" spans="2:152" x14ac:dyDescent="0.45">
+    <row r="206" spans="2:152">
       <c r="F206" s="2"/>
       <c r="CB206" s="2"/>
       <c r="CL206" s="2"/>
@@ -26561,7 +27626,7 @@
       <c r="EF206" s="2"/>
       <c r="EV206" s="9"/>
     </row>
-    <row r="207" spans="2:152" x14ac:dyDescent="0.45">
+    <row r="207" spans="2:152">
       <c r="F207" s="2"/>
       <c r="CB207" s="2"/>
       <c r="CL207" s="2"/>
@@ -26576,7 +27641,7 @@
       <c r="EU207" s="2"/>
       <c r="EV207" s="2"/>
     </row>
-    <row r="208" spans="2:152" x14ac:dyDescent="0.45">
+    <row r="208" spans="2:152">
       <c r="F208" s="2"/>
       <c r="CB208" s="2"/>
       <c r="CL208" s="2"/>
@@ -26595,7 +27660,7 @@
       <c r="EU208" s="2"/>
       <c r="EV208" s="2"/>
     </row>
-    <row r="209" spans="6:152" x14ac:dyDescent="0.45">
+    <row r="209" spans="6:152">
       <c r="F209" s="2"/>
       <c r="W209" s="1"/>
       <c r="AX209" s="45" t="s">
@@ -26618,7 +27683,7 @@
       <c r="EU209" s="2"/>
       <c r="EV209" s="46"/>
     </row>
-    <row r="210" spans="6:152" x14ac:dyDescent="0.45">
+    <row r="210" spans="6:152">
       <c r="F210" s="2"/>
       <c r="R210" s="1"/>
       <c r="BP210" s="1"/>
@@ -26642,7 +27707,7 @@
       <c r="EU210" s="2"/>
       <c r="EV210" s="2"/>
     </row>
-    <row r="211" spans="6:152" x14ac:dyDescent="0.45">
+    <row r="211" spans="6:152">
       <c r="F211" s="2"/>
       <c r="BE211" s="2"/>
       <c r="BF211" s="2"/>
@@ -26678,7 +27743,7 @@
       <c r="EU211" s="2"/>
       <c r="EV211" s="2"/>
     </row>
-    <row r="212" spans="6:152" x14ac:dyDescent="0.45">
+    <row r="212" spans="6:152">
       <c r="F212" s="2"/>
       <c r="N212" s="1"/>
       <c r="BL212" s="1"/>
@@ -26710,7 +27775,7 @@
       <c r="EU212" s="2"/>
       <c r="EV212" s="2"/>
     </row>
-    <row r="213" spans="6:152" x14ac:dyDescent="0.45">
+    <row r="213" spans="6:152">
       <c r="F213" s="2"/>
       <c r="X213" s="4"/>
       <c r="BC213" s="2"/>
@@ -26743,7 +27808,7 @@
       <c r="EU213" s="2"/>
       <c r="EV213" s="2"/>
     </row>
-    <row r="214" spans="6:152" x14ac:dyDescent="0.45">
+    <row r="214" spans="6:152">
       <c r="F214" s="2"/>
       <c r="T214" s="4"/>
       <c r="W214" s="2"/>
@@ -26778,7 +27843,7 @@
       <c r="EU214" s="2"/>
       <c r="EV214" s="2"/>
     </row>
-    <row r="215" spans="6:152" x14ac:dyDescent="0.45">
+    <row r="215" spans="6:152">
       <c r="F215" s="2"/>
       <c r="P215" s="4"/>
       <c r="S215" s="2"/>
@@ -26811,7 +27876,7 @@
       <c r="EU215" s="2"/>
       <c r="EV215" s="2"/>
     </row>
-    <row r="216" spans="6:152" x14ac:dyDescent="0.45">
+    <row r="216" spans="6:152">
       <c r="F216" s="2"/>
       <c r="O216" s="2"/>
       <c r="P216" s="2"/>
@@ -26852,7 +27917,7 @@
       <c r="EU216" s="2"/>
       <c r="EV216" s="2"/>
     </row>
-    <row r="217" spans="6:152" x14ac:dyDescent="0.45">
+    <row r="217" spans="6:152">
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
@@ -26984,7 +28049,7 @@
       <c r="EU217" s="2"/>
       <c r="EV217" s="2"/>
     </row>
-    <row r="218" spans="6:152" x14ac:dyDescent="0.45">
+    <row r="218" spans="6:152">
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
@@ -27116,7 +28181,7 @@
       <c r="EU218" s="2"/>
       <c r="EV218" s="2"/>
     </row>
-    <row r="243" spans="27:158" x14ac:dyDescent="0.45">
+    <row r="243" spans="27:158">
       <c r="AA243" s="1"/>
       <c r="AB243" s="1"/>
       <c r="AC243" s="1"/>
@@ -27163,34 +28228,34 @@
       <c r="BR243" s="1"/>
       <c r="BS243" s="1"/>
     </row>
-    <row r="244" spans="27:158" x14ac:dyDescent="0.45">
+    <row r="244" spans="27:158">
       <c r="AA244" s="1"/>
       <c r="BS244" s="1"/>
     </row>
-    <row r="245" spans="27:158" x14ac:dyDescent="0.45">
+    <row r="245" spans="27:158">
       <c r="AA245" s="1"/>
       <c r="BS245" s="1"/>
     </row>
-    <row r="246" spans="27:158" x14ac:dyDescent="0.45">
+    <row r="246" spans="27:158">
       <c r="AA246" s="1"/>
       <c r="BS246" s="1"/>
     </row>
-    <row r="247" spans="27:158" x14ac:dyDescent="0.45">
+    <row r="247" spans="27:158">
       <c r="AA247" s="1"/>
       <c r="BS247" s="1"/>
     </row>
-    <row r="248" spans="27:158" x14ac:dyDescent="0.45">
+    <row r="248" spans="27:158">
       <c r="AA248" s="1"/>
       <c r="BS248" s="1"/>
     </row>
-    <row r="249" spans="27:158" x14ac:dyDescent="0.45">
+    <row r="249" spans="27:158">
       <c r="AA249" s="9"/>
       <c r="BS249" s="9"/>
       <c r="CL249" s="2"/>
       <c r="CM249" s="2"/>
       <c r="CN249" s="2"/>
     </row>
-    <row r="250" spans="27:158" x14ac:dyDescent="0.45">
+    <row r="250" spans="27:158">
       <c r="AA250" s="12" t="s">
         <v>49</v>
       </c>
@@ -27246,39 +28311,39 @@
       <c r="FA250" s="1"/>
       <c r="FB250" s="1"/>
     </row>
-    <row r="251" spans="27:158" x14ac:dyDescent="0.45">
+    <row r="251" spans="27:158">
       <c r="AA251" s="9"/>
       <c r="BS251" s="9"/>
       <c r="CD251" s="2"/>
       <c r="CE251" s="2"/>
       <c r="CF251" s="2"/>
     </row>
-    <row r="252" spans="27:158" x14ac:dyDescent="0.45">
+    <row r="252" spans="27:158">
       <c r="AA252" s="1"/>
       <c r="BS252" s="1"/>
     </row>
-    <row r="253" spans="27:158" x14ac:dyDescent="0.45">
+    <row r="253" spans="27:158">
       <c r="AA253" s="1"/>
       <c r="BS253" s="1"/>
       <c r="BT253" s="2"/>
     </row>
-    <row r="254" spans="27:158" x14ac:dyDescent="0.45">
+    <row r="254" spans="27:158">
       <c r="AA254" s="1"/>
       <c r="BS254" s="1"/>
     </row>
-    <row r="255" spans="27:158" x14ac:dyDescent="0.45">
+    <row r="255" spans="27:158">
       <c r="AA255" s="1"/>
       <c r="BS255" s="1"/>
     </row>
-    <row r="256" spans="27:158" x14ac:dyDescent="0.45">
+    <row r="256" spans="27:158">
       <c r="AA256" s="1"/>
       <c r="BS256" s="1"/>
     </row>
-    <row r="257" spans="27:144" x14ac:dyDescent="0.45">
+    <row r="257" spans="27:144">
       <c r="AA257" s="13"/>
       <c r="BS257" s="13"/>
     </row>
-    <row r="258" spans="27:144" x14ac:dyDescent="0.45">
+    <row r="258" spans="27:144">
       <c r="AA258" s="1"/>
       <c r="BS258" s="1"/>
       <c r="DC258" s="2"/>
@@ -27287,7 +28352,7 @@
       <c r="EL258" s="2"/>
       <c r="EN258" s="2"/>
     </row>
-    <row r="259" spans="27:144" x14ac:dyDescent="0.45">
+    <row r="259" spans="27:144">
       <c r="AA259" s="1"/>
       <c r="AB259" s="1"/>
       <c r="AC259" s="1"/>
@@ -27339,21 +28404,21 @@
       <c r="EL259" s="2"/>
       <c r="EN259" s="2"/>
     </row>
-    <row r="260" spans="27:144" x14ac:dyDescent="0.45">
+    <row r="260" spans="27:144">
       <c r="DC260" s="2"/>
       <c r="DM260" s="2"/>
       <c r="DW260" s="2"/>
       <c r="EL260" s="2"/>
       <c r="EN260" s="2"/>
     </row>
-    <row r="261" spans="27:144" x14ac:dyDescent="0.45">
+    <row r="261" spans="27:144">
       <c r="DC261" s="2"/>
       <c r="DM261" s="2"/>
       <c r="DW261" s="2"/>
       <c r="EL261" s="2"/>
       <c r="EN261" s="2"/>
     </row>
-    <row r="262" spans="27:144" x14ac:dyDescent="0.45">
+    <row r="262" spans="27:144">
       <c r="DC262" s="2"/>
       <c r="DM262" s="2"/>
       <c r="DW262" s="2"/>
@@ -27361,7 +28426,7 @@
       <c r="EL262" s="2"/>
       <c r="EN262" s="2"/>
     </row>
-    <row r="263" spans="27:144" x14ac:dyDescent="0.45">
+    <row r="263" spans="27:144">
       <c r="DC263" s="2"/>
       <c r="DM263" s="2"/>
       <c r="DW263" s="2"/>
@@ -27369,12 +28434,12 @@
       <c r="EL263" s="2"/>
       <c r="EN263" s="2"/>
     </row>
-    <row r="264" spans="27:144" x14ac:dyDescent="0.45">
+    <row r="264" spans="27:144">
       <c r="DW264" s="2"/>
       <c r="EB264" s="2"/>
       <c r="EM264" s="10"/>
     </row>
-    <row r="265" spans="27:144" x14ac:dyDescent="0.45">
+    <row r="265" spans="27:144">
       <c r="DC265" s="2"/>
       <c r="DG265" s="4"/>
       <c r="DJ265" s="4"/>
@@ -27400,12 +28465,12 @@
       <selection activeCell="AG26" sqref="AG26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="3" customFormat="1">
       <c r="A1" s="37" t="s">
         <v>190</v>
       </c>
@@ -27413,7 +28478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" s="5" customFormat="1">
       <c r="A3"/>
       <c r="C3" s="5" t="s">
         <v>5</v>
@@ -27422,80 +28487,80 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7">
       <c r="C5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7">
       <c r="C6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" s="5" customFormat="1">
       <c r="A8"/>
       <c r="C8" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7">
       <c r="C10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7">
       <c r="C11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7">
       <c r="C12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" s="5" customFormat="1">
       <c r="A15"/>
       <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6">
       <c r="C17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6">
       <c r="C18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6">
       <c r="C19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6">
       <c r="C20" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" s="5" customFormat="1">
       <c r="A22"/>
       <c r="C22" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6">
       <c r="C24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6">
       <c r="C25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6">
       <c r="C27" s="5" t="s">
         <v>308</v>
       </c>
@@ -27504,18 +28569,18 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6">
       <c r="F28" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" s="5" customFormat="1">
       <c r="A31"/>
       <c r="C31" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:36">
       <c r="C33" t="s">
         <v>88</v>
       </c>
@@ -27529,7 +28594,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:36">
       <c r="C34" t="s">
         <v>87</v>
       </c>
@@ -27543,12 +28608,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:36">
       <c r="C36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:36">
       <c r="D37" s="27"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
@@ -27568,7 +28633,7 @@
       <c r="T37" s="28"/>
       <c r="U37" s="29"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:36">
       <c r="D38" s="30"/>
       <c r="G38" t="s">
         <v>0</v>
@@ -27582,7 +28647,7 @@
       </c>
       <c r="U38" s="31"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:36">
       <c r="D39" s="32"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
@@ -27602,7 +28667,7 @@
       <c r="T39" s="33"/>
       <c r="U39" s="34"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:36">
       <c r="D41" s="27"/>
       <c r="E41" s="28" t="s">
         <v>152</v>
@@ -27627,25 +28692,25 @@
       <c r="X41" s="28"/>
       <c r="Y41" s="29"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:36">
       <c r="D42" s="30"/>
       <c r="L42" s="31"/>
       <c r="P42" s="30"/>
       <c r="Y42" s="31"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:36">
       <c r="D43" s="30"/>
       <c r="L43" s="31"/>
       <c r="P43" s="30"/>
       <c r="Y43" s="31"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:36">
       <c r="D44" s="30"/>
       <c r="L44" s="31"/>
       <c r="P44" s="30"/>
       <c r="Y44" s="31"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:36">
       <c r="D45" s="32"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
@@ -27666,13 +28731,13 @@
       <c r="X45" s="33"/>
       <c r="Y45" s="34"/>
     </row>
-    <row r="48" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:36" s="5" customFormat="1">
       <c r="A48"/>
       <c r="C48" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:43">
       <c r="C50" t="s">
         <v>85</v>
       </c>
@@ -27686,12 +28751,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:43">
       <c r="K51" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:43">
       <c r="A53" s="20">
         <v>45618</v>
       </c>
@@ -27718,7 +28783,7 @@
       <c r="Y53" s="28"/>
       <c r="Z53" s="29"/>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:43">
       <c r="A54" t="s">
         <v>211</v>
       </c>
@@ -27734,15 +28799,15 @@
       </c>
       <c r="Z54" s="31"/>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:43">
       <c r="E55" s="30"/>
       <c r="Z55" s="31"/>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:43">
       <c r="E56" s="30"/>
       <c r="Z56" s="31"/>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:43">
       <c r="E57" s="32"/>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -27766,13 +28831,13 @@
       <c r="Y57" s="33"/>
       <c r="Z57" s="34"/>
     </row>
-    <row r="59" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:43" s="5" customFormat="1">
       <c r="A59"/>
       <c r="C59" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:43">
       <c r="C61" t="s">
         <v>89</v>
       </c>
@@ -27780,7 +28845,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:43">
       <c r="G63" s="27"/>
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
@@ -27792,7 +28857,7 @@
       <c r="O63" s="28"/>
       <c r="P63" s="29"/>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:43">
       <c r="G64" s="30"/>
       <c r="I64" t="s">
         <v>212</v>
@@ -27802,15 +28867,15 @@
       </c>
       <c r="P64" s="31"/>
     </row>
-    <row r="65" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:41">
       <c r="G65" s="30"/>
       <c r="P65" s="31"/>
     </row>
-    <row r="66" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="66" spans="3:41">
       <c r="G66" s="30"/>
       <c r="P66" s="31"/>
     </row>
-    <row r="67" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="67" spans="3:41">
       <c r="G67" s="32"/>
       <c r="H67" s="33"/>
       <c r="I67" s="33"/>
@@ -27822,17 +28887,17 @@
       <c r="O67" s="33"/>
       <c r="P67" s="34"/>
     </row>
-    <row r="69" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="69" spans="3:41">
       <c r="C69" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="74" spans="3:41" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="3:41" s="5" customFormat="1">
       <c r="D74" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="77" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="77" spans="3:41">
       <c r="H77" s="27"/>
       <c r="I77" s="28"/>
       <c r="J77" s="28"/>
@@ -27850,7 +28915,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="78" spans="3:41">
       <c r="H78" s="30"/>
       <c r="I78" t="s">
         <v>213</v>
@@ -27863,11 +28928,11 @@
         <v>172</v>
       </c>
     </row>
-    <row r="79" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="79" spans="3:41">
       <c r="H79" s="30"/>
       <c r="T79" s="31"/>
     </row>
-    <row r="80" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="80" spans="3:41">
       <c r="H80" s="30"/>
       <c r="T80" s="31"/>
       <c r="W80" s="5" t="s">
@@ -27893,7 +28958,7 @@
       <c r="AN80" s="5"/>
       <c r="AO80" s="5"/>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:41">
       <c r="H81" s="32"/>
       <c r="I81" s="33"/>
       <c r="J81" s="33"/>
@@ -27926,46 +28991,46 @@
       <c r="AN81" s="5"/>
       <c r="AO81" s="5"/>
     </row>
-    <row r="91" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:41" s="5" customFormat="1">
       <c r="A91"/>
       <c r="C91" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:41">
       <c r="C93" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:41">
       <c r="I95" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="96" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:41">
       <c r="D96" t="s">
         <v>141</v>
       </c>
       <c r="H96" s="2"/>
     </row>
-    <row r="97" spans="3:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="98" spans="3:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="99" spans="3:4" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="3:4" ht="18.600000000000001" customHeight="1"/>
+    <row r="98" spans="3:4" ht="18.600000000000001" customHeight="1"/>
+    <row r="99" spans="3:4" s="5" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="C99" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="3:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="101" spans="3:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="3:4" ht="18.600000000000001" customHeight="1"/>
+    <row r="101" spans="3:4" ht="18.600000000000001" customHeight="1">
       <c r="D101" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="102" spans="3:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="103" spans="3:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="104" spans="3:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="105" spans="3:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="106" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="3:4" ht="18.600000000000001" customHeight="1"/>
+    <row r="103" spans="3:4" ht="18.600000000000001" customHeight="1"/>
+    <row r="104" spans="3:4" ht="18.600000000000001" customHeight="1"/>
+    <row r="105" spans="3:4" ht="18.600000000000001" customHeight="1"/>
+    <row r="106" spans="3:4" s="3" customFormat="1">
       <c r="C106" s="8" t="s">
         <v>17</v>
       </c>
@@ -27986,90 +29051,89 @@
       <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="3" customFormat="1">
       <c r="B1" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:2" s="5" customFormat="1">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:2" s="5" customFormat="1">
       <c r="B7" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:2" s="5" customFormat="1">
       <c r="B12" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="2:2" s="57" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="17" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" s="5" customFormat="1">
       <c r="B17" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4">
       <c r="C19" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4">
       <c r="D20" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4">
       <c r="D21" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4">
       <c r="D22" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4">
       <c r="D23" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="33" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:16" s="5" customFormat="1">
       <c r="B33" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:16">
       <c r="C35" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:16">
       <c r="C36" t="s">
         <v>319</v>
       </c>
@@ -28077,12 +29141,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="38" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:16" s="5" customFormat="1">
       <c r="B38" s="5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:16">
       <c r="C40" t="s">
         <v>322</v>
       </c>
@@ -28090,12 +29154,12 @@
         <v>323</v>
       </c>
     </row>
-    <row r="42" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:16" s="5" customFormat="1">
       <c r="B42" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:16">
       <c r="C44" t="s">
         <v>325</v>
       </c>
@@ -28103,12 +29167,12 @@
         <v>326</v>
       </c>
     </row>
-    <row r="46" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:16" s="5" customFormat="1">
       <c r="B46" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:16">
       <c r="C48" t="s">
         <v>328</v>
       </c>
@@ -28116,7 +29180,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="51" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:2" s="3" customFormat="1">
       <c r="B51" s="3" t="s">
         <v>17</v>
       </c>
@@ -28136,12 +29200,12 @@
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" s="3" customFormat="1">
       <c r="A1" s="37" t="s">
         <v>190</v>
       </c>
@@ -28149,7 +29213,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" s="5" customFormat="1">
       <c r="A3"/>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -28158,28 +29222,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18">
       <c r="B5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" s="5" customFormat="1">
       <c r="B7" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18">
       <c r="B9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" s="5" customFormat="1">
       <c r="A11"/>
       <c r="B11" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -28190,33 +29254,33 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18">
       <c r="B14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18">
       <c r="B15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18">
       <c r="B16" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" s="5" customFormat="1">
       <c r="A21"/>
       <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19">
       <c r="B23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19">
       <c r="F25" s="5" t="s">
         <v>367</v>
       </c>
@@ -28233,19 +29297,19 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
-    <row r="28" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" s="9" customFormat="1">
       <c r="A28"/>
       <c r="B28" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" s="5" customFormat="1">
       <c r="A30"/>
       <c r="B30" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19">
       <c r="F32" s="4"/>
       <c r="G32" t="s">
         <v>105</v>
@@ -28258,7 +29322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13">
       <c r="J35" t="s">
         <v>20</v>
       </c>
@@ -28266,17 +29330,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13">
       <c r="F36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="39" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" s="5" customFormat="1">
       <c r="A39" s="7"/>
       <c r="B39" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13">
       <c r="F42" t="s">
         <v>197</v>
       </c>
@@ -28284,7 +29348,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13">
       <c r="B43" t="s">
         <v>141</v>
       </c>
@@ -28292,13 +29356,13 @@
       <c r="H43" s="4"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="46" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" s="5" customFormat="1">
       <c r="A46" s="7"/>
       <c r="B46" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:30">
       <c r="F49" t="s">
         <v>197</v>
       </c>
@@ -28306,11 +29370,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:30">
       <c r="H50" s="4"/>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:30">
       <c r="B51" t="s">
         <v>143</v>
       </c>
@@ -28321,23 +29385,23 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="54" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:30" s="5" customFormat="1">
       <c r="A54" s="7"/>
       <c r="B54" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:30">
       <c r="M56" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:30">
       <c r="C57" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:30">
       <c r="E59" s="27"/>
       <c r="F59" s="28"/>
       <c r="G59" s="28"/>
@@ -28360,7 +29424,7 @@
       <c r="AC59" s="28"/>
       <c r="AD59" s="29"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:30">
       <c r="E60" s="30"/>
       <c r="G60" t="s">
         <v>198</v>
@@ -28375,7 +29439,7 @@
       </c>
       <c r="AD60" s="31"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:30">
       <c r="E61" s="30"/>
       <c r="K61" s="4"/>
       <c r="O61" s="31"/>
@@ -28383,13 +29447,13 @@
       <c r="AA61" s="11"/>
       <c r="AD61" s="31"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:30">
       <c r="E62" s="30"/>
       <c r="O62" s="31"/>
       <c r="U62" s="30"/>
       <c r="AD62" s="31"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:30">
       <c r="E63" s="32"/>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
@@ -28412,12 +29476,12 @@
       <c r="AC63" s="33"/>
       <c r="AD63" s="34"/>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:24">
       <c r="U65" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:24">
       <c r="F66" s="5" t="s">
         <v>272</v>
       </c>
@@ -28440,12 +29504,12 @@
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
     </row>
-    <row r="68" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:24" s="5" customFormat="1">
       <c r="B68" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="71" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:24" s="3" customFormat="1">
       <c r="B71" s="8" t="s">
         <v>17</v>
       </c>
@@ -28466,12 +29530,12 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" s="3" customFormat="1">
       <c r="A1" s="37" t="s">
         <v>190</v>
       </c>
@@ -28479,7 +29543,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" s="5" customFormat="1">
       <c r="A3"/>
       <c r="C3" s="5" t="s">
         <v>5</v>
@@ -28488,28 +29552,28 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32">
       <c r="C5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" s="5" customFormat="1">
       <c r="C7" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32">
       <c r="C9" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:32" s="5" customFormat="1">
       <c r="A11"/>
       <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32">
       <c r="C13" t="s">
         <v>24</v>
       </c>
@@ -28520,7 +29584,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -28531,28 +29595,28 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32">
       <c r="C15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32">
       <c r="C16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" s="5" customFormat="1">
       <c r="A18"/>
       <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28">
       <c r="C20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:28">
       <c r="A22" s="20">
         <v>45643</v>
       </c>
@@ -28573,22 +29637,22 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="25" spans="1:28" s="42" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:28" s="42" customFormat="1">
       <c r="B25" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:28">
       <c r="A26" s="20">
         <v>45618</v>
       </c>
     </row>
-    <row r="27" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:28" s="5" customFormat="1">
       <c r="C27" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:28">
       <c r="F29" s="10"/>
       <c r="H29" t="s">
         <v>242</v>
@@ -28601,10 +29665,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:28">
       <c r="T31" s="43"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:28">
       <c r="S32" t="s">
         <v>147</v>
       </c>
@@ -28612,12 +29676,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="3:24" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:24" s="5" customFormat="1">
       <c r="C38" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:24">
       <c r="G40" s="27"/>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
@@ -28631,11 +29695,11 @@
       <c r="Q40" s="28"/>
       <c r="R40" s="29"/>
     </row>
-    <row r="41" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:24">
       <c r="G41" s="30"/>
       <c r="R41" s="31"/>
     </row>
-    <row r="42" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:24">
       <c r="G42" s="30"/>
       <c r="R42" s="31"/>
       <c r="T42" t="s">
@@ -28645,23 +29709,23 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:24">
       <c r="G43" s="30"/>
       <c r="R43" s="31"/>
     </row>
-    <row r="44" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:24">
       <c r="G44" s="30"/>
       <c r="R44" s="31"/>
     </row>
-    <row r="45" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:24">
       <c r="G45" s="30"/>
       <c r="R45" s="31"/>
     </row>
-    <row r="46" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:24">
       <c r="G46" s="30"/>
       <c r="R46" s="31"/>
     </row>
-    <row r="47" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:24">
       <c r="G47" s="32"/>
       <c r="H47" s="33"/>
       <c r="I47" s="33"/>
@@ -28675,12 +29739,12 @@
       <c r="Q47" s="33"/>
       <c r="R47" s="34"/>
     </row>
-    <row r="50" spans="3:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:35" s="5" customFormat="1">
       <c r="C50" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:35">
       <c r="G52" s="27"/>
       <c r="H52" s="28"/>
       <c r="I52" s="28"/>
@@ -28694,16 +29758,16 @@
       <c r="Q52" s="28"/>
       <c r="R52" s="29"/>
     </row>
-    <row r="53" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:35">
       <c r="G53" s="30"/>
       <c r="R53" s="31"/>
     </row>
-    <row r="54" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:35">
       <c r="G54" s="30"/>
       <c r="L54" s="2"/>
       <c r="R54" s="31"/>
     </row>
-    <row r="55" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:35">
       <c r="G55" s="30"/>
       <c r="H55" t="s">
         <v>206</v>
@@ -28711,19 +29775,19 @@
       <c r="L55" s="2"/>
       <c r="R55" s="31"/>
     </row>
-    <row r="56" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:35">
       <c r="G56" s="30"/>
       <c r="L56" s="2"/>
       <c r="R56" s="31"/>
     </row>
-    <row r="57" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:35">
       <c r="G57" s="30"/>
       <c r="L57" t="s">
         <v>205</v>
       </c>
       <c r="R57" s="31"/>
     </row>
-    <row r="58" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:35">
       <c r="G58" s="32"/>
       <c r="H58" s="33"/>
       <c r="I58" s="33"/>
@@ -28737,17 +29801,17 @@
       <c r="Q58" s="33"/>
       <c r="R58" s="34"/>
     </row>
-    <row r="61" spans="3:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="3:35" s="5" customFormat="1">
       <c r="C61" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="63" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:35">
       <c r="C63" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="64" spans="3:35" x14ac:dyDescent="0.45">
+    <row r="64" spans="3:35">
       <c r="G64" s="27"/>
       <c r="H64" s="28"/>
       <c r="I64" s="28"/>
@@ -28773,7 +29837,7 @@
       <c r="AH64" s="28"/>
       <c r="AI64" s="29"/>
     </row>
-    <row r="65" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:37">
       <c r="G65" s="30"/>
       <c r="R65" s="31"/>
       <c r="X65" s="30"/>
@@ -28782,13 +29846,13 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="66" spans="3:37">
       <c r="G66" s="30"/>
       <c r="R66" s="31"/>
       <c r="X66" s="30"/>
       <c r="AI66" s="31"/>
     </row>
-    <row r="67" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="67" spans="3:37">
       <c r="G67" s="30"/>
       <c r="R67" s="31"/>
       <c r="X67" s="30"/>
@@ -28797,7 +29861,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="68" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="68" spans="3:37">
       <c r="G68" s="30"/>
       <c r="I68" t="s">
         <v>198</v>
@@ -28809,13 +29873,13 @@
       </c>
       <c r="AI68" s="31"/>
     </row>
-    <row r="69" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="69" spans="3:37">
       <c r="G69" s="30"/>
       <c r="R69" s="31"/>
       <c r="X69" s="30"/>
       <c r="AI69" s="31"/>
     </row>
-    <row r="70" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="70" spans="3:37">
       <c r="G70" s="32"/>
       <c r="H70" s="33"/>
       <c r="I70" s="33"/>
@@ -28843,12 +29907,12 @@
       <c r="AH70" s="33"/>
       <c r="AI70" s="34"/>
     </row>
-    <row r="72" spans="3:37" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="3:37" s="5" customFormat="1">
       <c r="C72" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="74" spans="3:37">
       <c r="G74" s="27"/>
       <c r="H74" s="28"/>
       <c r="I74" s="28"/>
@@ -28874,7 +29938,7 @@
       <c r="AH74" s="28"/>
       <c r="AI74" s="29"/>
     </row>
-    <row r="75" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="75" spans="3:37">
       <c r="G75" s="30"/>
       <c r="J75" t="s">
         <v>198</v>
@@ -28892,7 +29956,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="76" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="76" spans="3:37">
       <c r="G76" s="30"/>
       <c r="R76" s="31"/>
       <c r="X76" s="30"/>
@@ -28901,25 +29965,25 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="77" spans="3:37">
       <c r="G77" s="30"/>
       <c r="R77" s="31"/>
       <c r="X77" s="30"/>
       <c r="AI77" s="31"/>
     </row>
-    <row r="78" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="78" spans="3:37">
       <c r="G78" s="30"/>
       <c r="R78" s="31"/>
       <c r="X78" s="30"/>
       <c r="AI78" s="31"/>
     </row>
-    <row r="79" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="79" spans="3:37">
       <c r="G79" s="30"/>
       <c r="R79" s="31"/>
       <c r="X79" s="30"/>
       <c r="AI79" s="31"/>
     </row>
-    <row r="80" spans="3:37" x14ac:dyDescent="0.45">
+    <row r="80" spans="3:37">
       <c r="G80" s="32"/>
       <c r="H80" s="33"/>
       <c r="I80" s="33"/>
@@ -28945,7 +30009,7 @@
       <c r="AH80" s="33"/>
       <c r="AI80" s="34"/>
     </row>
-    <row r="83" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:25">
       <c r="G83" s="5" t="s">
         <v>272</v>
       </c>
@@ -28968,12 +30032,12 @@
       <c r="X83" s="5"/>
       <c r="Y83" s="5"/>
     </row>
-    <row r="89" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:25" s="5" customFormat="1">
       <c r="B89" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="91" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:25" s="3" customFormat="1">
       <c r="C91" s="8" t="s">
         <v>17</v>
       </c>
@@ -28994,12 +30058,12 @@
       <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" s="3" customFormat="1">
       <c r="A1" s="37" t="s">
         <v>190</v>
       </c>
@@ -29007,39 +30071,39 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" s="5" customFormat="1">
       <c r="A3"/>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18">
       <c r="B5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" s="5" customFormat="1">
       <c r="B7" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18">
       <c r="B9" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18">
       <c r="B10" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" s="5" customFormat="1">
       <c r="A13"/>
       <c r="B13" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18">
       <c r="B15" t="s">
         <v>7</v>
       </c>
@@ -29050,33 +30114,33 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18">
       <c r="B16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24">
       <c r="B17" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24">
       <c r="B18" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" s="5" customFormat="1">
       <c r="A21"/>
       <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24">
       <c r="B23" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24">
       <c r="A25" s="20">
         <v>45643</v>
       </c>
@@ -29095,19 +30159,19 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="27" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" s="9" customFormat="1">
       <c r="A27"/>
       <c r="B27" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" s="5" customFormat="1">
       <c r="A29"/>
       <c r="B29" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:24">
       <c r="F31" s="4"/>
       <c r="G31" t="s">
         <v>105</v>
@@ -29123,7 +30187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:30">
       <c r="J34" t="s">
         <v>249</v>
       </c>
@@ -29131,22 +30195,22 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:30">
       <c r="F35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="41" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:30" s="5" customFormat="1">
       <c r="A41" s="7"/>
       <c r="B41" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:30">
       <c r="C43" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:30">
       <c r="E44" s="27"/>
       <c r="F44" s="28"/>
       <c r="G44" s="28"/>
@@ -29169,7 +30233,7 @@
       <c r="AC44" s="28"/>
       <c r="AD44" s="29"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:30">
       <c r="E45" s="30"/>
       <c r="G45" t="s">
         <v>198</v>
@@ -29184,7 +30248,7 @@
       </c>
       <c r="AD45" s="31"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:30">
       <c r="E46" s="30"/>
       <c r="K46" s="4"/>
       <c r="O46" s="31"/>
@@ -29192,13 +30256,13 @@
       <c r="AA46" s="41"/>
       <c r="AD46" s="31"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:30">
       <c r="E47" s="30"/>
       <c r="O47" s="31"/>
       <c r="U47" s="30"/>
       <c r="AD47" s="31"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:30">
       <c r="E48" s="32"/>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -29221,12 +30285,12 @@
       <c r="AC48" s="33"/>
       <c r="AD48" s="34"/>
     </row>
-    <row r="50" spans="2:53" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:53">
       <c r="U50" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="2:53" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:53">
       <c r="G51" s="5" t="s">
         <v>272</v>
       </c>
@@ -29249,12 +30313,12 @@
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
     </row>
-    <row r="53" spans="2:53" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:53" s="5" customFormat="1">
       <c r="B53" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="55" spans="2:53" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:53">
       <c r="D55" s="27"/>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
@@ -29273,7 +30337,7 @@
       <c r="X55" s="28"/>
       <c r="Y55" s="29"/>
     </row>
-    <row r="56" spans="2:53" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:53">
       <c r="D56" s="30"/>
       <c r="F56" t="s">
         <v>255</v>
@@ -29285,7 +30349,7 @@
       </c>
       <c r="Y56" s="31"/>
     </row>
-    <row r="57" spans="2:53" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:53">
       <c r="D57" s="30"/>
       <c r="E57" s="2"/>
       <c r="J57" s="4"/>
@@ -29298,13 +30362,13 @@
       <c r="W57" s="4"/>
       <c r="Y57" s="31"/>
     </row>
-    <row r="58" spans="2:53" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:53">
       <c r="D58" s="30"/>
       <c r="K58" s="31"/>
       <c r="Q58" s="30"/>
       <c r="Y58" s="31"/>
     </row>
-    <row r="59" spans="2:53" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:53">
       <c r="D59" s="32"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
@@ -29323,12 +30387,12 @@
       <c r="X59" s="33"/>
       <c r="Y59" s="34"/>
     </row>
-    <row r="62" spans="2:53" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:53" s="5" customFormat="1">
       <c r="B62" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="64" spans="2:53" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:53">
       <c r="E64" s="27"/>
       <c r="F64" s="28"/>
       <c r="G64" s="28"/>
@@ -29369,7 +30433,7 @@
       <c r="AZ64" s="28"/>
       <c r="BA64" s="29"/>
     </row>
-    <row r="65" spans="2:53" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:53">
       <c r="E65" s="30"/>
       <c r="Q65" s="31"/>
       <c r="W65" s="30"/>
@@ -29377,7 +30441,7 @@
       <c r="AO65" s="30"/>
       <c r="BA65" s="31"/>
     </row>
-    <row r="66" spans="2:53" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:53">
       <c r="E66" s="30"/>
       <c r="N66" s="4"/>
       <c r="Q66" s="31"/>
@@ -29391,7 +30455,7 @@
       </c>
       <c r="BA66" s="31"/>
     </row>
-    <row r="67" spans="2:53" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:53">
       <c r="E67" s="30"/>
       <c r="Q67" s="31"/>
       <c r="W67" s="30"/>
@@ -29399,7 +30463,7 @@
       <c r="AO67" s="30"/>
       <c r="BA67" s="31"/>
     </row>
-    <row r="68" spans="2:53" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:53">
       <c r="E68" s="30"/>
       <c r="Q68" s="31"/>
       <c r="W68" s="30"/>
@@ -29407,7 +30471,7 @@
       <c r="AO68" s="30"/>
       <c r="BA68" s="31"/>
     </row>
-    <row r="69" spans="2:53" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:53">
       <c r="E69" s="30"/>
       <c r="Q69" s="31"/>
       <c r="W69" s="30"/>
@@ -29415,7 +30479,7 @@
       <c r="AO69" s="30"/>
       <c r="BA69" s="31"/>
     </row>
-    <row r="70" spans="2:53" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:53">
       <c r="E70" s="30"/>
       <c r="Q70" s="31"/>
       <c r="W70" s="30"/>
@@ -29423,7 +30487,7 @@
       <c r="AO70" s="30"/>
       <c r="BA70" s="31"/>
     </row>
-    <row r="71" spans="2:53" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:53">
       <c r="E71" s="32"/>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
@@ -29464,22 +30528,22 @@
       <c r="AZ71" s="33"/>
       <c r="BA71" s="34"/>
     </row>
-    <row r="72" spans="2:53" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:53">
       <c r="Z72" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="73" spans="2:53" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:53">
       <c r="Y73" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="75" spans="2:53" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:53" s="5" customFormat="1">
       <c r="B75" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="80" spans="2:53" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:53" s="3" customFormat="1">
       <c r="B80" s="8" t="s">
         <v>17</v>
       </c>
